--- a/src/NIMBIS.xlsx
+++ b/src/NIMBIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SandhiyaM\Documents\GitHub\qa-automation-nimbus\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5673F93-BFB0-4C0C-85B8-9D8A6B4DCB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E1E7F4-E4AD-4D3B-BB57-2492CC9369EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23016" windowHeight="11232" firstSheet="2" activeTab="5" xr2:uid="{A48C591E-A447-324F-80BA-5B973C426F33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{A48C591E-A447-324F-80BA-5B973C426F33}"/>
   </bookViews>
   <sheets>
     <sheet name=" Client Test cases" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11340" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11375" uniqueCount="443">
   <si>
     <t>ITC check consent</t>
   </si>
@@ -1097,15 +1097,6 @@
     <t>Cover Details</t>
   </si>
   <si>
-    <t>Cover for partner *</t>
-  </si>
-  <si>
-    <t>Cover for children *</t>
-  </si>
-  <si>
-    <t>Cyber insurance cover option *</t>
-  </si>
-  <si>
     <t>Mega</t>
   </si>
   <si>
@@ -1169,9 +1160,6 @@
     <t>SECURITY</t>
   </si>
   <si>
-    <t xml:space="preserve">Electric Fence </t>
-  </si>
-  <si>
     <t xml:space="preserve">Burglar bars on all opening windows </t>
   </si>
   <si>
@@ -1185,9 +1173,6 @@
   </si>
   <si>
     <t xml:space="preserve">All doors protected by security gates </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perimeter protection </t>
   </si>
   <si>
     <t xml:space="preserve">High-security estate/complex </t>
@@ -1247,13 +1232,7 @@
     <t>Power Surge</t>
   </si>
   <si>
-    <t>Full cover</t>
-  </si>
-  <si>
     <t>Farms</t>
-  </si>
-  <si>
-    <t>Not linked to armed response</t>
   </si>
   <si>
     <t>Townhouse / Cluster with access control</t>
@@ -1286,28 +1265,10 @@
     <t>Wooden shingles</t>
   </si>
   <si>
-    <t>Linked to armed response</t>
-  </si>
-  <si>
-    <t>Number of Contents claims in the last 12 months *</t>
-  </si>
-  <si>
-    <t>Number of Contents claims in the last 25 to 36 months *</t>
-  </si>
-  <si>
-    <t>Number of Contents claims in the last 13 to 24 months *</t>
-  </si>
-  <si>
     <t>Survery completed</t>
   </si>
   <si>
     <t>20/12/1976</t>
-  </si>
-  <si>
-    <t>Years of previous uninterrupted contents insurance cover *</t>
-  </si>
-  <si>
-    <t>Use of adjoining land *</t>
   </si>
   <si>
     <t>Agriculture holdings</t>
@@ -1341,9 +1302,6 @@
   </si>
   <si>
     <t>Sum Insured</t>
-  </si>
-  <si>
-    <t>Limited cover (excl. theft)</t>
   </si>
   <si>
     <t>TC No</t>
@@ -1423,6 +1381,15 @@
   <si>
     <t>saris class</t>
   </si>
+  <si>
+    <t>25 hour security guard</t>
+  </si>
+  <si>
+    <t>Years of previous uninterrupted contents insurance cover</t>
+  </si>
+  <si>
+    <t>Limited Cover (excl. theft)</t>
+  </si>
 </sst>
 </file>
 
@@ -1431,7 +1398,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1473,6 +1440,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1509,13 +1482,14 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="8" builtinId="3"/>
@@ -26897,7 +26871,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26920,13 +26894,13 @@
         <v>344</v>
       </c>
       <c r="D1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -26934,16 +26908,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
         <v>345</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -26951,16 +26925,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
         <v>345</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -26968,7 +26942,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -26977,7 +26951,7 @@
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -26985,7 +26959,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
@@ -26994,7 +26968,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -27002,7 +26976,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -27011,7 +26985,7 @@
         <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -27019,7 +26993,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -27028,7 +27002,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -27036,16 +27010,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -27053,7 +27027,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
@@ -27062,7 +27036,7 @@
         <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -27070,7 +27044,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D10" t="s">
         <v>49</v>
@@ -27079,7 +27053,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -27114,7 +27088,7 @@
         <v>342</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -27128,13 +27102,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3695A1B5-30DE-4652-A92D-76AA38C7B0EE}">
-  <dimension ref="A1:BR162"/>
+  <dimension ref="A1:BR161"/>
   <sheetViews>
-    <sheetView topLeftCell="X145" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:70">
       <c r="A1" t="s">
@@ -27144,19 +27121,19 @@
         <v>225</v>
       </c>
       <c r="C1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D1" t="s">
         <v>227</v>
       </c>
       <c r="E1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I1" t="s">
         <v>96</v>
@@ -27171,7 +27148,7 @@
         <v>103</v>
       </c>
       <c r="M1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N1" t="s">
         <v>120</v>
@@ -27186,7 +27163,7 @@
         <v>128</v>
       </c>
       <c r="S1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="T1" t="s">
         <v>250</v>
@@ -27204,112 +27181,112 @@
         <v>127</v>
       </c>
       <c r="Y1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Z1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AA1" t="s">
         <v>88</v>
       </c>
       <c r="AB1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AC1" t="s">
         <v>252</v>
       </c>
       <c r="AD1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>366</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AK1" t="s">
         <v>367</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AL1" t="s">
         <v>368</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>369</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>370</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP1" t="s">
         <v>371</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AQ1" t="s">
         <v>372</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AR1" t="s">
         <v>373</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AT1" t="s">
         <v>374</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AV1" t="s">
         <v>375</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AW1" t="s">
         <v>376</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AX1" t="s">
         <v>377</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AZ1" t="s">
         <v>378</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>383</v>
       </c>
       <c r="BB1" t="s">
         <v>87</v>
       </c>
       <c r="BC1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="BE1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="BG1" t="s">
         <v>265</v>
       </c>
       <c r="BH1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>384</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>385</v>
+      </c>
+      <c r="BO1" t="s">
         <v>386</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BP1" t="s">
         <v>387</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BQ1" t="s">
         <v>388</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BR1" t="s">
         <v>389</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>390</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>391</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>392</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>393</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:70">
@@ -27323,7 +27300,7 @@
         <v>7000000</v>
       </c>
       <c r="E2" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I2" t="s">
         <v>272</v>
@@ -27332,7 +27309,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L2" t="s">
         <v>275</v>
@@ -27368,7 +27345,7 @@
         <v>1</v>
       </c>
       <c r="Y2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z2" t="s">
         <v>1</v>
@@ -27383,7 +27360,7 @@
         <v>5</v>
       </c>
       <c r="AI2" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ2" t="s">
         <v>1</v>
@@ -27460,16 +27437,16 @@
         <v>7000000</v>
       </c>
       <c r="E3" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L3" t="s">
         <v>275</v>
@@ -27505,7 +27482,7 @@
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z3" t="s">
         <v>1</v>
@@ -27520,7 +27497,7 @@
         <v>5</v>
       </c>
       <c r="AI3" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ3" t="s">
         <v>1</v>
@@ -27597,16 +27574,16 @@
         <v>7000000</v>
       </c>
       <c r="E4" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="J4" t="s">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L4" t="s">
         <v>275</v>
@@ -27642,7 +27619,7 @@
         <v>1</v>
       </c>
       <c r="Y4" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z4" t="s">
         <v>1</v>
@@ -27657,7 +27634,7 @@
         <v>5</v>
       </c>
       <c r="AI4" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ4" t="s">
         <v>1</v>
@@ -27734,16 +27711,16 @@
         <v>7000000</v>
       </c>
       <c r="E5" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="J5" t="s">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L5" t="s">
         <v>275</v>
@@ -27779,7 +27756,7 @@
         <v>1</v>
       </c>
       <c r="Y5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z5" t="s">
         <v>1</v>
@@ -27794,7 +27771,7 @@
         <v>5</v>
       </c>
       <c r="AI5" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ5" t="s">
         <v>1</v>
@@ -27871,16 +27848,16 @@
         <v>7000000</v>
       </c>
       <c r="E6" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I6" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="J6" t="s">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L6" t="s">
         <v>275</v>
@@ -27916,7 +27893,7 @@
         <v>1</v>
       </c>
       <c r="Y6" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z6" t="s">
         <v>1</v>
@@ -27931,7 +27908,7 @@
         <v>5</v>
       </c>
       <c r="AI6" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ6" t="s">
         <v>1</v>
@@ -28008,16 +27985,16 @@
         <v>7000000</v>
       </c>
       <c r="E7" t="s">
+        <v>271</v>
+      </c>
+      <c r="I7" t="s">
         <v>395</v>
       </c>
-      <c r="I7" t="s">
-        <v>402</v>
-      </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L7" t="s">
         <v>275</v>
@@ -28053,7 +28030,7 @@
         <v>1</v>
       </c>
       <c r="Y7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z7" t="s">
         <v>1</v>
@@ -28068,7 +28045,7 @@
         <v>5</v>
       </c>
       <c r="AI7" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ7" t="s">
         <v>1</v>
@@ -28145,16 +28122,16 @@
         <v>7000000</v>
       </c>
       <c r="E8" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I8" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="J8" t="s">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L8" t="s">
         <v>275</v>
@@ -28190,7 +28167,7 @@
         <v>1</v>
       </c>
       <c r="Y8" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z8" t="s">
         <v>1</v>
@@ -28205,7 +28182,7 @@
         <v>5</v>
       </c>
       <c r="AI8" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ8" t="s">
         <v>1</v>
@@ -28282,16 +28259,16 @@
         <v>7000000</v>
       </c>
       <c r="E9" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I9" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="J9" t="s">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L9" t="s">
         <v>275</v>
@@ -28327,7 +28304,7 @@
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z9" t="s">
         <v>1</v>
@@ -28342,7 +28319,7 @@
         <v>5</v>
       </c>
       <c r="AI9" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ9" t="s">
         <v>1</v>
@@ -28419,16 +28396,16 @@
         <v>7000000</v>
       </c>
       <c r="E10" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I10" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="J10" t="s">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L10" t="s">
         <v>275</v>
@@ -28464,7 +28441,7 @@
         <v>1</v>
       </c>
       <c r="Y10" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z10" t="s">
         <v>1</v>
@@ -28479,7 +28456,7 @@
         <v>5</v>
       </c>
       <c r="AI10" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ10" t="s">
         <v>1</v>
@@ -28556,16 +28533,16 @@
         <v>7000000</v>
       </c>
       <c r="E11" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I11" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="J11" t="s">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L11" t="s">
         <v>275</v>
@@ -28601,7 +28578,7 @@
         <v>1</v>
       </c>
       <c r="Y11" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z11" t="s">
         <v>1</v>
@@ -28616,7 +28593,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ11" t="s">
         <v>1</v>
@@ -28693,7 +28670,7 @@
         <v>7000000</v>
       </c>
       <c r="E12" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I12" t="s">
         <v>272</v>
@@ -28702,7 +28679,7 @@
         <v>49</v>
       </c>
       <c r="K12" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L12" t="s">
         <v>275</v>
@@ -28738,7 +28715,7 @@
         <v>1</v>
       </c>
       <c r="Y12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z12" t="s">
         <v>1</v>
@@ -28753,7 +28730,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ12" t="s">
         <v>1</v>
@@ -28830,7 +28807,7 @@
         <v>7000000</v>
       </c>
       <c r="E13" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I13" t="s">
         <v>272</v>
@@ -28839,7 +28816,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L13" t="s">
         <v>275</v>
@@ -28875,7 +28852,7 @@
         <v>1</v>
       </c>
       <c r="Y13" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z13" t="s">
         <v>1</v>
@@ -28890,7 +28867,7 @@
         <v>5</v>
       </c>
       <c r="AI13" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ13" t="s">
         <v>1</v>
@@ -28967,7 +28944,7 @@
         <v>7000000</v>
       </c>
       <c r="E14" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I14" t="s">
         <v>272</v>
@@ -29012,7 +28989,7 @@
         <v>1</v>
       </c>
       <c r="Y14" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z14" t="s">
         <v>1</v>
@@ -29027,7 +29004,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ14" t="s">
         <v>1</v>
@@ -29104,7 +29081,7 @@
         <v>7000000</v>
       </c>
       <c r="E15" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I15" t="s">
         <v>272</v>
@@ -29149,7 +29126,7 @@
         <v>1</v>
       </c>
       <c r="Y15" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z15" t="s">
         <v>1</v>
@@ -29164,7 +29141,7 @@
         <v>5</v>
       </c>
       <c r="AI15" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ15" t="s">
         <v>1</v>
@@ -29241,7 +29218,7 @@
         <v>7000000</v>
       </c>
       <c r="E16" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I16" t="s">
         <v>272</v>
@@ -29286,7 +29263,7 @@
         <v>1</v>
       </c>
       <c r="Y16" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z16" t="s">
         <v>1</v>
@@ -29301,7 +29278,7 @@
         <v>5</v>
       </c>
       <c r="AI16" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ16" t="s">
         <v>1</v>
@@ -29378,7 +29355,7 @@
         <v>7000000</v>
       </c>
       <c r="E17" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I17" t="s">
         <v>272</v>
@@ -29423,7 +29400,7 @@
         <v>1</v>
       </c>
       <c r="Y17" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z17" t="s">
         <v>1</v>
@@ -29438,7 +29415,7 @@
         <v>5</v>
       </c>
       <c r="AI17" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ17" t="s">
         <v>1</v>
@@ -29515,7 +29492,7 @@
         <v>7000000</v>
       </c>
       <c r="E18" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I18" t="s">
         <v>272</v>
@@ -29560,7 +29537,7 @@
         <v>1</v>
       </c>
       <c r="Y18" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z18" t="s">
         <v>1</v>
@@ -29575,7 +29552,7 @@
         <v>5</v>
       </c>
       <c r="AI18" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ18" t="s">
         <v>1</v>
@@ -29652,7 +29629,7 @@
         <v>7000000</v>
       </c>
       <c r="E19" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I19" t="s">
         <v>272</v>
@@ -29697,7 +29674,7 @@
         <v>1</v>
       </c>
       <c r="Y19" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z19" t="s">
         <v>1</v>
@@ -29712,7 +29689,7 @@
         <v>5</v>
       </c>
       <c r="AI19" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ19" t="s">
         <v>1</v>
@@ -29789,7 +29766,7 @@
         <v>7000000</v>
       </c>
       <c r="E20" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I20" t="s">
         <v>272</v>
@@ -29798,7 +29775,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="L20" t="s">
         <v>275</v>
@@ -29834,7 +29811,7 @@
         <v>1</v>
       </c>
       <c r="Y20" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z20" t="s">
         <v>1</v>
@@ -29849,7 +29826,7 @@
         <v>5</v>
       </c>
       <c r="AI20" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ20" t="s">
         <v>1</v>
@@ -29926,7 +29903,7 @@
         <v>7000000</v>
       </c>
       <c r="E21" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I21" t="s">
         <v>272</v>
@@ -29971,7 +29948,7 @@
         <v>1</v>
       </c>
       <c r="Y21" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z21" t="s">
         <v>1</v>
@@ -29986,7 +29963,7 @@
         <v>5</v>
       </c>
       <c r="AI21" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ21" t="s">
         <v>1</v>
@@ -30063,7 +30040,7 @@
         <v>7000000</v>
       </c>
       <c r="E22" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I22" t="s">
         <v>272</v>
@@ -30108,7 +30085,7 @@
         <v>1</v>
       </c>
       <c r="Y22" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z22" t="s">
         <v>1</v>
@@ -30123,7 +30100,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ22" t="s">
         <v>1</v>
@@ -30200,7 +30177,7 @@
         <v>7000000</v>
       </c>
       <c r="E23" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I23" t="s">
         <v>272</v>
@@ -30245,7 +30222,7 @@
         <v>1</v>
       </c>
       <c r="Y23" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z23" t="s">
         <v>1</v>
@@ -30260,7 +30237,7 @@
         <v>5</v>
       </c>
       <c r="AI23" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ23" t="s">
         <v>1</v>
@@ -30337,7 +30314,7 @@
         <v>7000000</v>
       </c>
       <c r="E24" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I24" t="s">
         <v>272</v>
@@ -30382,7 +30359,7 @@
         <v>1</v>
       </c>
       <c r="Y24" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z24" t="s">
         <v>1</v>
@@ -30397,7 +30374,7 @@
         <v>5</v>
       </c>
       <c r="AI24" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ24" t="s">
         <v>1</v>
@@ -30474,7 +30451,7 @@
         <v>7000000</v>
       </c>
       <c r="E25" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I25" t="s">
         <v>272</v>
@@ -30483,7 +30460,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L25" t="s">
         <v>273</v>
@@ -30519,7 +30496,7 @@
         <v>1</v>
       </c>
       <c r="Y25" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z25" t="s">
         <v>1</v>
@@ -30534,7 +30511,7 @@
         <v>5</v>
       </c>
       <c r="AI25" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ25" t="s">
         <v>1</v>
@@ -30611,7 +30588,7 @@
         <v>7000000</v>
       </c>
       <c r="E26" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I26" t="s">
         <v>272</v>
@@ -30620,10 +30597,10 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L26" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M26" t="s">
         <v>1</v>
@@ -30656,7 +30633,7 @@
         <v>1</v>
       </c>
       <c r="Y26" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z26" t="s">
         <v>1</v>
@@ -30671,7 +30648,7 @@
         <v>5</v>
       </c>
       <c r="AI26" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ26" t="s">
         <v>1</v>
@@ -30748,7 +30725,7 @@
         <v>7000000</v>
       </c>
       <c r="E27" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I27" t="s">
         <v>272</v>
@@ -30757,7 +30734,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L27" t="s">
         <v>290</v>
@@ -30793,7 +30770,7 @@
         <v>1</v>
       </c>
       <c r="Y27" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z27" t="s">
         <v>1</v>
@@ -30808,7 +30785,7 @@
         <v>5</v>
       </c>
       <c r="AI27" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ27" t="s">
         <v>1</v>
@@ -30885,7 +30862,7 @@
         <v>7000000</v>
       </c>
       <c r="E28" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I28" t="s">
         <v>272</v>
@@ -30894,7 +30871,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s">
         <v>275</v>
@@ -30930,7 +30907,7 @@
         <v>1</v>
       </c>
       <c r="Y28" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z28" t="s">
         <v>1</v>
@@ -30945,7 +30922,7 @@
         <v>5</v>
       </c>
       <c r="AI28" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ28" t="s">
         <v>1</v>
@@ -31022,7 +30999,7 @@
         <v>7000000</v>
       </c>
       <c r="E29" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I29" t="s">
         <v>272</v>
@@ -31031,7 +31008,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L29" t="s">
         <v>291</v>
@@ -31067,7 +31044,7 @@
         <v>1</v>
       </c>
       <c r="Y29" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z29" t="s">
         <v>1</v>
@@ -31082,7 +31059,7 @@
         <v>5</v>
       </c>
       <c r="AI29" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ29" t="s">
         <v>1</v>
@@ -31159,7 +31136,7 @@
         <v>7000000</v>
       </c>
       <c r="E30" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I30" t="s">
         <v>272</v>
@@ -31168,7 +31145,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s">
         <v>303</v>
@@ -31204,7 +31181,7 @@
         <v>1</v>
       </c>
       <c r="Y30" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z30" t="s">
         <v>1</v>
@@ -31219,7 +31196,7 @@
         <v>5</v>
       </c>
       <c r="AI30" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ30" t="s">
         <v>1</v>
@@ -31296,7 +31273,7 @@
         <v>7000000</v>
       </c>
       <c r="E31" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I31" t="s">
         <v>272</v>
@@ -31305,7 +31282,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s">
         <v>304</v>
@@ -31341,7 +31318,7 @@
         <v>1</v>
       </c>
       <c r="Y31" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z31" t="s">
         <v>1</v>
@@ -31356,7 +31333,7 @@
         <v>5</v>
       </c>
       <c r="AI31" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ31" t="s">
         <v>1</v>
@@ -31433,7 +31410,7 @@
         <v>7000000</v>
       </c>
       <c r="E32" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I32" t="s">
         <v>272</v>
@@ -31442,7 +31419,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s">
         <v>305</v>
@@ -31478,7 +31455,7 @@
         <v>1</v>
       </c>
       <c r="Y32" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z32" t="s">
         <v>1</v>
@@ -31493,7 +31470,7 @@
         <v>5</v>
       </c>
       <c r="AI32" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ32" t="s">
         <v>1</v>
@@ -31570,7 +31547,7 @@
         <v>7000000</v>
       </c>
       <c r="E33" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I33" t="s">
         <v>272</v>
@@ -31579,7 +31556,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s">
         <v>306</v>
@@ -31615,7 +31592,7 @@
         <v>1</v>
       </c>
       <c r="Y33" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z33" t="s">
         <v>1</v>
@@ -31630,7 +31607,7 @@
         <v>5</v>
       </c>
       <c r="AI33" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ33" t="s">
         <v>1</v>
@@ -31707,7 +31684,7 @@
         <v>7000000</v>
       </c>
       <c r="E34" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I34" t="s">
         <v>272</v>
@@ -31716,7 +31693,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s">
         <v>299</v>
@@ -31752,7 +31729,7 @@
         <v>1</v>
       </c>
       <c r="Y34" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z34" t="s">
         <v>1</v>
@@ -31767,7 +31744,7 @@
         <v>5</v>
       </c>
       <c r="AI34" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ34" t="s">
         <v>1</v>
@@ -31844,7 +31821,7 @@
         <v>7000000</v>
       </c>
       <c r="E35" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I35" t="s">
         <v>272</v>
@@ -31853,7 +31830,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s">
         <v>307</v>
@@ -31889,7 +31866,7 @@
         <v>1</v>
       </c>
       <c r="Y35" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z35" t="s">
         <v>1</v>
@@ -31904,7 +31881,7 @@
         <v>5</v>
       </c>
       <c r="AI35" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ35" t="s">
         <v>1</v>
@@ -31981,7 +31958,7 @@
         <v>7000000</v>
       </c>
       <c r="E36" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I36" t="s">
         <v>272</v>
@@ -31990,7 +31967,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s">
         <v>308</v>
@@ -32026,7 +32003,7 @@
         <v>1</v>
       </c>
       <c r="Y36" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z36" t="s">
         <v>1</v>
@@ -32041,7 +32018,7 @@
         <v>5</v>
       </c>
       <c r="AI36" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ36" t="s">
         <v>1</v>
@@ -32118,7 +32095,7 @@
         <v>7000000</v>
       </c>
       <c r="E37" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I37" t="s">
         <v>272</v>
@@ -32127,7 +32104,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s">
         <v>309</v>
@@ -32163,7 +32140,7 @@
         <v>1</v>
       </c>
       <c r="Y37" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z37" t="s">
         <v>1</v>
@@ -32178,7 +32155,7 @@
         <v>5</v>
       </c>
       <c r="AI37" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ37" t="s">
         <v>1</v>
@@ -32255,7 +32232,7 @@
         <v>7000000</v>
       </c>
       <c r="E38" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I38" t="s">
         <v>272</v>
@@ -32264,7 +32241,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s">
         <v>301</v>
@@ -32300,7 +32277,7 @@
         <v>1</v>
       </c>
       <c r="Y38" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z38" t="s">
         <v>1</v>
@@ -32315,7 +32292,7 @@
         <v>5</v>
       </c>
       <c r="AI38" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ38" t="s">
         <v>1</v>
@@ -32386,13 +32363,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D39">
         <v>7000000</v>
       </c>
       <c r="E39" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I39" t="s">
         <v>272</v>
@@ -32401,7 +32378,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s">
         <v>275</v>
@@ -32437,7 +32414,7 @@
         <v>1</v>
       </c>
       <c r="Y39" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z39" t="s">
         <v>1</v>
@@ -32452,7 +32429,7 @@
         <v>5</v>
       </c>
       <c r="AI39" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ39" t="s">
         <v>1</v>
@@ -32523,13 +32500,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D40">
         <v>7000000</v>
       </c>
       <c r="E40" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I40" t="s">
         <v>272</v>
@@ -32538,7 +32515,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s">
         <v>275</v>
@@ -32574,7 +32551,7 @@
         <v>1</v>
       </c>
       <c r="Y40" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z40" t="s">
         <v>1</v>
@@ -32589,7 +32566,7 @@
         <v>5</v>
       </c>
       <c r="AI40" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ40" t="s">
         <v>1</v>
@@ -32666,7 +32643,7 @@
         <v>7000000</v>
       </c>
       <c r="E41" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I41" t="s">
         <v>272</v>
@@ -32675,7 +32652,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s">
         <v>275</v>
@@ -32711,7 +32688,7 @@
         <v>1</v>
       </c>
       <c r="Y41" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z41" t="s">
         <v>1</v>
@@ -32726,7 +32703,7 @@
         <v>5</v>
       </c>
       <c r="AI41" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ41" t="s">
         <v>1</v>
@@ -32803,7 +32780,7 @@
         <v>7000000</v>
       </c>
       <c r="E42" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I42" t="s">
         <v>272</v>
@@ -32812,7 +32789,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L42" t="s">
         <v>275</v>
@@ -32848,7 +32825,7 @@
         <v>1</v>
       </c>
       <c r="Y42" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z42" t="s">
         <v>1</v>
@@ -32863,7 +32840,7 @@
         <v>5</v>
       </c>
       <c r="AI42" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ42" t="s">
         <v>1</v>
@@ -32940,7 +32917,7 @@
         <v>7000000</v>
       </c>
       <c r="E43" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I43" t="s">
         <v>272</v>
@@ -32949,7 +32926,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L43" t="s">
         <v>275</v>
@@ -32985,7 +32962,7 @@
         <v>1</v>
       </c>
       <c r="Y43" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z43" t="s">
         <v>1</v>
@@ -33000,7 +32977,7 @@
         <v>5</v>
       </c>
       <c r="AI43" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ43" t="s">
         <v>1</v>
@@ -33077,7 +33054,7 @@
         <v>7000000</v>
       </c>
       <c r="E44" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I44" t="s">
         <v>272</v>
@@ -33086,7 +33063,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s">
         <v>275</v>
@@ -33122,7 +33099,7 @@
         <v>1</v>
       </c>
       <c r="Y44" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z44" t="s">
         <v>1</v>
@@ -33137,7 +33114,7 @@
         <v>5</v>
       </c>
       <c r="AI44" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ44" t="s">
         <v>1</v>
@@ -33214,7 +33191,7 @@
         <v>7000000</v>
       </c>
       <c r="E45" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I45" t="s">
         <v>272</v>
@@ -33223,7 +33200,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L45" t="s">
         <v>275</v>
@@ -33259,7 +33236,7 @@
         <v>1</v>
       </c>
       <c r="Y45" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z45" t="s">
         <v>1</v>
@@ -33274,7 +33251,7 @@
         <v>5</v>
       </c>
       <c r="AI45" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ45" t="s">
         <v>1</v>
@@ -33351,7 +33328,7 @@
         <v>7000000</v>
       </c>
       <c r="E46" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I46" t="s">
         <v>272</v>
@@ -33360,7 +33337,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L46" t="s">
         <v>275</v>
@@ -33396,7 +33373,7 @@
         <v>1</v>
       </c>
       <c r="Y46" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z46" t="s">
         <v>1</v>
@@ -33411,7 +33388,7 @@
         <v>5</v>
       </c>
       <c r="AI46" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ46" t="s">
         <v>1</v>
@@ -33488,7 +33465,7 @@
         <v>7000000</v>
       </c>
       <c r="E47" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I47" t="s">
         <v>272</v>
@@ -33497,7 +33474,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L47" t="s">
         <v>275</v>
@@ -33533,7 +33510,7 @@
         <v>1</v>
       </c>
       <c r="Y47" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z47" t="s">
         <v>1</v>
@@ -33548,7 +33525,7 @@
         <v>5</v>
       </c>
       <c r="AI47" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ47" t="s">
         <v>1</v>
@@ -33625,7 +33602,7 @@
         <v>7000000</v>
       </c>
       <c r="E48" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I48" t="s">
         <v>272</v>
@@ -33634,7 +33611,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L48" t="s">
         <v>275</v>
@@ -33670,7 +33647,7 @@
         <v>1</v>
       </c>
       <c r="Y48" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z48" t="s">
         <v>1</v>
@@ -33685,7 +33662,7 @@
         <v>5</v>
       </c>
       <c r="AI48" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ48" t="s">
         <v>1</v>
@@ -33762,7 +33739,7 @@
         <v>7000000</v>
       </c>
       <c r="E49" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I49" t="s">
         <v>272</v>
@@ -33771,7 +33748,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L49" t="s">
         <v>275</v>
@@ -33807,7 +33784,7 @@
         <v>1</v>
       </c>
       <c r="Y49" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z49" t="s">
         <v>1</v>
@@ -33822,7 +33799,7 @@
         <v>5</v>
       </c>
       <c r="AI49" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ49" t="s">
         <v>1</v>
@@ -33899,7 +33876,7 @@
         <v>7000000</v>
       </c>
       <c r="E50" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I50" t="s">
         <v>272</v>
@@ -33908,7 +33885,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L50" t="s">
         <v>275</v>
@@ -33944,7 +33921,7 @@
         <v>1</v>
       </c>
       <c r="Y50" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z50" t="s">
         <v>1</v>
@@ -33959,7 +33936,7 @@
         <v>5</v>
       </c>
       <c r="AI50" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ50" t="s">
         <v>1</v>
@@ -34036,7 +34013,7 @@
         <v>7000000</v>
       </c>
       <c r="E51" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I51" t="s">
         <v>272</v>
@@ -34045,7 +34022,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L51" t="s">
         <v>275</v>
@@ -34081,7 +34058,7 @@
         <v>1</v>
       </c>
       <c r="Y51" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z51" t="s">
         <v>1</v>
@@ -34096,7 +34073,7 @@
         <v>5</v>
       </c>
       <c r="AI51" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ51" t="s">
         <v>1</v>
@@ -34173,7 +34150,7 @@
         <v>7000000</v>
       </c>
       <c r="E52" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I52" t="s">
         <v>272</v>
@@ -34182,7 +34159,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L52" t="s">
         <v>275</v>
@@ -34218,7 +34195,7 @@
         <v>1</v>
       </c>
       <c r="Y52" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z52" t="s">
         <v>1</v>
@@ -34233,7 +34210,7 @@
         <v>5</v>
       </c>
       <c r="AI52" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ52" t="s">
         <v>1</v>
@@ -34310,7 +34287,7 @@
         <v>7000000</v>
       </c>
       <c r="E53" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I53" t="s">
         <v>272</v>
@@ -34319,7 +34296,7 @@
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L53" t="s">
         <v>275</v>
@@ -34355,7 +34332,7 @@
         <v>1</v>
       </c>
       <c r="Y53" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z53" t="s">
         <v>1</v>
@@ -34370,7 +34347,7 @@
         <v>5</v>
       </c>
       <c r="AI53" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ53" t="s">
         <v>1</v>
@@ -34447,7 +34424,7 @@
         <v>7000000</v>
       </c>
       <c r="E54" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I54" t="s">
         <v>272</v>
@@ -34456,7 +34433,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L54" t="s">
         <v>275</v>
@@ -34492,7 +34469,7 @@
         <v>1</v>
       </c>
       <c r="Y54" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z54" t="s">
         <v>1</v>
@@ -34507,7 +34484,7 @@
         <v>5</v>
       </c>
       <c r="AI54" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ54" t="s">
         <v>1</v>
@@ -34584,7 +34561,7 @@
         <v>7000000</v>
       </c>
       <c r="E55" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I55" t="s">
         <v>272</v>
@@ -34593,7 +34570,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L55" t="s">
         <v>275</v>
@@ -34629,7 +34606,7 @@
         <v>1</v>
       </c>
       <c r="Y55" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z55" t="s">
         <v>1</v>
@@ -34644,7 +34621,7 @@
         <v>5</v>
       </c>
       <c r="AI55" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ55" t="s">
         <v>1</v>
@@ -34721,7 +34698,7 @@
         <v>7000000</v>
       </c>
       <c r="E56" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I56" t="s">
         <v>272</v>
@@ -34730,7 +34707,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L56" t="s">
         <v>275</v>
@@ -34766,7 +34743,7 @@
         <v>1</v>
       </c>
       <c r="Y56" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z56" t="s">
         <v>1</v>
@@ -34781,7 +34758,7 @@
         <v>5</v>
       </c>
       <c r="AI56" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ56" t="s">
         <v>1</v>
@@ -34858,7 +34835,7 @@
         <v>7000000</v>
       </c>
       <c r="E57" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I57" t="s">
         <v>272</v>
@@ -34867,7 +34844,7 @@
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L57" t="s">
         <v>275</v>
@@ -34903,7 +34880,7 @@
         <v>49</v>
       </c>
       <c r="Y57" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z57" t="s">
         <v>1</v>
@@ -34918,7 +34895,7 @@
         <v>5</v>
       </c>
       <c r="AI57" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ57" t="s">
         <v>1</v>
@@ -34995,7 +34972,7 @@
         <v>7000000</v>
       </c>
       <c r="E58" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I58" t="s">
         <v>272</v>
@@ -35004,7 +34981,7 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L58" t="s">
         <v>275</v>
@@ -35040,7 +35017,7 @@
         <v>1</v>
       </c>
       <c r="Y58" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z58" t="s">
         <v>1</v>
@@ -35055,7 +35032,7 @@
         <v>5</v>
       </c>
       <c r="AI58" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ58" t="s">
         <v>1</v>
@@ -35126,13 +35103,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>364</v>
+        <v>125</v>
       </c>
       <c r="D59">
         <v>7000000</v>
       </c>
       <c r="E59" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I59" t="s">
         <v>272</v>
@@ -35141,7 +35118,7 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L59" t="s">
         <v>275</v>
@@ -35177,7 +35154,7 @@
         <v>1</v>
       </c>
       <c r="Y59" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z59" t="s">
         <v>49</v>
@@ -35192,7 +35169,7 @@
         <v>5</v>
       </c>
       <c r="AI59" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ59" t="s">
         <v>1</v>
@@ -35263,13 +35240,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>364</v>
+        <v>125</v>
       </c>
       <c r="D60">
         <v>7000000</v>
       </c>
       <c r="E60" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I60" t="s">
         <v>272</v>
@@ -35278,7 +35255,7 @@
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L60" t="s">
         <v>275</v>
@@ -35314,7 +35291,7 @@
         <v>1</v>
       </c>
       <c r="Y60" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z60" t="s">
         <v>1</v>
@@ -35329,7 +35306,7 @@
         <v>5</v>
       </c>
       <c r="AI60" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ60" t="s">
         <v>1</v>
@@ -35400,13 +35377,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>369</v>
+        <v>256</v>
       </c>
       <c r="D61">
         <v>7000000</v>
       </c>
       <c r="E61" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I61" t="s">
         <v>272</v>
@@ -35415,7 +35392,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L61" t="s">
         <v>275</v>
@@ -35451,7 +35428,7 @@
         <v>1</v>
       </c>
       <c r="Y61" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z61" t="s">
         <v>1</v>
@@ -35466,7 +35443,7 @@
         <v>5</v>
       </c>
       <c r="AI61" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="AJ61" t="s">
         <v>1</v>
@@ -35537,13 +35514,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>369</v>
+        <v>256</v>
       </c>
       <c r="D62">
         <v>7000000</v>
       </c>
       <c r="E62" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I62" t="s">
         <v>272</v>
@@ -35552,7 +35529,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L62" t="s">
         <v>275</v>
@@ -35588,7 +35565,7 @@
         <v>1</v>
       </c>
       <c r="Y62" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z62" t="s">
         <v>1</v>
@@ -35602,8 +35579,8 @@
       <c r="AE62">
         <v>5</v>
       </c>
-      <c r="AI62" t="s">
-        <v>397</v>
+      <c r="AI62" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="AJ62" t="s">
         <v>1</v>
@@ -35674,13 +35651,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>369</v>
+        <v>256</v>
       </c>
       <c r="D63">
         <v>7000000</v>
       </c>
       <c r="E63" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I63" t="s">
         <v>272</v>
@@ -35689,7 +35666,7 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L63" t="s">
         <v>275</v>
@@ -35725,7 +35702,7 @@
         <v>1</v>
       </c>
       <c r="Y63" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z63" t="s">
         <v>1</v>
@@ -35740,7 +35717,7 @@
         <v>5</v>
       </c>
       <c r="AI63" t="s">
-        <v>408</v>
+        <v>320</v>
       </c>
       <c r="AJ63" t="s">
         <v>1</v>
@@ -35811,13 +35788,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>370</v>
+        <v>107</v>
       </c>
       <c r="D64">
         <v>7000000</v>
       </c>
       <c r="E64" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I64" t="s">
         <v>272</v>
@@ -35826,7 +35803,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L64" t="s">
         <v>275</v>
@@ -35862,7 +35839,7 @@
         <v>1</v>
       </c>
       <c r="Y64" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z64" t="s">
         <v>1</v>
@@ -35877,7 +35854,7 @@
         <v>5</v>
       </c>
       <c r="AI64" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ64" t="s">
         <v>49</v>
@@ -35948,13 +35925,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>370</v>
+        <v>107</v>
       </c>
       <c r="D65">
         <v>7000000</v>
       </c>
       <c r="E65" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I65" t="s">
         <v>272</v>
@@ -35963,7 +35940,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L65" t="s">
         <v>275</v>
@@ -35999,7 +35976,7 @@
         <v>1</v>
       </c>
       <c r="Y65" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z65" t="s">
         <v>1</v>
@@ -36014,7 +35991,7 @@
         <v>5</v>
       </c>
       <c r="AI65" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ65" t="s">
         <v>1</v>
@@ -36085,13 +36062,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>371</v>
+        <v>106</v>
       </c>
       <c r="D66">
         <v>7000000</v>
       </c>
       <c r="E66" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I66" t="s">
         <v>272</v>
@@ -36100,7 +36077,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L66" t="s">
         <v>275</v>
@@ -36136,7 +36113,7 @@
         <v>1</v>
       </c>
       <c r="Y66" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z66" t="s">
         <v>1</v>
@@ -36151,7 +36128,7 @@
         <v>5</v>
       </c>
       <c r="AI66" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ66" t="s">
         <v>1</v>
@@ -36222,13 +36199,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>371</v>
+        <v>106</v>
       </c>
       <c r="D67">
         <v>7000000</v>
       </c>
       <c r="E67" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I67" t="s">
         <v>272</v>
@@ -36237,7 +36214,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L67" t="s">
         <v>275</v>
@@ -36273,7 +36250,7 @@
         <v>1</v>
       </c>
       <c r="Y67" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z67" t="s">
         <v>1</v>
@@ -36288,7 +36265,7 @@
         <v>5</v>
       </c>
       <c r="AI67" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ67" t="s">
         <v>1</v>
@@ -36359,13 +36336,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>372</v>
+        <v>104</v>
       </c>
       <c r="D68">
         <v>7000000</v>
       </c>
       <c r="E68" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I68" t="s">
         <v>272</v>
@@ -36374,7 +36351,7 @@
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L68" t="s">
         <v>275</v>
@@ -36410,7 +36387,7 @@
         <v>1</v>
       </c>
       <c r="Y68" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z68" t="s">
         <v>1</v>
@@ -36425,7 +36402,7 @@
         <v>5</v>
       </c>
       <c r="AI68" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ68" t="s">
         <v>1</v>
@@ -36496,13 +36473,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>372</v>
+        <v>440</v>
       </c>
       <c r="D69">
         <v>7000000</v>
       </c>
       <c r="E69" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I69" t="s">
         <v>272</v>
@@ -36511,7 +36488,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L69" t="s">
         <v>275</v>
@@ -36547,7 +36524,7 @@
         <v>1</v>
       </c>
       <c r="Y69" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z69" t="s">
         <v>1</v>
@@ -36562,7 +36539,7 @@
         <v>5</v>
       </c>
       <c r="AI69" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ69" t="s">
         <v>1</v>
@@ -36633,13 +36610,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>373</v>
+        <v>105</v>
       </c>
       <c r="D70">
         <v>7000000</v>
       </c>
       <c r="E70" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I70" t="s">
         <v>272</v>
@@ -36648,7 +36625,7 @@
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L70" t="s">
         <v>275</v>
@@ -36684,7 +36661,7 @@
         <v>1</v>
       </c>
       <c r="Y70" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z70" t="s">
         <v>1</v>
@@ -36699,7 +36676,7 @@
         <v>5</v>
       </c>
       <c r="AI70" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ70" t="s">
         <v>1</v>
@@ -36770,13 +36747,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>373</v>
+        <v>105</v>
       </c>
       <c r="D71">
         <v>7000000</v>
       </c>
       <c r="E71" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I71" t="s">
         <v>272</v>
@@ -36785,7 +36762,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L71" t="s">
         <v>275</v>
@@ -36821,7 +36798,7 @@
         <v>1</v>
       </c>
       <c r="Y71" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z71" t="s">
         <v>1</v>
@@ -36836,7 +36813,7 @@
         <v>5</v>
       </c>
       <c r="AI71" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ71" t="s">
         <v>1</v>
@@ -36907,13 +36884,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>374</v>
+        <v>108</v>
       </c>
       <c r="D72">
         <v>7000000</v>
       </c>
       <c r="E72" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I72" t="s">
         <v>272</v>
@@ -36922,7 +36899,7 @@
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L72" t="s">
         <v>275</v>
@@ -36958,7 +36935,7 @@
         <v>1</v>
       </c>
       <c r="Y72" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z72" t="s">
         <v>1</v>
@@ -36973,7 +36950,7 @@
         <v>5</v>
       </c>
       <c r="AI72" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ72" t="s">
         <v>1</v>
@@ -37044,13 +37021,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>374</v>
+        <v>108</v>
       </c>
       <c r="D73">
         <v>7000000</v>
       </c>
       <c r="E73" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I73" t="s">
         <v>272</v>
@@ -37059,7 +37036,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L73" t="s">
         <v>275</v>
@@ -37095,7 +37072,7 @@
         <v>1</v>
       </c>
       <c r="Y73" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z73" t="s">
         <v>1</v>
@@ -37110,7 +37087,7 @@
         <v>5</v>
       </c>
       <c r="AI73" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ73" t="s">
         <v>1</v>
@@ -37181,13 +37158,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="D74">
         <v>7000000</v>
       </c>
       <c r="E74" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I74" t="s">
         <v>272</v>
@@ -37196,7 +37173,7 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L74" t="s">
         <v>275</v>
@@ -37232,7 +37209,7 @@
         <v>1</v>
       </c>
       <c r="Y74" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z74" t="s">
         <v>1</v>
@@ -37247,7 +37224,7 @@
         <v>5</v>
       </c>
       <c r="AI74" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ74" t="s">
         <v>1</v>
@@ -37318,13 +37295,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="D75">
         <v>7000000</v>
       </c>
       <c r="E75" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I75" t="s">
         <v>272</v>
@@ -37333,7 +37310,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L75" t="s">
         <v>275</v>
@@ -37369,7 +37346,7 @@
         <v>1</v>
       </c>
       <c r="Y75" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z75" t="s">
         <v>1</v>
@@ -37384,7 +37361,7 @@
         <v>5</v>
       </c>
       <c r="AI75" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ75" t="s">
         <v>1</v>
@@ -37455,13 +37432,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="D76">
         <v>7000000</v>
       </c>
       <c r="E76" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I76" t="s">
         <v>272</v>
@@ -37470,7 +37447,7 @@
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L76" t="s">
         <v>275</v>
@@ -37506,7 +37483,7 @@
         <v>1</v>
       </c>
       <c r="Y76" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z76" t="s">
         <v>1</v>
@@ -37521,7 +37498,7 @@
         <v>5</v>
       </c>
       <c r="AI76" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ76" t="s">
         <v>1</v>
@@ -37592,13 +37569,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="D77">
         <v>7000000</v>
       </c>
       <c r="E77" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I77" t="s">
         <v>272</v>
@@ -37607,7 +37584,7 @@
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L77" t="s">
         <v>275</v>
@@ -37643,7 +37620,7 @@
         <v>1</v>
       </c>
       <c r="Y77" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z77" t="s">
         <v>1</v>
@@ -37658,7 +37635,7 @@
         <v>5</v>
       </c>
       <c r="AI77" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ77" t="s">
         <v>1</v>
@@ -37729,13 +37706,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="D78">
         <v>7000000</v>
       </c>
       <c r="E78" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I78" t="s">
         <v>272</v>
@@ -37744,7 +37721,7 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L78" t="s">
         <v>275</v>
@@ -37780,7 +37757,7 @@
         <v>1</v>
       </c>
       <c r="Y78" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z78" t="s">
         <v>1</v>
@@ -37795,7 +37772,7 @@
         <v>5</v>
       </c>
       <c r="AI78" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ78" t="s">
         <v>1</v>
@@ -37866,13 +37843,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="D79">
         <v>7000000</v>
       </c>
       <c r="E79" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I79" t="s">
         <v>272</v>
@@ -37881,7 +37858,7 @@
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L79" t="s">
         <v>275</v>
@@ -37917,7 +37894,7 @@
         <v>1</v>
       </c>
       <c r="Y79" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z79" t="s">
         <v>1</v>
@@ -37932,7 +37909,7 @@
         <v>5</v>
       </c>
       <c r="AI79" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ79" t="s">
         <v>1</v>
@@ -38003,13 +37980,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="D80">
         <v>7000000</v>
       </c>
       <c r="E80" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I80" t="s">
         <v>272</v>
@@ -38018,7 +37995,7 @@
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L80" t="s">
         <v>275</v>
@@ -38054,7 +38031,7 @@
         <v>1</v>
       </c>
       <c r="Y80" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z80" t="s">
         <v>1</v>
@@ -38069,7 +38046,7 @@
         <v>5</v>
       </c>
       <c r="AI80" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ80" t="s">
         <v>1</v>
@@ -38140,13 +38117,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="D81">
         <v>7000000</v>
       </c>
       <c r="E81" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I81" t="s">
         <v>272</v>
@@ -38155,7 +38132,7 @@
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L81" t="s">
         <v>275</v>
@@ -38191,7 +38168,7 @@
         <v>1</v>
       </c>
       <c r="Y81" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z81" t="s">
         <v>1</v>
@@ -38206,7 +38183,7 @@
         <v>5</v>
       </c>
       <c r="AI81" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ81" t="s">
         <v>1</v>
@@ -38277,13 +38254,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="D82">
         <v>7000000</v>
       </c>
       <c r="E82" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I82" t="s">
         <v>272</v>
@@ -38292,7 +38269,7 @@
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L82" t="s">
         <v>275</v>
@@ -38328,7 +38305,7 @@
         <v>1</v>
       </c>
       <c r="Y82" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z82" t="s">
         <v>1</v>
@@ -38343,7 +38320,7 @@
         <v>5</v>
       </c>
       <c r="AI82" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ82" t="s">
         <v>1</v>
@@ -38414,13 +38391,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="D83">
         <v>7000000</v>
       </c>
       <c r="E83" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I83" t="s">
         <v>272</v>
@@ -38429,7 +38406,7 @@
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L83" t="s">
         <v>275</v>
@@ -38465,7 +38442,7 @@
         <v>1</v>
       </c>
       <c r="Y83" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z83" t="s">
         <v>1</v>
@@ -38480,7 +38457,7 @@
         <v>5</v>
       </c>
       <c r="AI83" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ83" t="s">
         <v>1</v>
@@ -38551,13 +38528,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="D84">
         <v>7000000</v>
       </c>
       <c r="E84" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I84" t="s">
         <v>272</v>
@@ -38566,7 +38543,7 @@
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L84" t="s">
         <v>275</v>
@@ -38602,7 +38579,7 @@
         <v>1</v>
       </c>
       <c r="Y84" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z84" t="s">
         <v>1</v>
@@ -38617,7 +38594,7 @@
         <v>5</v>
       </c>
       <c r="AI84" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ84" t="s">
         <v>1</v>
@@ -38688,13 +38665,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="D85">
         <v>7000000</v>
       </c>
       <c r="E85" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I85" t="s">
         <v>272</v>
@@ -38703,7 +38680,7 @@
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L85" t="s">
         <v>275</v>
@@ -38739,7 +38716,7 @@
         <v>1</v>
       </c>
       <c r="Y85" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z85" t="s">
         <v>1</v>
@@ -38754,7 +38731,7 @@
         <v>5</v>
       </c>
       <c r="AI85" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ85" t="s">
         <v>1</v>
@@ -38825,13 +38802,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>376</v>
+        <v>112</v>
       </c>
       <c r="D86">
         <v>7000000</v>
       </c>
       <c r="E86" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I86" t="s">
         <v>272</v>
@@ -38840,7 +38817,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L86" t="s">
         <v>275</v>
@@ -38876,7 +38853,7 @@
         <v>1</v>
       </c>
       <c r="Y86" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z86" t="s">
         <v>1</v>
@@ -38891,7 +38868,7 @@
         <v>5</v>
       </c>
       <c r="AI86" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ86" t="s">
         <v>1</v>
@@ -38962,13 +38939,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>376</v>
+        <v>112</v>
       </c>
       <c r="D87">
         <v>7000000</v>
       </c>
       <c r="E87" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I87" t="s">
         <v>272</v>
@@ -38977,7 +38954,7 @@
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L87" t="s">
         <v>275</v>
@@ -39013,7 +38990,7 @@
         <v>1</v>
       </c>
       <c r="Y87" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z87" t="s">
         <v>1</v>
@@ -39028,7 +39005,7 @@
         <v>5</v>
       </c>
       <c r="AI87" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ87" t="s">
         <v>1</v>
@@ -39099,13 +39076,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>377</v>
+        <v>113</v>
       </c>
       <c r="D88">
         <v>7000000</v>
       </c>
       <c r="E88" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I88" t="s">
         <v>272</v>
@@ -39114,7 +39091,7 @@
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L88" t="s">
         <v>275</v>
@@ -39150,7 +39127,7 @@
         <v>1</v>
       </c>
       <c r="Y88" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z88" t="s">
         <v>1</v>
@@ -39165,7 +39142,7 @@
         <v>5</v>
       </c>
       <c r="AI88" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ88" t="s">
         <v>1</v>
@@ -39236,13 +39213,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D89">
         <v>7000000</v>
       </c>
       <c r="E89" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I89" t="s">
         <v>272</v>
@@ -39251,7 +39228,7 @@
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L89" t="s">
         <v>275</v>
@@ -39287,7 +39264,7 @@
         <v>1</v>
       </c>
       <c r="Y89" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z89" t="s">
         <v>1</v>
@@ -39302,7 +39279,7 @@
         <v>5</v>
       </c>
       <c r="AI89" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ89" t="s">
         <v>1</v>
@@ -39373,13 +39350,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>378</v>
+        <v>114</v>
       </c>
       <c r="D90">
         <v>7000000</v>
       </c>
       <c r="E90" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I90" t="s">
         <v>272</v>
@@ -39388,7 +39365,7 @@
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L90" t="s">
         <v>275</v>
@@ -39424,7 +39401,7 @@
         <v>1</v>
       </c>
       <c r="Y90" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z90" t="s">
         <v>1</v>
@@ -39439,7 +39416,7 @@
         <v>5</v>
       </c>
       <c r="AI90" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ90" t="s">
         <v>1</v>
@@ -39510,13 +39487,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>378</v>
+        <v>114</v>
       </c>
       <c r="D91">
         <v>7000000</v>
       </c>
       <c r="E91" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I91" t="s">
         <v>272</v>
@@ -39525,7 +39502,7 @@
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L91" t="s">
         <v>275</v>
@@ -39561,7 +39538,7 @@
         <v>1</v>
       </c>
       <c r="Y91" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z91" t="s">
         <v>1</v>
@@ -39576,7 +39553,7 @@
         <v>5</v>
       </c>
       <c r="AI91" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ91" t="s">
         <v>1</v>
@@ -39647,13 +39624,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="D92">
         <v>7000000</v>
       </c>
       <c r="E92" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I92" t="s">
         <v>272</v>
@@ -39662,7 +39639,7 @@
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L92" t="s">
         <v>275</v>
@@ -39698,7 +39675,7 @@
         <v>1</v>
       </c>
       <c r="Y92" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z92" t="s">
         <v>1</v>
@@ -39713,7 +39690,7 @@
         <v>5</v>
       </c>
       <c r="AI92" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ92" t="s">
         <v>1</v>
@@ -39784,13 +39761,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="D93">
         <v>7000000</v>
       </c>
       <c r="E93" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I93" t="s">
         <v>272</v>
@@ -39799,7 +39776,7 @@
         <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L93" t="s">
         <v>275</v>
@@ -39835,7 +39812,7 @@
         <v>1</v>
       </c>
       <c r="Y93" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z93" t="s">
         <v>1</v>
@@ -39850,7 +39827,7 @@
         <v>5</v>
       </c>
       <c r="AI93" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ93" t="s">
         <v>1</v>
@@ -39918,13 +39895,16 @@
     </row>
     <row r="94" spans="1:70">
       <c r="A94">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>376</v>
       </c>
       <c r="D94">
         <v>7000000</v>
       </c>
       <c r="E94" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I94" t="s">
         <v>272</v>
@@ -39933,7 +39913,7 @@
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L94" t="s">
         <v>275</v>
@@ -39969,7 +39949,7 @@
         <v>1</v>
       </c>
       <c r="Y94" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z94" t="s">
         <v>1</v>
@@ -39984,7 +39964,7 @@
         <v>5</v>
       </c>
       <c r="AI94" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ94" t="s">
         <v>1</v>
@@ -40052,16 +40032,16 @@
     </row>
     <row r="95" spans="1:70">
       <c r="A95">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D95">
         <v>7000000</v>
       </c>
       <c r="E95" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I95" t="s">
         <v>272</v>
@@ -40070,7 +40050,7 @@
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L95" t="s">
         <v>275</v>
@@ -40106,7 +40086,7 @@
         <v>1</v>
       </c>
       <c r="Y95" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z95" t="s">
         <v>1</v>
@@ -40121,7 +40101,7 @@
         <v>5</v>
       </c>
       <c r="AI95" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ95" t="s">
         <v>1</v>
@@ -40189,16 +40169,16 @@
     </row>
     <row r="96" spans="1:70">
       <c r="A96">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D96">
         <v>7000000</v>
       </c>
       <c r="E96" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I96" t="s">
         <v>272</v>
@@ -40207,7 +40187,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L96" t="s">
         <v>275</v>
@@ -40243,13 +40223,16 @@
         <v>1</v>
       </c>
       <c r="Y96" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z96" t="s">
         <v>1</v>
       </c>
       <c r="AA96" t="s">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>402</v>
       </c>
       <c r="AD96" t="s">
         <v>314</v>
@@ -40258,7 +40241,7 @@
         <v>5</v>
       </c>
       <c r="AI96" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ96" t="s">
         <v>1</v>
@@ -40326,16 +40309,16 @@
     </row>
     <row r="97" spans="1:70">
       <c r="A97">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="D97">
         <v>7000000</v>
       </c>
       <c r="E97" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I97" t="s">
         <v>272</v>
@@ -40344,7 +40327,7 @@
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L97" t="s">
         <v>275</v>
@@ -40380,16 +40363,13 @@
         <v>1</v>
       </c>
       <c r="Y97" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z97" t="s">
         <v>1</v>
       </c>
       <c r="AA97" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="AD97" t="s">
         <v>314</v>
@@ -40398,7 +40378,7 @@
         <v>5</v>
       </c>
       <c r="AI97" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ97" t="s">
         <v>1</v>
@@ -40466,16 +40446,16 @@
     </row>
     <row r="98" spans="1:70">
       <c r="A98">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="D98">
         <v>7000000</v>
       </c>
       <c r="E98" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I98" t="s">
         <v>272</v>
@@ -40484,7 +40464,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L98" t="s">
         <v>275</v>
@@ -40520,7 +40500,7 @@
         <v>1</v>
       </c>
       <c r="Y98" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="Z98" t="s">
         <v>1</v>
@@ -40535,7 +40515,7 @@
         <v>5</v>
       </c>
       <c r="AI98" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ98" t="s">
         <v>1</v>
@@ -40603,16 +40583,16 @@
     </row>
     <row r="99" spans="1:70">
       <c r="A99">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="D99">
         <v>7000000</v>
       </c>
       <c r="E99" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I99" t="s">
         <v>272</v>
@@ -40621,7 +40601,7 @@
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L99" t="s">
         <v>275</v>
@@ -40657,7 +40637,7 @@
         <v>1</v>
       </c>
       <c r="Y99" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="Z99" t="s">
         <v>1</v>
@@ -40672,7 +40652,7 @@
         <v>5</v>
       </c>
       <c r="AI99" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ99" t="s">
         <v>1</v>
@@ -40740,16 +40720,16 @@
     </row>
     <row r="100" spans="1:70">
       <c r="A100">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="D100">
         <v>7000000</v>
       </c>
       <c r="E100" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I100" t="s">
         <v>272</v>
@@ -40758,7 +40738,7 @@
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L100" t="s">
         <v>275</v>
@@ -40794,7 +40774,7 @@
         <v>1</v>
       </c>
       <c r="Y100" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Z100" t="s">
         <v>1</v>
@@ -40809,7 +40789,7 @@
         <v>5</v>
       </c>
       <c r="AI100" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ100" t="s">
         <v>1</v>
@@ -40877,16 +40857,16 @@
     </row>
     <row r="101" spans="1:70">
       <c r="A101">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="D101">
         <v>7000000</v>
       </c>
       <c r="E101" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I101" t="s">
         <v>272</v>
@@ -40895,7 +40875,7 @@
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L101" t="s">
         <v>275</v>
@@ -40931,7 +40911,7 @@
         <v>1</v>
       </c>
       <c r="Y101" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="Z101" t="s">
         <v>1</v>
@@ -40946,7 +40926,7 @@
         <v>5</v>
       </c>
       <c r="AI101" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ101" t="s">
         <v>1</v>
@@ -41014,16 +40994,16 @@
     </row>
     <row r="102" spans="1:70">
       <c r="A102">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="D102">
         <v>7000000</v>
       </c>
       <c r="E102" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I102" t="s">
         <v>272</v>
@@ -41032,7 +41012,7 @@
         <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L102" t="s">
         <v>275</v>
@@ -41068,7 +41048,7 @@
         <v>1</v>
       </c>
       <c r="Y102" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="Z102" t="s">
         <v>1</v>
@@ -41083,7 +41063,7 @@
         <v>5</v>
       </c>
       <c r="AI102" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ102" t="s">
         <v>1</v>
@@ -41151,16 +41131,16 @@
     </row>
     <row r="103" spans="1:70">
       <c r="A103">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="D103">
         <v>7000000</v>
       </c>
       <c r="E103" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I103" t="s">
         <v>272</v>
@@ -41169,7 +41149,7 @@
         <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L103" t="s">
         <v>275</v>
@@ -41205,7 +41185,7 @@
         <v>1</v>
       </c>
       <c r="Y103" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="Z103" t="s">
         <v>1</v>
@@ -41220,7 +41200,7 @@
         <v>5</v>
       </c>
       <c r="AI103" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ103" t="s">
         <v>1</v>
@@ -41288,16 +41268,16 @@
     </row>
     <row r="104" spans="1:70">
       <c r="A104">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="D104">
         <v>7000000</v>
       </c>
       <c r="E104" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I104" t="s">
         <v>272</v>
@@ -41306,7 +41286,7 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L104" t="s">
         <v>275</v>
@@ -41342,7 +41322,7 @@
         <v>1</v>
       </c>
       <c r="Y104" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="Z104" t="s">
         <v>1</v>
@@ -41357,7 +41337,7 @@
         <v>5</v>
       </c>
       <c r="AI104" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ104" t="s">
         <v>1</v>
@@ -41425,16 +41405,16 @@
     </row>
     <row r="105" spans="1:70">
       <c r="A105">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="D105">
         <v>7000000</v>
       </c>
       <c r="E105" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I105" t="s">
         <v>272</v>
@@ -41443,7 +41423,7 @@
         <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L105" t="s">
         <v>275</v>
@@ -41479,7 +41459,7 @@
         <v>1</v>
       </c>
       <c r="Y105" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="Z105" t="s">
         <v>1</v>
@@ -41494,7 +41474,7 @@
         <v>5</v>
       </c>
       <c r="AI105" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ105" t="s">
         <v>1</v>
@@ -41562,16 +41542,16 @@
     </row>
     <row r="106" spans="1:70">
       <c r="A106">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D106">
         <v>7000000</v>
       </c>
       <c r="E106" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I106" t="s">
         <v>272</v>
@@ -41580,7 +41560,7 @@
         <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L106" t="s">
         <v>275</v>
@@ -41616,7 +41596,7 @@
         <v>1</v>
       </c>
       <c r="Y106" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="Z106" t="s">
         <v>1</v>
@@ -41631,7 +41611,7 @@
         <v>5</v>
       </c>
       <c r="AI106" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ106" t="s">
         <v>1</v>
@@ -41699,16 +41679,16 @@
     </row>
     <row r="107" spans="1:70">
       <c r="A107">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D107">
         <v>7000000</v>
       </c>
       <c r="E107" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I107" t="s">
         <v>272</v>
@@ -41717,7 +41697,7 @@
         <v>1</v>
       </c>
       <c r="K107" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L107" t="s">
         <v>275</v>
@@ -41753,7 +41733,7 @@
         <v>1</v>
       </c>
       <c r="Y107" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z107" t="s">
         <v>1</v>
@@ -41768,7 +41748,7 @@
         <v>5</v>
       </c>
       <c r="AI107" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ107" t="s">
         <v>1</v>
@@ -41813,7 +41793,7 @@
         <v>1000</v>
       </c>
       <c r="BG107" t="s">
-        <v>49</v>
+        <v>314</v>
       </c>
       <c r="BM107">
         <v>10</v>
@@ -41836,16 +41816,16 @@
     </row>
     <row r="108" spans="1:70">
       <c r="A108">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D108">
         <v>7000000</v>
       </c>
       <c r="E108" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I108" t="s">
         <v>272</v>
@@ -41854,7 +41834,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L108" t="s">
         <v>275</v>
@@ -41890,7 +41870,7 @@
         <v>1</v>
       </c>
       <c r="Y108" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z108" t="s">
         <v>1</v>
@@ -41905,7 +41885,7 @@
         <v>5</v>
       </c>
       <c r="AI108" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ108" t="s">
         <v>1</v>
@@ -41950,7 +41930,7 @@
         <v>1000</v>
       </c>
       <c r="BG108" t="s">
-        <v>314</v>
+        <v>1</v>
       </c>
       <c r="BM108">
         <v>10</v>
@@ -41973,16 +41953,16 @@
     </row>
     <row r="109" spans="1:70">
       <c r="A109">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="D109">
         <v>7000000</v>
       </c>
       <c r="E109" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I109" t="s">
         <v>272</v>
@@ -41991,7 +41971,7 @@
         <v>1</v>
       </c>
       <c r="K109" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L109" t="s">
         <v>275</v>
@@ -42027,7 +42007,7 @@
         <v>1</v>
       </c>
       <c r="Y109" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z109" t="s">
         <v>1</v>
@@ -42042,7 +42022,7 @@
         <v>5</v>
       </c>
       <c r="AI109" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ109" t="s">
         <v>1</v>
@@ -42087,10 +42067,10 @@
         <v>1000</v>
       </c>
       <c r="BG109" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="BM109">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BN109">
         <v>100</v>
@@ -42110,16 +42090,16 @@
     </row>
     <row r="110" spans="1:70">
       <c r="A110">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D110">
         <v>7000000</v>
       </c>
       <c r="E110" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I110" t="s">
         <v>272</v>
@@ -42128,7 +42108,7 @@
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L110" t="s">
         <v>275</v>
@@ -42164,7 +42144,7 @@
         <v>1</v>
       </c>
       <c r="Y110" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z110" t="s">
         <v>1</v>
@@ -42179,7 +42159,7 @@
         <v>5</v>
       </c>
       <c r="AI110" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ110" t="s">
         <v>1</v>
@@ -42227,7 +42207,7 @@
         <v>49</v>
       </c>
       <c r="BM110">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BN110">
         <v>100</v>
@@ -42247,16 +42227,16 @@
     </row>
     <row r="111" spans="1:70">
       <c r="A111">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D111">
         <v>7000000</v>
       </c>
       <c r="E111" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I111" t="s">
         <v>272</v>
@@ -42265,7 +42245,7 @@
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L111" t="s">
         <v>275</v>
@@ -42301,7 +42281,7 @@
         <v>1</v>
       </c>
       <c r="Y111" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z111" t="s">
         <v>1</v>
@@ -42316,7 +42296,7 @@
         <v>5</v>
       </c>
       <c r="AI111" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ111" t="s">
         <v>1</v>
@@ -42364,7 +42344,7 @@
         <v>49</v>
       </c>
       <c r="BM111">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BN111">
         <v>100</v>
@@ -42384,16 +42364,16 @@
     </row>
     <row r="112" spans="1:70">
       <c r="A112">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D112">
         <v>7000000</v>
       </c>
       <c r="E112" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I112" t="s">
         <v>272</v>
@@ -42402,7 +42382,7 @@
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L112" t="s">
         <v>275</v>
@@ -42438,7 +42418,7 @@
         <v>1</v>
       </c>
       <c r="Y112" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z112" t="s">
         <v>1</v>
@@ -42453,7 +42433,7 @@
         <v>5</v>
       </c>
       <c r="AI112" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ112" t="s">
         <v>1</v>
@@ -42501,7 +42481,7 @@
         <v>49</v>
       </c>
       <c r="BM112">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BN112">
         <v>100</v>
@@ -42521,16 +42501,16 @@
     </row>
     <row r="113" spans="1:70">
       <c r="A113">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D113">
         <v>7000000</v>
       </c>
       <c r="E113" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I113" t="s">
         <v>272</v>
@@ -42539,7 +42519,7 @@
         <v>1</v>
       </c>
       <c r="K113" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L113" t="s">
         <v>275</v>
@@ -42575,7 +42555,7 @@
         <v>1</v>
       </c>
       <c r="Y113" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z113" t="s">
         <v>1</v>
@@ -42590,7 +42570,7 @@
         <v>5</v>
       </c>
       <c r="AI113" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ113" t="s">
         <v>1</v>
@@ -42638,7 +42618,7 @@
         <v>49</v>
       </c>
       <c r="BM113">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BN113">
         <v>100</v>
@@ -42658,16 +42638,16 @@
     </row>
     <row r="114" spans="1:70">
       <c r="A114">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D114">
         <v>7000000</v>
       </c>
       <c r="E114" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I114" t="s">
         <v>272</v>
@@ -42676,7 +42656,7 @@
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L114" t="s">
         <v>275</v>
@@ -42712,7 +42692,7 @@
         <v>1</v>
       </c>
       <c r="Y114" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z114" t="s">
         <v>1</v>
@@ -42727,7 +42707,7 @@
         <v>5</v>
       </c>
       <c r="AI114" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ114" t="s">
         <v>1</v>
@@ -42775,7 +42755,7 @@
         <v>49</v>
       </c>
       <c r="BM114">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BN114">
         <v>100</v>
@@ -42795,16 +42775,16 @@
     </row>
     <row r="115" spans="1:70">
       <c r="A115">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D115">
         <v>7000000</v>
       </c>
       <c r="E115" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I115" t="s">
         <v>272</v>
@@ -42813,7 +42793,7 @@
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L115" t="s">
         <v>275</v>
@@ -42849,7 +42829,7 @@
         <v>1</v>
       </c>
       <c r="Y115" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z115" t="s">
         <v>1</v>
@@ -42864,7 +42844,7 @@
         <v>5</v>
       </c>
       <c r="AI115" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ115" t="s">
         <v>1</v>
@@ -42912,13 +42892,13 @@
         <v>49</v>
       </c>
       <c r="BM115">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="BN115">
         <v>100</v>
       </c>
       <c r="BO115">
-        <v>4000</v>
+        <v>250000</v>
       </c>
       <c r="BP115">
         <v>10000</v>
@@ -42932,16 +42912,16 @@
     </row>
     <row r="116" spans="1:70">
       <c r="A116">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D116">
         <v>7000000</v>
       </c>
       <c r="E116" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I116" t="s">
         <v>272</v>
@@ -42950,7 +42930,7 @@
         <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L116" t="s">
         <v>275</v>
@@ -42986,7 +42966,7 @@
         <v>1</v>
       </c>
       <c r="Y116" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z116" t="s">
         <v>1</v>
@@ -43001,7 +42981,7 @@
         <v>5</v>
       </c>
       <c r="AI116" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ116" t="s">
         <v>1</v>
@@ -43049,13 +43029,13 @@
         <v>49</v>
       </c>
       <c r="BM116">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="BN116">
         <v>100</v>
       </c>
       <c r="BO116">
-        <v>250000</v>
+        <v>4000</v>
       </c>
       <c r="BP116">
         <v>10000</v>
@@ -43069,16 +43049,16 @@
     </row>
     <row r="117" spans="1:70">
       <c r="A117">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="D117">
         <v>7000000</v>
       </c>
       <c r="E117" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I117" t="s">
         <v>272</v>
@@ -43087,7 +43067,7 @@
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L117" t="s">
         <v>275</v>
@@ -43123,7 +43103,7 @@
         <v>1</v>
       </c>
       <c r="Y117" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z117" t="s">
         <v>1</v>
@@ -43138,7 +43118,7 @@
         <v>5</v>
       </c>
       <c r="AI117" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ117" t="s">
         <v>1</v>
@@ -43206,16 +43186,16 @@
     </row>
     <row r="118" spans="1:70">
       <c r="A118">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="D118">
         <v>7000000</v>
       </c>
       <c r="E118" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I118" t="s">
         <v>272</v>
@@ -43224,7 +43204,7 @@
         <v>1</v>
       </c>
       <c r="K118" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L118" t="s">
         <v>275</v>
@@ -43260,7 +43240,7 @@
         <v>1</v>
       </c>
       <c r="Y118" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z118" t="s">
         <v>1</v>
@@ -43275,7 +43255,7 @@
         <v>5</v>
       </c>
       <c r="AI118" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ118" t="s">
         <v>1</v>
@@ -43329,7 +43309,7 @@
         <v>100</v>
       </c>
       <c r="BO118">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="BP118">
         <v>10000</v>
@@ -43343,16 +43323,16 @@
     </row>
     <row r="119" spans="1:70">
       <c r="A119">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D119">
         <v>7000000</v>
       </c>
       <c r="E119" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I119" t="s">
         <v>272</v>
@@ -43361,7 +43341,7 @@
         <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L119" t="s">
         <v>275</v>
@@ -43397,7 +43377,7 @@
         <v>1</v>
       </c>
       <c r="Y119" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z119" t="s">
         <v>1</v>
@@ -43412,7 +43392,7 @@
         <v>5</v>
       </c>
       <c r="AI119" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ119" t="s">
         <v>1</v>
@@ -43480,16 +43460,16 @@
     </row>
     <row r="120" spans="1:70">
       <c r="A120">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="D120">
         <v>7000000</v>
       </c>
       <c r="E120" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I120" t="s">
         <v>272</v>
@@ -43498,7 +43478,7 @@
         <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L120" t="s">
         <v>275</v>
@@ -43534,7 +43514,7 @@
         <v>1</v>
       </c>
       <c r="Y120" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z120" t="s">
         <v>1</v>
@@ -43549,7 +43529,7 @@
         <v>5</v>
       </c>
       <c r="AI120" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ120" t="s">
         <v>1</v>
@@ -43617,16 +43597,16 @@
     </row>
     <row r="121" spans="1:70">
       <c r="A121">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>426</v>
+        <v>228</v>
       </c>
       <c r="D121">
         <v>7000000</v>
       </c>
       <c r="E121" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="I121" t="s">
         <v>272</v>
@@ -43635,7 +43615,7 @@
         <v>1</v>
       </c>
       <c r="K121" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L121" t="s">
         <v>275</v>
@@ -43671,7 +43651,7 @@
         <v>1</v>
       </c>
       <c r="Y121" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z121" t="s">
         <v>1</v>
@@ -43686,7 +43666,7 @@
         <v>5</v>
       </c>
       <c r="AI121" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ121" t="s">
         <v>1</v>
@@ -43754,7 +43734,7 @@
     </row>
     <row r="122" spans="1:70">
       <c r="A122">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
         <v>228</v>
@@ -43763,7 +43743,7 @@
         <v>7000000</v>
       </c>
       <c r="E122" t="s">
-        <v>427</v>
+        <v>271</v>
       </c>
       <c r="I122" t="s">
         <v>272</v>
@@ -43772,7 +43752,7 @@
         <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L122" t="s">
         <v>275</v>
@@ -43808,7 +43788,7 @@
         <v>1</v>
       </c>
       <c r="Y122" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z122" t="s">
         <v>1</v>
@@ -43823,7 +43803,7 @@
         <v>5</v>
       </c>
       <c r="AI122" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ122" t="s">
         <v>1</v>
@@ -43891,16 +43871,16 @@
     </row>
     <row r="123" spans="1:70">
       <c r="A123">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="D123">
         <v>7000000</v>
       </c>
       <c r="E123" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I123" t="s">
         <v>272</v>
@@ -43909,7 +43889,7 @@
         <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L123" t="s">
         <v>275</v>
@@ -43945,7 +43925,7 @@
         <v>1</v>
       </c>
       <c r="Y123" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z123" t="s">
         <v>1</v>
@@ -43954,13 +43934,13 @@
         <v>1</v>
       </c>
       <c r="AD123" t="s">
-        <v>314</v>
+        <v>49</v>
       </c>
       <c r="AE123">
         <v>5</v>
       </c>
       <c r="AI123" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ123" t="s">
         <v>1</v>
@@ -44028,7 +44008,7 @@
     </row>
     <row r="124" spans="1:70">
       <c r="A124">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
         <v>126</v>
@@ -44037,7 +44017,7 @@
         <v>7000000</v>
       </c>
       <c r="E124" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I124" t="s">
         <v>272</v>
@@ -44046,7 +44026,7 @@
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L124" t="s">
         <v>275</v>
@@ -44082,7 +44062,7 @@
         <v>1</v>
       </c>
       <c r="Y124" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z124" t="s">
         <v>1</v>
@@ -44091,13 +44071,13 @@
         <v>1</v>
       </c>
       <c r="AD124" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="AE124">
         <v>5</v>
       </c>
       <c r="AI124" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ124" t="s">
         <v>1</v>
@@ -44165,16 +44145,16 @@
     </row>
     <row r="125" spans="1:70">
       <c r="A125">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="D125">
         <v>7000000</v>
       </c>
       <c r="E125" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I125" t="s">
         <v>272</v>
@@ -44183,7 +44163,7 @@
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L125" t="s">
         <v>275</v>
@@ -44219,7 +44199,7 @@
         <v>1</v>
       </c>
       <c r="Y125" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z125" t="s">
         <v>1</v>
@@ -44228,13 +44208,13 @@
         <v>1</v>
       </c>
       <c r="AD125" t="s">
-        <v>1</v>
+        <v>314</v>
       </c>
       <c r="AE125">
         <v>5</v>
       </c>
       <c r="AI125" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ125" t="s">
         <v>1</v>
@@ -44302,16 +44282,16 @@
     </row>
     <row r="126" spans="1:70">
       <c r="A126">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D126">
         <v>7000000</v>
       </c>
       <c r="E126" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I126" t="s">
         <v>272</v>
@@ -44320,7 +44300,7 @@
         <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L126" t="s">
         <v>275</v>
@@ -44341,7 +44321,7 @@
         <v>311</v>
       </c>
       <c r="T126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U126" t="s">
         <v>1</v>
@@ -44356,7 +44336,7 @@
         <v>1</v>
       </c>
       <c r="Y126" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z126" t="s">
         <v>1</v>
@@ -44371,7 +44351,7 @@
         <v>5</v>
       </c>
       <c r="AI126" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ126" t="s">
         <v>1</v>
@@ -44439,7 +44419,7 @@
     </row>
     <row r="127" spans="1:70">
       <c r="A127">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
         <v>250</v>
@@ -44448,7 +44428,7 @@
         <v>7000000</v>
       </c>
       <c r="E127" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I127" t="s">
         <v>272</v>
@@ -44457,7 +44437,7 @@
         <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L127" t="s">
         <v>275</v>
@@ -44478,7 +44458,7 @@
         <v>311</v>
       </c>
       <c r="T127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U127" t="s">
         <v>1</v>
@@ -44493,7 +44473,7 @@
         <v>1</v>
       </c>
       <c r="Y127" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z127" t="s">
         <v>1</v>
@@ -44508,7 +44488,7 @@
         <v>5</v>
       </c>
       <c r="AI127" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ127" t="s">
         <v>1</v>
@@ -44576,7 +44556,7 @@
     </row>
     <row r="128" spans="1:70">
       <c r="A128">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
         <v>250</v>
@@ -44585,7 +44565,7 @@
         <v>7000000</v>
       </c>
       <c r="E128" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I128" t="s">
         <v>272</v>
@@ -44594,7 +44574,7 @@
         <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L128" t="s">
         <v>275</v>
@@ -44615,7 +44595,7 @@
         <v>311</v>
       </c>
       <c r="T128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U128" t="s">
         <v>1</v>
@@ -44630,7 +44610,7 @@
         <v>1</v>
       </c>
       <c r="Y128" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z128" t="s">
         <v>1</v>
@@ -44645,7 +44625,7 @@
         <v>5</v>
       </c>
       <c r="AI128" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ128" t="s">
         <v>1</v>
@@ -44713,7 +44693,7 @@
     </row>
     <row r="129" spans="1:70">
       <c r="A129">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
         <v>250</v>
@@ -44722,7 +44702,7 @@
         <v>7000000</v>
       </c>
       <c r="E129" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I129" t="s">
         <v>272</v>
@@ -44731,7 +44711,7 @@
         <v>1</v>
       </c>
       <c r="K129" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L129" t="s">
         <v>275</v>
@@ -44752,7 +44732,7 @@
         <v>311</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U129" t="s">
         <v>1</v>
@@ -44767,7 +44747,7 @@
         <v>1</v>
       </c>
       <c r="Y129" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z129" t="s">
         <v>1</v>
@@ -44782,7 +44762,7 @@
         <v>5</v>
       </c>
       <c r="AI129" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ129" t="s">
         <v>1</v>
@@ -44850,7 +44830,7 @@
     </row>
     <row r="130" spans="1:70">
       <c r="A130">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130" t="s">
         <v>250</v>
@@ -44859,7 +44839,7 @@
         <v>7000000</v>
       </c>
       <c r="E130" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I130" t="s">
         <v>272</v>
@@ -44868,7 +44848,7 @@
         <v>1</v>
       </c>
       <c r="K130" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L130" t="s">
         <v>275</v>
@@ -44889,7 +44869,7 @@
         <v>311</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U130" t="s">
         <v>1</v>
@@ -44904,7 +44884,7 @@
         <v>1</v>
       </c>
       <c r="Y130" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z130" t="s">
         <v>1</v>
@@ -44919,7 +44899,7 @@
         <v>5</v>
       </c>
       <c r="AI130" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ130" t="s">
         <v>1</v>
@@ -44987,7 +44967,7 @@
     </row>
     <row r="131" spans="1:70">
       <c r="A131">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B131" t="s">
         <v>250</v>
@@ -44996,7 +44976,7 @@
         <v>7000000</v>
       </c>
       <c r="E131" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I131" t="s">
         <v>272</v>
@@ -45005,7 +44985,7 @@
         <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L131" t="s">
         <v>275</v>
@@ -45026,7 +45006,7 @@
         <v>311</v>
       </c>
       <c r="T131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U131" t="s">
         <v>1</v>
@@ -45041,7 +45021,7 @@
         <v>1</v>
       </c>
       <c r="Y131" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z131" t="s">
         <v>1</v>
@@ -45056,7 +45036,7 @@
         <v>5</v>
       </c>
       <c r="AI131" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ131" t="s">
         <v>1</v>
@@ -45124,16 +45104,16 @@
     </row>
     <row r="132" spans="1:70">
       <c r="A132">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="D132">
         <v>7000000</v>
       </c>
       <c r="E132" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I132" t="s">
         <v>272</v>
@@ -45142,7 +45122,7 @@
         <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L132" t="s">
         <v>275</v>
@@ -45163,7 +45143,7 @@
         <v>311</v>
       </c>
       <c r="T132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U132" t="s">
         <v>1</v>
@@ -45178,7 +45158,7 @@
         <v>1</v>
       </c>
       <c r="Y132" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z132" t="s">
         <v>1</v>
@@ -45193,7 +45173,7 @@
         <v>5</v>
       </c>
       <c r="AI132" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ132" t="s">
         <v>1</v>
@@ -45234,8 +45214,8 @@
       <c r="BB132">
         <v>1000</v>
       </c>
-      <c r="BC132">
-        <v>1000</v>
+      <c r="BC132" t="s">
+        <v>334</v>
       </c>
       <c r="BG132" t="s">
         <v>49</v>
@@ -45261,7 +45241,7 @@
     </row>
     <row r="133" spans="1:70">
       <c r="A133">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B133" t="s">
         <v>263</v>
@@ -45270,7 +45250,7 @@
         <v>7000000</v>
       </c>
       <c r="E133" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I133" t="s">
         <v>272</v>
@@ -45279,7 +45259,7 @@
         <v>1</v>
       </c>
       <c r="K133" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L133" t="s">
         <v>275</v>
@@ -45315,7 +45295,7 @@
         <v>1</v>
       </c>
       <c r="Y133" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z133" t="s">
         <v>1</v>
@@ -45330,7 +45310,7 @@
         <v>5</v>
       </c>
       <c r="AI133" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ133" t="s">
         <v>1</v>
@@ -45372,7 +45352,7 @@
         <v>1000</v>
       </c>
       <c r="BC133" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BG133" t="s">
         <v>49</v>
@@ -45398,7 +45378,7 @@
     </row>
     <row r="134" spans="1:70">
       <c r="A134">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B134" t="s">
         <v>263</v>
@@ -45407,7 +45387,7 @@
         <v>7000000</v>
       </c>
       <c r="E134" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I134" t="s">
         <v>272</v>
@@ -45416,7 +45396,7 @@
         <v>1</v>
       </c>
       <c r="K134" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L134" t="s">
         <v>275</v>
@@ -45452,7 +45432,7 @@
         <v>1</v>
       </c>
       <c r="Y134" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z134" t="s">
         <v>1</v>
@@ -45467,7 +45447,7 @@
         <v>5</v>
       </c>
       <c r="AI134" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ134" t="s">
         <v>1</v>
@@ -45508,8 +45488,8 @@
       <c r="BB134">
         <v>1000</v>
       </c>
-      <c r="BC134" t="s">
-        <v>335</v>
+      <c r="BC134">
+        <v>1</v>
       </c>
       <c r="BG134" t="s">
         <v>49</v>
@@ -45535,7 +45515,7 @@
     </row>
     <row r="135" spans="1:70">
       <c r="A135">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B135" t="s">
         <v>263</v>
@@ -45544,7 +45524,7 @@
         <v>7000000</v>
       </c>
       <c r="E135" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I135" t="s">
         <v>272</v>
@@ -45553,7 +45533,7 @@
         <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L135" t="s">
         <v>275</v>
@@ -45589,7 +45569,7 @@
         <v>1</v>
       </c>
       <c r="Y135" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z135" t="s">
         <v>1</v>
@@ -45604,7 +45584,7 @@
         <v>5</v>
       </c>
       <c r="AI135" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ135" t="s">
         <v>1</v>
@@ -45646,7 +45626,7 @@
         <v>1000</v>
       </c>
       <c r="BC135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG135" t="s">
         <v>49</v>
@@ -45672,7 +45652,7 @@
     </row>
     <row r="136" spans="1:70">
       <c r="A136">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B136" t="s">
         <v>263</v>
@@ -45681,7 +45661,7 @@
         <v>7000000</v>
       </c>
       <c r="E136" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I136" t="s">
         <v>272</v>
@@ -45690,7 +45670,7 @@
         <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L136" t="s">
         <v>275</v>
@@ -45726,7 +45706,7 @@
         <v>1</v>
       </c>
       <c r="Y136" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z136" t="s">
         <v>1</v>
@@ -45741,7 +45721,7 @@
         <v>5</v>
       </c>
       <c r="AI136" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ136" t="s">
         <v>1</v>
@@ -45783,7 +45763,7 @@
         <v>1000</v>
       </c>
       <c r="BC136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG136" t="s">
         <v>49</v>
@@ -45809,7 +45789,7 @@
     </row>
     <row r="137" spans="1:70">
       <c r="A137">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B137" t="s">
         <v>263</v>
@@ -45818,7 +45798,7 @@
         <v>7000000</v>
       </c>
       <c r="E137" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I137" t="s">
         <v>272</v>
@@ -45827,7 +45807,7 @@
         <v>1</v>
       </c>
       <c r="K137" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L137" t="s">
         <v>275</v>
@@ -45863,7 +45843,7 @@
         <v>1</v>
       </c>
       <c r="Y137" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z137" t="s">
         <v>1</v>
@@ -45878,7 +45858,7 @@
         <v>5</v>
       </c>
       <c r="AI137" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ137" t="s">
         <v>1</v>
@@ -45920,7 +45900,7 @@
         <v>1000</v>
       </c>
       <c r="BC137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG137" t="s">
         <v>49</v>
@@ -45946,7 +45926,7 @@
     </row>
     <row r="138" spans="1:70">
       <c r="A138">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B138" t="s">
         <v>263</v>
@@ -45955,7 +45935,7 @@
         <v>7000000</v>
       </c>
       <c r="E138" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I138" t="s">
         <v>272</v>
@@ -45964,7 +45944,7 @@
         <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L138" t="s">
         <v>275</v>
@@ -46000,7 +45980,7 @@
         <v>1</v>
       </c>
       <c r="Y138" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z138" t="s">
         <v>1</v>
@@ -46015,7 +45995,7 @@
         <v>5</v>
       </c>
       <c r="AI138" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ138" t="s">
         <v>1</v>
@@ -46057,7 +46037,7 @@
         <v>1000</v>
       </c>
       <c r="BC138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG138" t="s">
         <v>49</v>
@@ -46083,7 +46063,7 @@
     </row>
     <row r="139" spans="1:70">
       <c r="A139">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B139" t="s">
         <v>263</v>
@@ -46092,7 +46072,7 @@
         <v>7000000</v>
       </c>
       <c r="E139" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I139" t="s">
         <v>272</v>
@@ -46101,7 +46081,7 @@
         <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L139" t="s">
         <v>275</v>
@@ -46137,7 +46117,7 @@
         <v>1</v>
       </c>
       <c r="Y139" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z139" t="s">
         <v>1</v>
@@ -46152,7 +46132,7 @@
         <v>5</v>
       </c>
       <c r="AI139" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ139" t="s">
         <v>1</v>
@@ -46194,7 +46174,7 @@
         <v>1000</v>
       </c>
       <c r="BC139">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG139" t="s">
         <v>49</v>
@@ -46220,7 +46200,7 @@
     </row>
     <row r="140" spans="1:70">
       <c r="A140">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B140" t="s">
         <v>263</v>
@@ -46229,7 +46209,7 @@
         <v>7000000</v>
       </c>
       <c r="E140" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I140" t="s">
         <v>272</v>
@@ -46238,7 +46218,7 @@
         <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L140" t="s">
         <v>275</v>
@@ -46274,7 +46254,7 @@
         <v>1</v>
       </c>
       <c r="Y140" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z140" t="s">
         <v>1</v>
@@ -46289,7 +46269,7 @@
         <v>5</v>
       </c>
       <c r="AI140" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ140" t="s">
         <v>1</v>
@@ -46331,7 +46311,7 @@
         <v>1000</v>
       </c>
       <c r="BC140">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG140" t="s">
         <v>49</v>
@@ -46357,7 +46337,7 @@
     </row>
     <row r="141" spans="1:70">
       <c r="A141">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B141" t="s">
         <v>263</v>
@@ -46366,7 +46346,7 @@
         <v>7000000</v>
       </c>
       <c r="E141" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I141" t="s">
         <v>272</v>
@@ -46375,7 +46355,7 @@
         <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L141" t="s">
         <v>275</v>
@@ -46411,7 +46391,7 @@
         <v>1</v>
       </c>
       <c r="Y141" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z141" t="s">
         <v>1</v>
@@ -46426,7 +46406,7 @@
         <v>5</v>
       </c>
       <c r="AI141" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ141" t="s">
         <v>1</v>
@@ -46468,7 +46448,7 @@
         <v>1000</v>
       </c>
       <c r="BC141">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG141" t="s">
         <v>49</v>
@@ -46494,7 +46474,7 @@
     </row>
     <row r="142" spans="1:70">
       <c r="A142">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B142" t="s">
         <v>263</v>
@@ -46503,7 +46483,7 @@
         <v>7000000</v>
       </c>
       <c r="E142" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I142" t="s">
         <v>272</v>
@@ -46512,7 +46492,7 @@
         <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L142" t="s">
         <v>275</v>
@@ -46548,7 +46528,7 @@
         <v>1</v>
       </c>
       <c r="Y142" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z142" t="s">
         <v>1</v>
@@ -46563,7 +46543,7 @@
         <v>5</v>
       </c>
       <c r="AI142" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ142" t="s">
         <v>1</v>
@@ -46605,7 +46585,7 @@
         <v>1000</v>
       </c>
       <c r="BC142">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG142" t="s">
         <v>49</v>
@@ -46631,7 +46611,7 @@
     </row>
     <row r="143" spans="1:70">
       <c r="A143">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B143" t="s">
         <v>263</v>
@@ -46640,7 +46620,7 @@
         <v>7000000</v>
       </c>
       <c r="E143" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I143" t="s">
         <v>272</v>
@@ -46649,7 +46629,7 @@
         <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L143" t="s">
         <v>275</v>
@@ -46685,7 +46665,7 @@
         <v>1</v>
       </c>
       <c r="Y143" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z143" t="s">
         <v>1</v>
@@ -46700,7 +46680,7 @@
         <v>5</v>
       </c>
       <c r="AI143" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ143" t="s">
         <v>1</v>
@@ -46742,7 +46722,7 @@
         <v>1000</v>
       </c>
       <c r="BC143">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG143" t="s">
         <v>49</v>
@@ -46768,7 +46748,7 @@
     </row>
     <row r="144" spans="1:70">
       <c r="A144">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B144" t="s">
         <v>263</v>
@@ -46777,7 +46757,7 @@
         <v>7000000</v>
       </c>
       <c r="E144" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I144" t="s">
         <v>272</v>
@@ -46786,7 +46766,7 @@
         <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L144" t="s">
         <v>275</v>
@@ -46822,7 +46802,7 @@
         <v>1</v>
       </c>
       <c r="Y144" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z144" t="s">
         <v>1</v>
@@ -46837,7 +46817,7 @@
         <v>5</v>
       </c>
       <c r="AI144" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ144" t="s">
         <v>1</v>
@@ -46879,7 +46859,7 @@
         <v>1000</v>
       </c>
       <c r="BC144">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="BG144" t="s">
         <v>49</v>
@@ -46905,7 +46885,7 @@
     </row>
     <row r="145" spans="1:70">
       <c r="A145">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B145" t="s">
         <v>263</v>
@@ -46914,7 +46894,7 @@
         <v>7000000</v>
       </c>
       <c r="E145" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I145" t="s">
         <v>272</v>
@@ -46923,7 +46903,7 @@
         <v>1</v>
       </c>
       <c r="K145" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L145" t="s">
         <v>275</v>
@@ -46959,7 +46939,7 @@
         <v>1</v>
       </c>
       <c r="Y145" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z145" t="s">
         <v>1</v>
@@ -46974,7 +46954,7 @@
         <v>5</v>
       </c>
       <c r="AI145" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ145" t="s">
         <v>1</v>
@@ -47016,7 +46996,7 @@
         <v>1000</v>
       </c>
       <c r="BC145">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="BG145" t="s">
         <v>49</v>
@@ -47042,7 +47022,7 @@
     </row>
     <row r="146" spans="1:70">
       <c r="A146">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B146" t="s">
         <v>263</v>
@@ -47051,7 +47031,7 @@
         <v>7000000</v>
       </c>
       <c r="E146" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I146" t="s">
         <v>272</v>
@@ -47060,7 +47040,7 @@
         <v>1</v>
       </c>
       <c r="K146" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L146" t="s">
         <v>275</v>
@@ -47096,7 +47076,7 @@
         <v>1</v>
       </c>
       <c r="Y146" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z146" t="s">
         <v>1</v>
@@ -47111,7 +47091,7 @@
         <v>5</v>
       </c>
       <c r="AI146" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ146" t="s">
         <v>1</v>
@@ -47153,7 +47133,7 @@
         <v>1000</v>
       </c>
       <c r="BC146">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="BG146" t="s">
         <v>49</v>
@@ -47179,7 +47159,7 @@
     </row>
     <row r="147" spans="1:70">
       <c r="A147">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B147" t="s">
         <v>263</v>
@@ -47188,7 +47168,7 @@
         <v>7000000</v>
       </c>
       <c r="E147" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I147" t="s">
         <v>272</v>
@@ -47197,7 +47177,7 @@
         <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L147" t="s">
         <v>275</v>
@@ -47233,7 +47213,7 @@
         <v>1</v>
       </c>
       <c r="Y147" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z147" t="s">
         <v>1</v>
@@ -47248,7 +47228,7 @@
         <v>5</v>
       </c>
       <c r="AI147" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ147" t="s">
         <v>1</v>
@@ -47290,7 +47270,7 @@
         <v>1000</v>
       </c>
       <c r="BC147">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="BG147" t="s">
         <v>49</v>
@@ -47316,7 +47296,7 @@
     </row>
     <row r="148" spans="1:70">
       <c r="A148">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B148" t="s">
         <v>263</v>
@@ -47325,7 +47305,7 @@
         <v>7000000</v>
       </c>
       <c r="E148" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I148" t="s">
         <v>272</v>
@@ -47334,7 +47314,7 @@
         <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L148" t="s">
         <v>275</v>
@@ -47370,7 +47350,7 @@
         <v>1</v>
       </c>
       <c r="Y148" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z148" t="s">
         <v>1</v>
@@ -47385,7 +47365,7 @@
         <v>5</v>
       </c>
       <c r="AI148" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ148" t="s">
         <v>1</v>
@@ -47427,7 +47407,7 @@
         <v>1000</v>
       </c>
       <c r="BC148">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="BG148" t="s">
         <v>49</v>
@@ -47453,7 +47433,7 @@
     </row>
     <row r="149" spans="1:70">
       <c r="A149">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B149" t="s">
         <v>263</v>
@@ -47462,7 +47442,7 @@
         <v>7000000</v>
       </c>
       <c r="E149" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I149" t="s">
         <v>272</v>
@@ -47471,7 +47451,7 @@
         <v>1</v>
       </c>
       <c r="K149" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L149" t="s">
         <v>275</v>
@@ -47507,7 +47487,7 @@
         <v>1</v>
       </c>
       <c r="Y149" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z149" t="s">
         <v>1</v>
@@ -47522,7 +47502,7 @@
         <v>5</v>
       </c>
       <c r="AI149" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ149" t="s">
         <v>1</v>
@@ -47564,7 +47544,7 @@
         <v>1000</v>
       </c>
       <c r="BC149">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BG149" t="s">
         <v>49</v>
@@ -47590,7 +47570,7 @@
     </row>
     <row r="150" spans="1:70">
       <c r="A150">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B150" t="s">
         <v>263</v>
@@ -47599,7 +47579,7 @@
         <v>7000000</v>
       </c>
       <c r="E150" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I150" t="s">
         <v>272</v>
@@ -47608,7 +47588,7 @@
         <v>1</v>
       </c>
       <c r="K150" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L150" t="s">
         <v>275</v>
@@ -47644,7 +47624,7 @@
         <v>1</v>
       </c>
       <c r="Y150" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z150" t="s">
         <v>1</v>
@@ -47659,7 +47639,7 @@
         <v>5</v>
       </c>
       <c r="AI150" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ150" t="s">
         <v>1</v>
@@ -47701,7 +47681,7 @@
         <v>1000</v>
       </c>
       <c r="BC150">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BG150" t="s">
         <v>49</v>
@@ -47727,7 +47707,7 @@
     </row>
     <row r="151" spans="1:70">
       <c r="A151">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B151" t="s">
         <v>263</v>
@@ -47736,7 +47716,7 @@
         <v>7000000</v>
       </c>
       <c r="E151" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I151" t="s">
         <v>272</v>
@@ -47745,7 +47725,7 @@
         <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L151" t="s">
         <v>275</v>
@@ -47781,7 +47761,7 @@
         <v>1</v>
       </c>
       <c r="Y151" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z151" t="s">
         <v>1</v>
@@ -47796,7 +47776,7 @@
         <v>5</v>
       </c>
       <c r="AI151" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ151" t="s">
         <v>1</v>
@@ -47838,7 +47818,7 @@
         <v>1000</v>
       </c>
       <c r="BC151">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BG151" t="s">
         <v>49</v>
@@ -47864,7 +47844,7 @@
     </row>
     <row r="152" spans="1:70">
       <c r="A152">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B152" t="s">
         <v>263</v>
@@ -47873,7 +47853,7 @@
         <v>7000000</v>
       </c>
       <c r="E152" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I152" t="s">
         <v>272</v>
@@ -47882,7 +47862,7 @@
         <v>1</v>
       </c>
       <c r="K152" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L152" t="s">
         <v>275</v>
@@ -47918,7 +47898,7 @@
         <v>1</v>
       </c>
       <c r="Y152" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z152" t="s">
         <v>1</v>
@@ -47933,7 +47913,7 @@
         <v>5</v>
       </c>
       <c r="AI152" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ152" t="s">
         <v>1</v>
@@ -47975,7 +47955,7 @@
         <v>1000</v>
       </c>
       <c r="BC152">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="BG152" t="s">
         <v>49</v>
@@ -48001,7 +47981,7 @@
     </row>
     <row r="153" spans="1:70">
       <c r="A153">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B153" t="s">
         <v>263</v>
@@ -48010,7 +47990,7 @@
         <v>7000000</v>
       </c>
       <c r="E153" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I153" t="s">
         <v>272</v>
@@ -48019,7 +47999,7 @@
         <v>1</v>
       </c>
       <c r="K153" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L153" t="s">
         <v>275</v>
@@ -48055,7 +48035,7 @@
         <v>1</v>
       </c>
       <c r="Y153" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z153" t="s">
         <v>1</v>
@@ -48070,7 +48050,7 @@
         <v>5</v>
       </c>
       <c r="AI153" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ153" t="s">
         <v>1</v>
@@ -48112,7 +48092,7 @@
         <v>1000</v>
       </c>
       <c r="BC153">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="BG153" t="s">
         <v>49</v>
@@ -48138,7 +48118,7 @@
     </row>
     <row r="154" spans="1:70">
       <c r="A154">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B154" t="s">
         <v>263</v>
@@ -48147,7 +48127,7 @@
         <v>7000000</v>
       </c>
       <c r="E154" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I154" t="s">
         <v>272</v>
@@ -48156,7 +48136,7 @@
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L154" t="s">
         <v>275</v>
@@ -48192,7 +48172,7 @@
         <v>1</v>
       </c>
       <c r="Y154" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z154" t="s">
         <v>1</v>
@@ -48207,7 +48187,7 @@
         <v>5</v>
       </c>
       <c r="AI154" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ154" t="s">
         <v>1</v>
@@ -48249,7 +48229,7 @@
         <v>1000</v>
       </c>
       <c r="BC154">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="BG154" t="s">
         <v>49</v>
@@ -48275,16 +48255,16 @@
     </row>
     <row r="155" spans="1:70">
       <c r="A155">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D155">
         <v>7000000</v>
       </c>
       <c r="E155" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I155" t="s">
         <v>272</v>
@@ -48293,7 +48273,7 @@
         <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L155" t="s">
         <v>275</v>
@@ -48329,7 +48309,7 @@
         <v>1</v>
       </c>
       <c r="Y155" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z155" t="s">
         <v>1</v>
@@ -48344,7 +48324,7 @@
         <v>5</v>
       </c>
       <c r="AI155" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ155" t="s">
         <v>1</v>
@@ -48386,7 +48366,7 @@
         <v>1000</v>
       </c>
       <c r="BC155">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="BG155" t="s">
         <v>49</v>
@@ -48412,16 +48392,16 @@
     </row>
     <row r="156" spans="1:70">
       <c r="A156">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>262</v>
+        <v>384</v>
       </c>
       <c r="D156">
         <v>7000000</v>
       </c>
       <c r="E156" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I156" t="s">
         <v>272</v>
@@ -48430,7 +48410,7 @@
         <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L156" t="s">
         <v>275</v>
@@ -48466,7 +48446,7 @@
         <v>1</v>
       </c>
       <c r="Y156" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z156" t="s">
         <v>1</v>
@@ -48481,7 +48461,7 @@
         <v>5</v>
       </c>
       <c r="AI156" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ156" t="s">
         <v>1</v>
@@ -48549,16 +48529,16 @@
     </row>
     <row r="157" spans="1:70">
       <c r="A157">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D157">
         <v>7000000</v>
       </c>
       <c r="E157" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I157" t="s">
         <v>272</v>
@@ -48567,7 +48547,7 @@
         <v>1</v>
       </c>
       <c r="K157" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L157" t="s">
         <v>275</v>
@@ -48603,7 +48583,7 @@
         <v>1</v>
       </c>
       <c r="Y157" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z157" t="s">
         <v>1</v>
@@ -48618,7 +48598,7 @@
         <v>5</v>
       </c>
       <c r="AI157" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ157" t="s">
         <v>1</v>
@@ -48686,16 +48666,16 @@
     </row>
     <row r="158" spans="1:70">
       <c r="A158">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="D158">
         <v>7000000</v>
       </c>
       <c r="E158" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I158" t="s">
         <v>272</v>
@@ -48704,7 +48684,7 @@
         <v>1</v>
       </c>
       <c r="K158" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L158" t="s">
         <v>275</v>
@@ -48740,7 +48720,7 @@
         <v>1</v>
       </c>
       <c r="Y158" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z158" t="s">
         <v>1</v>
@@ -48755,7 +48735,7 @@
         <v>5</v>
       </c>
       <c r="AI158" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ158" t="s">
         <v>1</v>
@@ -48823,16 +48803,16 @@
     </row>
     <row r="159" spans="1:70">
       <c r="A159">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="D159">
         <v>7000000</v>
       </c>
       <c r="E159" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I159" t="s">
         <v>272</v>
@@ -48841,7 +48821,7 @@
         <v>1</v>
       </c>
       <c r="K159" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L159" t="s">
         <v>275</v>
@@ -48877,7 +48857,7 @@
         <v>1</v>
       </c>
       <c r="Y159" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z159" t="s">
         <v>1</v>
@@ -48892,7 +48872,7 @@
         <v>5</v>
       </c>
       <c r="AI159" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ159" t="s">
         <v>1</v>
@@ -48960,16 +48940,16 @@
     </row>
     <row r="160" spans="1:70">
       <c r="A160">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D160">
         <v>7000000</v>
       </c>
       <c r="E160" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I160" t="s">
         <v>272</v>
@@ -48978,7 +48958,7 @@
         <v>1</v>
       </c>
       <c r="K160" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L160" t="s">
         <v>275</v>
@@ -49014,7 +48994,7 @@
         <v>1</v>
       </c>
       <c r="Y160" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z160" t="s">
         <v>1</v>
@@ -49029,7 +49009,7 @@
         <v>5</v>
       </c>
       <c r="AI160" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ160" t="s">
         <v>1</v>
@@ -49097,16 +49077,16 @@
     </row>
     <row r="161" spans="1:70">
       <c r="A161">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D161">
         <v>7000000</v>
       </c>
       <c r="E161" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="I161" t="s">
         <v>272</v>
@@ -49115,7 +49095,7 @@
         <v>1</v>
       </c>
       <c r="K161" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L161" t="s">
         <v>275</v>
@@ -49151,7 +49131,7 @@
         <v>1</v>
       </c>
       <c r="Y161" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z161" t="s">
         <v>1</v>
@@ -49166,7 +49146,7 @@
         <v>5</v>
       </c>
       <c r="AI161" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="AJ161" t="s">
         <v>1</v>
@@ -49232,197 +49212,62 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="162" spans="1:70">
-      <c r="A162">
-        <v>163</v>
-      </c>
-      <c r="B162" t="s">
-        <v>393</v>
-      </c>
-      <c r="D162">
-        <v>7000000</v>
-      </c>
-      <c r="E162" t="s">
-        <v>395</v>
-      </c>
-      <c r="I162" t="s">
-        <v>272</v>
-      </c>
-      <c r="J162" t="s">
-        <v>1</v>
-      </c>
-      <c r="K162" t="s">
-        <v>302</v>
-      </c>
-      <c r="L162" t="s">
-        <v>275</v>
-      </c>
-      <c r="M162" t="s">
-        <v>1</v>
-      </c>
-      <c r="N162" t="s">
-        <v>1</v>
-      </c>
-      <c r="O162" t="s">
-        <v>1</v>
-      </c>
-      <c r="P162" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>311</v>
-      </c>
-      <c r="T162">
-        <v>1</v>
-      </c>
-      <c r="U162" t="s">
-        <v>1</v>
-      </c>
-      <c r="V162" t="s">
-        <v>1</v>
-      </c>
-      <c r="W162" t="s">
-        <v>1</v>
-      </c>
-      <c r="X162" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y162" t="s">
-        <v>396</v>
-      </c>
-      <c r="Z162" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA162" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD162" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE162">
-        <v>5</v>
-      </c>
-      <c r="AI162" t="s">
-        <v>397</v>
-      </c>
-      <c r="AJ162" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK162" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL162" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM162" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN162" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO162" t="s">
-        <v>323</v>
-      </c>
-      <c r="AP162" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ162" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR162" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV162">
-        <v>2</v>
-      </c>
-      <c r="AW162">
-        <v>2</v>
-      </c>
-      <c r="AX162">
-        <v>2</v>
-      </c>
-      <c r="BB162">
-        <v>1000</v>
-      </c>
-      <c r="BC162">
-        <v>1000</v>
-      </c>
-      <c r="BG162" t="s">
-        <v>49</v>
-      </c>
-      <c r="BM162">
-        <v>10</v>
-      </c>
-      <c r="BN162">
-        <v>100</v>
-      </c>
-      <c r="BO162">
-        <v>400</v>
-      </c>
-      <c r="BP162">
-        <v>10000</v>
-      </c>
-      <c r="BQ162">
-        <v>3000</v>
-      </c>
-      <c r="BR162">
-        <v>10000</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59041EA9-8709-4AB5-8382-8D75AFDF5A6B}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B1" t="s">
         <v>225</v>
       </c>
       <c r="C1" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="D1" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="E1" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="F1" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="G1" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="H1" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="I1" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="J1" t="s">
         <v>261</v>
       </c>
       <c r="K1" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="L1" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="M1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N1" t="s">
         <v>264</v>
@@ -49431,7 +49276,7 @@
         <v>265</v>
       </c>
       <c r="P1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -49439,19 +49284,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D2">
         <v>100000</v>
       </c>
       <c r="F2" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G2" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H2" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I2">
         <v>123456</v>
@@ -49460,13 +49305,13 @@
         <v>500</v>
       </c>
       <c r="M2" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O2" t="s">
         <v>314</v>
       </c>
       <c r="P2" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -49474,19 +49319,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D3">
         <v>100000</v>
       </c>
       <c r="F3" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="G3" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H3" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I3">
         <v>123456</v>
@@ -49495,13 +49340,13 @@
         <v>500</v>
       </c>
       <c r="M3" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O3" t="s">
         <v>314</v>
       </c>
       <c r="P3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -49509,19 +49354,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D4">
         <v>100000</v>
       </c>
       <c r="F4" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="G4" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H4" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I4">
         <v>123456</v>
@@ -49530,13 +49375,13 @@
         <v>500</v>
       </c>
       <c r="M4" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O4" t="s">
         <v>314</v>
       </c>
       <c r="P4" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -49544,19 +49389,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D5">
         <v>100000</v>
       </c>
       <c r="F5" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="G5" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H5" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I5">
         <v>123456</v>
@@ -49565,13 +49410,13 @@
         <v>500</v>
       </c>
       <c r="M5" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O5" t="s">
         <v>314</v>
       </c>
       <c r="P5" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -49579,19 +49424,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D6">
         <v>100000</v>
       </c>
       <c r="F6" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="G6" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H6" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I6">
         <v>123456</v>
@@ -49600,13 +49445,13 @@
         <v>500</v>
       </c>
       <c r="M6" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O6" t="s">
         <v>314</v>
       </c>
       <c r="P6" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -49614,19 +49459,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D7">
         <v>100000</v>
       </c>
       <c r="F7" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I7">
         <v>123456</v>
@@ -49635,13 +49480,13 @@
         <v>500</v>
       </c>
       <c r="M7" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O7" t="s">
         <v>314</v>
       </c>
       <c r="P7" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -49649,19 +49494,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D8">
         <v>100000</v>
       </c>
       <c r="F8" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="G8" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H8" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I8">
         <v>123456</v>
@@ -49670,13 +49515,13 @@
         <v>500</v>
       </c>
       <c r="M8" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O8" t="s">
         <v>314</v>
       </c>
       <c r="P8" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -49684,19 +49529,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D9">
         <v>100000</v>
       </c>
       <c r="F9" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="G9" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H9" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I9">
         <v>123456</v>
@@ -49705,13 +49550,13 @@
         <v>500</v>
       </c>
       <c r="M9" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O9" t="s">
         <v>314</v>
       </c>
       <c r="P9" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -49719,19 +49564,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D10">
         <v>100000</v>
       </c>
       <c r="F10" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="G10" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H10" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I10">
         <v>123456</v>
@@ -49740,13 +49585,13 @@
         <v>500</v>
       </c>
       <c r="M10" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O10" t="s">
         <v>314</v>
       </c>
       <c r="P10" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -49754,19 +49599,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D11">
         <v>100000</v>
       </c>
       <c r="F11" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="G11" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H11" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I11">
         <v>123456</v>
@@ -49775,13 +49620,13 @@
         <v>500</v>
       </c>
       <c r="M11" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O11" t="s">
         <v>314</v>
       </c>
       <c r="P11" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -49789,19 +49634,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="D12">
         <v>100000</v>
       </c>
       <c r="F12" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G12" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H12" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I12">
         <v>123456</v>
@@ -49810,13 +49655,13 @@
         <v>500</v>
       </c>
       <c r="M12" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O12" t="s">
         <v>314</v>
       </c>
       <c r="P12" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -49824,31 +49669,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="D13">
         <v>100000</v>
       </c>
       <c r="F13" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G13" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H13" t="s">
-        <v>438</v>
+        <v>424</v>
+      </c>
+      <c r="I13">
+        <v>123456</v>
       </c>
       <c r="K13">
         <v>500</v>
       </c>
       <c r="M13" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O13" t="s">
         <v>314</v>
       </c>
       <c r="P13" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -49856,19 +49704,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D14">
         <v>100000</v>
       </c>
       <c r="F14" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G14" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H14" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I14">
         <v>123456</v>
@@ -49877,13 +49725,13 @@
         <v>500</v>
       </c>
       <c r="M14" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O14" t="s">
         <v>314</v>
       </c>
       <c r="P14" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -49891,34 +49739,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="D15">
         <v>100000</v>
       </c>
       <c r="F15" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G15" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H15" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I15">
         <v>123456</v>
       </c>
-      <c r="K15">
-        <v>500</v>
+      <c r="K15" t="s">
+        <v>334</v>
       </c>
       <c r="M15" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O15" t="s">
         <v>314</v>
       </c>
       <c r="P15" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -49926,19 +49774,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="D16">
         <v>100000</v>
       </c>
       <c r="F16" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G16" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H16" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I16">
         <v>123456</v>
@@ -49947,13 +49795,13 @@
         <v>500</v>
       </c>
       <c r="M16" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O16" t="s">
         <v>314</v>
       </c>
       <c r="P16" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -49961,34 +49809,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>437</v>
       </c>
       <c r="D17">
         <v>100000</v>
       </c>
       <c r="F17" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G17" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H17" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I17">
         <v>123456</v>
       </c>
-      <c r="K17">
-        <v>500</v>
+      <c r="K17" s="3">
+        <v>5000</v>
       </c>
       <c r="M17" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O17" t="s">
         <v>314</v>
       </c>
       <c r="P17" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -49996,34 +49844,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>265</v>
+        <v>437</v>
       </c>
       <c r="D18">
         <v>100000</v>
       </c>
       <c r="F18" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G18" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H18" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I18">
         <v>123456</v>
       </c>
-      <c r="K18">
-        <v>500</v>
+      <c r="K18" s="3">
+        <v>7500</v>
       </c>
       <c r="M18" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O18" t="s">
-        <v>1</v>
+        <v>314</v>
       </c>
       <c r="P18" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -50031,34 +49879,349 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="D19">
         <v>100000</v>
       </c>
       <c r="F19" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G19" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H19" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="I19">
         <v>123456</v>
       </c>
-      <c r="K19">
-        <v>500</v>
+      <c r="K19" s="3">
+        <v>10000</v>
       </c>
       <c r="M19" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O19" t="s">
         <v>314</v>
       </c>
       <c r="P19" t="s">
-        <v>440</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>437</v>
+      </c>
+      <c r="D20">
+        <v>100000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>423</v>
+      </c>
+      <c r="G20" t="s">
+        <v>424</v>
+      </c>
+      <c r="H20" t="s">
+        <v>424</v>
+      </c>
+      <c r="I20">
+        <v>123456</v>
+      </c>
+      <c r="K20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M20" t="s">
+        <v>425</v>
+      </c>
+      <c r="O20" t="s">
+        <v>314</v>
+      </c>
+      <c r="P20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>437</v>
+      </c>
+      <c r="D21">
+        <v>100000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>423</v>
+      </c>
+      <c r="G21" t="s">
+        <v>424</v>
+      </c>
+      <c r="H21" t="s">
+        <v>424</v>
+      </c>
+      <c r="I21">
+        <v>123456</v>
+      </c>
+      <c r="K21" s="3">
+        <v>20000</v>
+      </c>
+      <c r="M21" t="s">
+        <v>425</v>
+      </c>
+      <c r="O21" t="s">
+        <v>314</v>
+      </c>
+      <c r="P21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>437</v>
+      </c>
+      <c r="D22">
+        <v>100000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>423</v>
+      </c>
+      <c r="G22" t="s">
+        <v>424</v>
+      </c>
+      <c r="H22" t="s">
+        <v>424</v>
+      </c>
+      <c r="I22">
+        <v>123456</v>
+      </c>
+      <c r="K22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="M22" t="s">
+        <v>425</v>
+      </c>
+      <c r="O22" t="s">
+        <v>314</v>
+      </c>
+      <c r="P22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>437</v>
+      </c>
+      <c r="D23">
+        <v>100000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>423</v>
+      </c>
+      <c r="G23" t="s">
+        <v>424</v>
+      </c>
+      <c r="H23" t="s">
+        <v>424</v>
+      </c>
+      <c r="I23">
+        <v>123456</v>
+      </c>
+      <c r="K23" s="3">
+        <v>80000</v>
+      </c>
+      <c r="M23" t="s">
+        <v>425</v>
+      </c>
+      <c r="O23" t="s">
+        <v>314</v>
+      </c>
+      <c r="P23" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D24">
+        <v>100000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>423</v>
+      </c>
+      <c r="G24" t="s">
+        <v>424</v>
+      </c>
+      <c r="H24" t="s">
+        <v>424</v>
+      </c>
+      <c r="I24">
+        <v>123456</v>
+      </c>
+      <c r="K24" s="3">
+        <v>100000</v>
+      </c>
+      <c r="M24" t="s">
+        <v>425</v>
+      </c>
+      <c r="O24" t="s">
+        <v>314</v>
+      </c>
+      <c r="P24" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>438</v>
+      </c>
+      <c r="D25">
+        <v>100000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>423</v>
+      </c>
+      <c r="G25" t="s">
+        <v>424</v>
+      </c>
+      <c r="H25" t="s">
+        <v>424</v>
+      </c>
+      <c r="I25">
+        <v>123456</v>
+      </c>
+      <c r="K25">
+        <v>500</v>
+      </c>
+      <c r="M25" t="s">
+        <v>425</v>
+      </c>
+      <c r="O25" t="s">
+        <v>314</v>
+      </c>
+      <c r="P25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>265</v>
+      </c>
+      <c r="D26">
+        <v>100000</v>
+      </c>
+      <c r="F26" t="s">
+        <v>423</v>
+      </c>
+      <c r="G26" t="s">
+        <v>424</v>
+      </c>
+      <c r="H26" t="s">
+        <v>424</v>
+      </c>
+      <c r="I26">
+        <v>123456</v>
+      </c>
+      <c r="K26">
+        <v>500</v>
+      </c>
+      <c r="M26" t="s">
+        <v>425</v>
+      </c>
+      <c r="O26" t="s">
+        <v>314</v>
+      </c>
+      <c r="P26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27">
+        <v>100000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G27" t="s">
+        <v>424</v>
+      </c>
+      <c r="H27" t="s">
+        <v>424</v>
+      </c>
+      <c r="I27">
+        <v>123456</v>
+      </c>
+      <c r="K27">
+        <v>500</v>
+      </c>
+      <c r="M27" t="s">
+        <v>425</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>439</v>
+      </c>
+      <c r="D28">
+        <v>100000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>423</v>
+      </c>
+      <c r="G28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H28" t="s">
+        <v>424</v>
+      </c>
+      <c r="I28">
+        <v>123456</v>
+      </c>
+      <c r="K28">
+        <v>500</v>
+      </c>
+      <c r="M28" t="s">
+        <v>425</v>
+      </c>
+      <c r="O28" t="s">
+        <v>314</v>
+      </c>
+      <c r="P28" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -50446,15 +50609,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100974990A4B7481540AD2827693D2B4677" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29dc9a2c723eb601f8a43bd90399fbaa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="39c968c6-d81e-4a40-af5e-103bfa8ea621" xmlns:ns3="16e03651-acd4-40f0-82ea-ba55e12251a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9dea1e42ffc2c62d22e8c39d3144f8a7" ns2:_="" ns3:_="">
     <xsd:import namespace="39c968c6-d81e-4a40-af5e-103bfa8ea621"/>
@@ -50703,6 +50857,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -50715,14 +50878,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{488A6D9C-A748-45FA-846F-A9AD5EC1A9F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF06F155-6F1A-4F06-A273-A2279113E9CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50741,6 +50896,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{488A6D9C-A748-45FA-846F-A9AD5EC1A9F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DE6B354-43A9-4490-9EF5-3F7471DCEA9A}">
   <ds:schemaRefs>

--- a/src/NIMBIS.xlsx
+++ b/src/NIMBIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SandhiyaM\Documents\GitHub\qa-automation-nimbus\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E1E7F4-E4AD-4D3B-BB57-2492CC9369EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2395DD-D140-4702-B31A-96E72E684C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{A48C591E-A447-324F-80BA-5B973C426F33}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11375" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11375" uniqueCount="442">
   <si>
     <t>ITC check consent</t>
   </si>
@@ -1154,9 +1154,6 @@
     <t>commune</t>
   </si>
   <si>
-    <t>Years of previous uninterrupted contents insurance cover </t>
-  </si>
-  <si>
     <t>SECURITY</t>
   </si>
   <si>
@@ -27104,8 +27101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3695A1B5-30DE-4652-A92D-76AA38C7B0EE}">
   <dimension ref="A1:BR161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27199,94 +27196,94 @@
         <v>363</v>
       </c>
       <c r="AE1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AG1" t="s">
         <v>364</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>365</v>
       </c>
       <c r="AI1" t="s">
         <v>256</v>
       </c>
       <c r="AJ1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK1" t="s">
         <v>366</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>367</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>368</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>369</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>370</v>
       </c>
       <c r="AO1" t="s">
         <v>111</v>
       </c>
       <c r="AP1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>371</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>372</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>373</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>374</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>375</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>376</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>377</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>378</v>
       </c>
       <c r="BB1" t="s">
         <v>87</v>
       </c>
       <c r="BC1" t="s">
+        <v>378</v>
+      </c>
+      <c r="BE1" t="s">
         <v>379</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>380</v>
       </c>
       <c r="BG1" t="s">
         <v>265</v>
       </c>
       <c r="BH1" t="s">
+        <v>380</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>381</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>382</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>383</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>384</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>385</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>386</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>387</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>388</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:70">
@@ -27345,7 +27342,7 @@
         <v>1</v>
       </c>
       <c r="Y2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z2" t="s">
         <v>1</v>
@@ -27440,7 +27437,7 @@
         <v>271</v>
       </c>
       <c r="I3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
@@ -27482,7 +27479,7 @@
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z3" t="s">
         <v>1</v>
@@ -27577,7 +27574,7 @@
         <v>271</v>
       </c>
       <c r="I4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J4" t="s">
         <v>1</v>
@@ -27619,7 +27616,7 @@
         <v>1</v>
       </c>
       <c r="Y4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z4" t="s">
         <v>1</v>
@@ -27714,7 +27711,7 @@
         <v>271</v>
       </c>
       <c r="I5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J5" t="s">
         <v>1</v>
@@ -27756,7 +27753,7 @@
         <v>1</v>
       </c>
       <c r="Y5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z5" t="s">
         <v>1</v>
@@ -27851,7 +27848,7 @@
         <v>271</v>
       </c>
       <c r="I6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J6" t="s">
         <v>1</v>
@@ -27893,7 +27890,7 @@
         <v>1</v>
       </c>
       <c r="Y6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z6" t="s">
         <v>1</v>
@@ -27988,7 +27985,7 @@
         <v>271</v>
       </c>
       <c r="I7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
@@ -28030,7 +28027,7 @@
         <v>1</v>
       </c>
       <c r="Y7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z7" t="s">
         <v>1</v>
@@ -28125,7 +28122,7 @@
         <v>271</v>
       </c>
       <c r="I8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J8" t="s">
         <v>1</v>
@@ -28167,7 +28164,7 @@
         <v>1</v>
       </c>
       <c r="Y8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z8" t="s">
         <v>1</v>
@@ -28262,7 +28259,7 @@
         <v>271</v>
       </c>
       <c r="I9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J9" t="s">
         <v>1</v>
@@ -28304,7 +28301,7 @@
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z9" t="s">
         <v>1</v>
@@ -28399,7 +28396,7 @@
         <v>271</v>
       </c>
       <c r="I10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J10" t="s">
         <v>1</v>
@@ -28441,7 +28438,7 @@
         <v>1</v>
       </c>
       <c r="Y10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z10" t="s">
         <v>1</v>
@@ -28536,7 +28533,7 @@
         <v>271</v>
       </c>
       <c r="I11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J11" t="s">
         <v>1</v>
@@ -28578,7 +28575,7 @@
         <v>1</v>
       </c>
       <c r="Y11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z11" t="s">
         <v>1</v>
@@ -28715,7 +28712,7 @@
         <v>1</v>
       </c>
       <c r="Y12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z12" t="s">
         <v>1</v>
@@ -28852,7 +28849,7 @@
         <v>1</v>
       </c>
       <c r="Y13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z13" t="s">
         <v>1</v>
@@ -28989,7 +28986,7 @@
         <v>1</v>
       </c>
       <c r="Y14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z14" t="s">
         <v>1</v>
@@ -29126,7 +29123,7 @@
         <v>1</v>
       </c>
       <c r="Y15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z15" t="s">
         <v>1</v>
@@ -29263,7 +29260,7 @@
         <v>1</v>
       </c>
       <c r="Y16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z16" t="s">
         <v>1</v>
@@ -29400,7 +29397,7 @@
         <v>1</v>
       </c>
       <c r="Y17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z17" t="s">
         <v>1</v>
@@ -29537,7 +29534,7 @@
         <v>1</v>
       </c>
       <c r="Y18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z18" t="s">
         <v>1</v>
@@ -29674,7 +29671,7 @@
         <v>1</v>
       </c>
       <c r="Y19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z19" t="s">
         <v>1</v>
@@ -29775,7 +29772,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L20" t="s">
         <v>275</v>
@@ -29811,7 +29808,7 @@
         <v>1</v>
       </c>
       <c r="Y20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z20" t="s">
         <v>1</v>
@@ -29948,7 +29945,7 @@
         <v>1</v>
       </c>
       <c r="Y21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z21" t="s">
         <v>1</v>
@@ -30085,7 +30082,7 @@
         <v>1</v>
       </c>
       <c r="Y22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z22" t="s">
         <v>1</v>
@@ -30222,7 +30219,7 @@
         <v>1</v>
       </c>
       <c r="Y23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z23" t="s">
         <v>1</v>
@@ -30359,7 +30356,7 @@
         <v>1</v>
       </c>
       <c r="Y24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z24" t="s">
         <v>1</v>
@@ -30496,7 +30493,7 @@
         <v>1</v>
       </c>
       <c r="Y25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z25" t="s">
         <v>1</v>
@@ -30633,7 +30630,7 @@
         <v>1</v>
       </c>
       <c r="Y26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z26" t="s">
         <v>1</v>
@@ -30770,7 +30767,7 @@
         <v>1</v>
       </c>
       <c r="Y27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z27" t="s">
         <v>1</v>
@@ -30907,7 +30904,7 @@
         <v>1</v>
       </c>
       <c r="Y28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z28" t="s">
         <v>1</v>
@@ -31044,7 +31041,7 @@
         <v>1</v>
       </c>
       <c r="Y29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z29" t="s">
         <v>1</v>
@@ -31181,7 +31178,7 @@
         <v>1</v>
       </c>
       <c r="Y30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z30" t="s">
         <v>1</v>
@@ -31318,7 +31315,7 @@
         <v>1</v>
       </c>
       <c r="Y31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z31" t="s">
         <v>1</v>
@@ -31455,7 +31452,7 @@
         <v>1</v>
       </c>
       <c r="Y32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z32" t="s">
         <v>1</v>
@@ -31592,7 +31589,7 @@
         <v>1</v>
       </c>
       <c r="Y33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z33" t="s">
         <v>1</v>
@@ -31729,7 +31726,7 @@
         <v>1</v>
       </c>
       <c r="Y34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z34" t="s">
         <v>1</v>
@@ -31866,7 +31863,7 @@
         <v>1</v>
       </c>
       <c r="Y35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z35" t="s">
         <v>1</v>
@@ -32003,7 +32000,7 @@
         <v>1</v>
       </c>
       <c r="Y36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z36" t="s">
         <v>1</v>
@@ -32140,7 +32137,7 @@
         <v>1</v>
       </c>
       <c r="Y37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z37" t="s">
         <v>1</v>
@@ -32277,7 +32274,7 @@
         <v>1</v>
       </c>
       <c r="Y38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z38" t="s">
         <v>1</v>
@@ -32414,7 +32411,7 @@
         <v>1</v>
       </c>
       <c r="Y39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z39" t="s">
         <v>1</v>
@@ -32551,7 +32548,7 @@
         <v>1</v>
       </c>
       <c r="Y40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z40" t="s">
         <v>1</v>
@@ -32688,7 +32685,7 @@
         <v>1</v>
       </c>
       <c r="Y41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z41" t="s">
         <v>1</v>
@@ -32825,7 +32822,7 @@
         <v>1</v>
       </c>
       <c r="Y42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z42" t="s">
         <v>1</v>
@@ -32962,7 +32959,7 @@
         <v>1</v>
       </c>
       <c r="Y43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z43" t="s">
         <v>1</v>
@@ -33099,7 +33096,7 @@
         <v>1</v>
       </c>
       <c r="Y44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z44" t="s">
         <v>1</v>
@@ -33236,7 +33233,7 @@
         <v>1</v>
       </c>
       <c r="Y45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z45" t="s">
         <v>1</v>
@@ -33373,7 +33370,7 @@
         <v>1</v>
       </c>
       <c r="Y46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z46" t="s">
         <v>1</v>
@@ -33510,7 +33507,7 @@
         <v>1</v>
       </c>
       <c r="Y47" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z47" t="s">
         <v>1</v>
@@ -33647,7 +33644,7 @@
         <v>1</v>
       </c>
       <c r="Y48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z48" t="s">
         <v>1</v>
@@ -33784,7 +33781,7 @@
         <v>1</v>
       </c>
       <c r="Y49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z49" t="s">
         <v>1</v>
@@ -33921,7 +33918,7 @@
         <v>1</v>
       </c>
       <c r="Y50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z50" t="s">
         <v>1</v>
@@ -34058,7 +34055,7 @@
         <v>1</v>
       </c>
       <c r="Y51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z51" t="s">
         <v>1</v>
@@ -34195,7 +34192,7 @@
         <v>1</v>
       </c>
       <c r="Y52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z52" t="s">
         <v>1</v>
@@ -34332,7 +34329,7 @@
         <v>1</v>
       </c>
       <c r="Y53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z53" t="s">
         <v>1</v>
@@ -34469,7 +34466,7 @@
         <v>1</v>
       </c>
       <c r="Y54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z54" t="s">
         <v>1</v>
@@ -34606,7 +34603,7 @@
         <v>1</v>
       </c>
       <c r="Y55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z55" t="s">
         <v>1</v>
@@ -34743,7 +34740,7 @@
         <v>1</v>
       </c>
       <c r="Y56" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z56" t="s">
         <v>1</v>
@@ -34880,7 +34877,7 @@
         <v>49</v>
       </c>
       <c r="Y57" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z57" t="s">
         <v>1</v>
@@ -35017,7 +35014,7 @@
         <v>1</v>
       </c>
       <c r="Y58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z58" t="s">
         <v>1</v>
@@ -35154,7 +35151,7 @@
         <v>1</v>
       </c>
       <c r="Y59" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z59" t="s">
         <v>49</v>
@@ -35291,7 +35288,7 @@
         <v>1</v>
       </c>
       <c r="Y60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z60" t="s">
         <v>1</v>
@@ -35428,7 +35425,7 @@
         <v>1</v>
       </c>
       <c r="Y61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z61" t="s">
         <v>1</v>
@@ -35565,7 +35562,7 @@
         <v>1</v>
       </c>
       <c r="Y62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z62" t="s">
         <v>1</v>
@@ -35702,7 +35699,7 @@
         <v>1</v>
       </c>
       <c r="Y63" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z63" t="s">
         <v>1</v>
@@ -35839,7 +35836,7 @@
         <v>1</v>
       </c>
       <c r="Y64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z64" t="s">
         <v>1</v>
@@ -35976,7 +35973,7 @@
         <v>1</v>
       </c>
       <c r="Y65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z65" t="s">
         <v>1</v>
@@ -36113,7 +36110,7 @@
         <v>1</v>
       </c>
       <c r="Y66" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z66" t="s">
         <v>1</v>
@@ -36250,7 +36247,7 @@
         <v>1</v>
       </c>
       <c r="Y67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z67" t="s">
         <v>1</v>
@@ -36387,7 +36384,7 @@
         <v>1</v>
       </c>
       <c r="Y68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z68" t="s">
         <v>1</v>
@@ -36473,7 +36470,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D69">
         <v>7000000</v>
@@ -36524,7 +36521,7 @@
         <v>1</v>
       </c>
       <c r="Y69" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z69" t="s">
         <v>1</v>
@@ -36661,7 +36658,7 @@
         <v>1</v>
       </c>
       <c r="Y70" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z70" t="s">
         <v>1</v>
@@ -36798,7 +36795,7 @@
         <v>1</v>
       </c>
       <c r="Y71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z71" t="s">
         <v>1</v>
@@ -36935,7 +36932,7 @@
         <v>1</v>
       </c>
       <c r="Y72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z72" t="s">
         <v>1</v>
@@ -37072,7 +37069,7 @@
         <v>1</v>
       </c>
       <c r="Y73" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z73" t="s">
         <v>1</v>
@@ -37209,7 +37206,7 @@
         <v>1</v>
       </c>
       <c r="Y74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z74" t="s">
         <v>1</v>
@@ -37346,7 +37343,7 @@
         <v>1</v>
       </c>
       <c r="Y75" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z75" t="s">
         <v>1</v>
@@ -37483,7 +37480,7 @@
         <v>1</v>
       </c>
       <c r="Y76" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z76" t="s">
         <v>1</v>
@@ -37620,7 +37617,7 @@
         <v>1</v>
       </c>
       <c r="Y77" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z77" t="s">
         <v>1</v>
@@ -37757,7 +37754,7 @@
         <v>1</v>
       </c>
       <c r="Y78" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z78" t="s">
         <v>1</v>
@@ -37894,7 +37891,7 @@
         <v>1</v>
       </c>
       <c r="Y79" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z79" t="s">
         <v>1</v>
@@ -38031,7 +38028,7 @@
         <v>1</v>
       </c>
       <c r="Y80" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z80" t="s">
         <v>1</v>
@@ -38168,7 +38165,7 @@
         <v>1</v>
       </c>
       <c r="Y81" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z81" t="s">
         <v>1</v>
@@ -38305,7 +38302,7 @@
         <v>1</v>
       </c>
       <c r="Y82" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z82" t="s">
         <v>1</v>
@@ -38442,7 +38439,7 @@
         <v>1</v>
       </c>
       <c r="Y83" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z83" t="s">
         <v>1</v>
@@ -38579,7 +38576,7 @@
         <v>1</v>
       </c>
       <c r="Y84" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z84" t="s">
         <v>1</v>
@@ -38716,7 +38713,7 @@
         <v>1</v>
       </c>
       <c r="Y85" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z85" t="s">
         <v>1</v>
@@ -38853,7 +38850,7 @@
         <v>1</v>
       </c>
       <c r="Y86" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z86" t="s">
         <v>1</v>
@@ -38990,7 +38987,7 @@
         <v>1</v>
       </c>
       <c r="Y87" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z87" t="s">
         <v>1</v>
@@ -39127,7 +39124,7 @@
         <v>1</v>
       </c>
       <c r="Y88" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z88" t="s">
         <v>1</v>
@@ -39213,7 +39210,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D89">
         <v>7000000</v>
@@ -39264,7 +39261,7 @@
         <v>1</v>
       </c>
       <c r="Y89" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z89" t="s">
         <v>1</v>
@@ -39401,7 +39398,7 @@
         <v>1</v>
       </c>
       <c r="Y90" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z90" t="s">
         <v>1</v>
@@ -39538,7 +39535,7 @@
         <v>1</v>
       </c>
       <c r="Y91" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z91" t="s">
         <v>1</v>
@@ -39624,7 +39621,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D92">
         <v>7000000</v>
@@ -39675,7 +39672,7 @@
         <v>1</v>
       </c>
       <c r="Y92" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z92" t="s">
         <v>1</v>
@@ -39761,7 +39758,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D93">
         <v>7000000</v>
@@ -39812,7 +39809,7 @@
         <v>1</v>
       </c>
       <c r="Y93" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z93" t="s">
         <v>1</v>
@@ -39898,7 +39895,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D94">
         <v>7000000</v>
@@ -39949,7 +39946,7 @@
         <v>1</v>
       </c>
       <c r="Y94" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z94" t="s">
         <v>1</v>
@@ -40035,7 +40032,7 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D95">
         <v>7000000</v>
@@ -40086,7 +40083,7 @@
         <v>1</v>
       </c>
       <c r="Y95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z95" t="s">
         <v>1</v>
@@ -40172,7 +40169,7 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D96">
         <v>7000000</v>
@@ -40223,7 +40220,7 @@
         <v>1</v>
       </c>
       <c r="Y96" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z96" t="s">
         <v>1</v>
@@ -40232,7 +40229,7 @@
         <v>49</v>
       </c>
       <c r="AB96" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AD96" t="s">
         <v>314</v>
@@ -40312,7 +40309,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D97">
         <v>7000000</v>
@@ -40363,7 +40360,7 @@
         <v>1</v>
       </c>
       <c r="Y97" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z97" t="s">
         <v>1</v>
@@ -40500,7 +40497,7 @@
         <v>1</v>
       </c>
       <c r="Y98" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Z98" t="s">
         <v>1</v>
@@ -40637,7 +40634,7 @@
         <v>1</v>
       </c>
       <c r="Y99" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z99" t="s">
         <v>1</v>
@@ -40774,7 +40771,7 @@
         <v>1</v>
       </c>
       <c r="Y100" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Z100" t="s">
         <v>1</v>
@@ -40911,7 +40908,7 @@
         <v>1</v>
       </c>
       <c r="Y101" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Z101" t="s">
         <v>1</v>
@@ -41048,7 +41045,7 @@
         <v>1</v>
       </c>
       <c r="Y102" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Z102" t="s">
         <v>1</v>
@@ -41185,7 +41182,7 @@
         <v>1</v>
       </c>
       <c r="Y103" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Z103" t="s">
         <v>1</v>
@@ -41322,7 +41319,7 @@
         <v>1</v>
       </c>
       <c r="Y104" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z104" t="s">
         <v>1</v>
@@ -41459,7 +41456,7 @@
         <v>1</v>
       </c>
       <c r="Y105" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z105" t="s">
         <v>1</v>
@@ -41545,7 +41542,7 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D106">
         <v>7000000</v>
@@ -41596,7 +41593,7 @@
         <v>1</v>
       </c>
       <c r="Y106" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z106" t="s">
         <v>1</v>
@@ -41682,7 +41679,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D107">
         <v>7000000</v>
@@ -41733,7 +41730,7 @@
         <v>1</v>
       </c>
       <c r="Y107" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z107" t="s">
         <v>1</v>
@@ -41819,7 +41816,7 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D108">
         <v>7000000</v>
@@ -41870,7 +41867,7 @@
         <v>1</v>
       </c>
       <c r="Y108" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z108" t="s">
         <v>1</v>
@@ -41956,7 +41953,7 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D109">
         <v>7000000</v>
@@ -42007,7 +42004,7 @@
         <v>1</v>
       </c>
       <c r="Y109" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z109" t="s">
         <v>1</v>
@@ -42093,7 +42090,7 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D110">
         <v>7000000</v>
@@ -42144,7 +42141,7 @@
         <v>1</v>
       </c>
       <c r="Y110" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z110" t="s">
         <v>1</v>
@@ -42230,7 +42227,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D111">
         <v>7000000</v>
@@ -42281,7 +42278,7 @@
         <v>1</v>
       </c>
       <c r="Y111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z111" t="s">
         <v>1</v>
@@ -42367,7 +42364,7 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D112">
         <v>7000000</v>
@@ -42418,7 +42415,7 @@
         <v>1</v>
       </c>
       <c r="Y112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z112" t="s">
         <v>1</v>
@@ -42504,7 +42501,7 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D113">
         <v>7000000</v>
@@ -42555,7 +42552,7 @@
         <v>1</v>
       </c>
       <c r="Y113" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z113" t="s">
         <v>1</v>
@@ -42641,7 +42638,7 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D114">
         <v>7000000</v>
@@ -42692,7 +42689,7 @@
         <v>1</v>
       </c>
       <c r="Y114" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z114" t="s">
         <v>1</v>
@@ -42778,7 +42775,7 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D115">
         <v>7000000</v>
@@ -42829,7 +42826,7 @@
         <v>1</v>
       </c>
       <c r="Y115" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z115" t="s">
         <v>1</v>
@@ -42915,7 +42912,7 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D116">
         <v>7000000</v>
@@ -42966,7 +42963,7 @@
         <v>1</v>
       </c>
       <c r="Y116" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z116" t="s">
         <v>1</v>
@@ -43052,7 +43049,7 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D117">
         <v>7000000</v>
@@ -43103,7 +43100,7 @@
         <v>1</v>
       </c>
       <c r="Y117" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z117" t="s">
         <v>1</v>
@@ -43189,7 +43186,7 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D118">
         <v>7000000</v>
@@ -43240,7 +43237,7 @@
         <v>1</v>
       </c>
       <c r="Y118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z118" t="s">
         <v>1</v>
@@ -43326,7 +43323,7 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D119">
         <v>7000000</v>
@@ -43377,7 +43374,7 @@
         <v>1</v>
       </c>
       <c r="Y119" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z119" t="s">
         <v>1</v>
@@ -43463,7 +43460,7 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D120">
         <v>7000000</v>
@@ -43514,7 +43511,7 @@
         <v>1</v>
       </c>
       <c r="Y120" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z120" t="s">
         <v>1</v>
@@ -43606,7 +43603,7 @@
         <v>7000000</v>
       </c>
       <c r="E121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I121" t="s">
         <v>272</v>
@@ -43651,7 +43648,7 @@
         <v>1</v>
       </c>
       <c r="Y121" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z121" t="s">
         <v>1</v>
@@ -43788,7 +43785,7 @@
         <v>1</v>
       </c>
       <c r="Y122" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z122" t="s">
         <v>1</v>
@@ -43925,7 +43922,7 @@
         <v>1</v>
       </c>
       <c r="Y123" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z123" t="s">
         <v>1</v>
@@ -44062,7 +44059,7 @@
         <v>1</v>
       </c>
       <c r="Y124" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z124" t="s">
         <v>1</v>
@@ -44199,7 +44196,7 @@
         <v>1</v>
       </c>
       <c r="Y125" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z125" t="s">
         <v>1</v>
@@ -44336,7 +44333,7 @@
         <v>1</v>
       </c>
       <c r="Y126" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z126" t="s">
         <v>1</v>
@@ -44473,7 +44470,7 @@
         <v>1</v>
       </c>
       <c r="Y127" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z127" t="s">
         <v>1</v>
@@ -44610,7 +44607,7 @@
         <v>1</v>
       </c>
       <c r="Y128" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z128" t="s">
         <v>1</v>
@@ -44747,7 +44744,7 @@
         <v>1</v>
       </c>
       <c r="Y129" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z129" t="s">
         <v>1</v>
@@ -44884,7 +44881,7 @@
         <v>1</v>
       </c>
       <c r="Y130" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z130" t="s">
         <v>1</v>
@@ -45021,7 +45018,7 @@
         <v>1</v>
       </c>
       <c r="Y131" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z131" t="s">
         <v>1</v>
@@ -45158,7 +45155,7 @@
         <v>1</v>
       </c>
       <c r="Y132" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z132" t="s">
         <v>1</v>
@@ -45295,7 +45292,7 @@
         <v>1</v>
       </c>
       <c r="Y133" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z133" t="s">
         <v>1</v>
@@ -45432,7 +45429,7 @@
         <v>1</v>
       </c>
       <c r="Y134" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z134" t="s">
         <v>1</v>
@@ -45569,7 +45566,7 @@
         <v>1</v>
       </c>
       <c r="Y135" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z135" t="s">
         <v>1</v>
@@ -45706,7 +45703,7 @@
         <v>1</v>
       </c>
       <c r="Y136" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z136" t="s">
         <v>1</v>
@@ -45843,7 +45840,7 @@
         <v>1</v>
       </c>
       <c r="Y137" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z137" t="s">
         <v>1</v>
@@ -45980,7 +45977,7 @@
         <v>1</v>
       </c>
       <c r="Y138" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z138" t="s">
         <v>1</v>
@@ -46117,7 +46114,7 @@
         <v>1</v>
       </c>
       <c r="Y139" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z139" t="s">
         <v>1</v>
@@ -46254,7 +46251,7 @@
         <v>1</v>
       </c>
       <c r="Y140" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z140" t="s">
         <v>1</v>
@@ -46391,7 +46388,7 @@
         <v>1</v>
       </c>
       <c r="Y141" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z141" t="s">
         <v>1</v>
@@ -46528,7 +46525,7 @@
         <v>1</v>
       </c>
       <c r="Y142" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z142" t="s">
         <v>1</v>
@@ -46665,7 +46662,7 @@
         <v>1</v>
       </c>
       <c r="Y143" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z143" t="s">
         <v>1</v>
@@ -46802,7 +46799,7 @@
         <v>1</v>
       </c>
       <c r="Y144" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z144" t="s">
         <v>1</v>
@@ -46939,7 +46936,7 @@
         <v>1</v>
       </c>
       <c r="Y145" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z145" t="s">
         <v>1</v>
@@ -47076,7 +47073,7 @@
         <v>1</v>
       </c>
       <c r="Y146" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z146" t="s">
         <v>1</v>
@@ -47213,7 +47210,7 @@
         <v>1</v>
       </c>
       <c r="Y147" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z147" t="s">
         <v>1</v>
@@ -47350,7 +47347,7 @@
         <v>1</v>
       </c>
       <c r="Y148" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z148" t="s">
         <v>1</v>
@@ -47487,7 +47484,7 @@
         <v>1</v>
       </c>
       <c r="Y149" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z149" t="s">
         <v>1</v>
@@ -47624,7 +47621,7 @@
         <v>1</v>
       </c>
       <c r="Y150" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z150" t="s">
         <v>1</v>
@@ -47761,7 +47758,7 @@
         <v>1</v>
       </c>
       <c r="Y151" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z151" t="s">
         <v>1</v>
@@ -47898,7 +47895,7 @@
         <v>1</v>
       </c>
       <c r="Y152" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z152" t="s">
         <v>1</v>
@@ -48035,7 +48032,7 @@
         <v>1</v>
       </c>
       <c r="Y153" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z153" t="s">
         <v>1</v>
@@ -48172,7 +48169,7 @@
         <v>1</v>
       </c>
       <c r="Y154" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z154" t="s">
         <v>1</v>
@@ -48309,7 +48306,7 @@
         <v>1</v>
       </c>
       <c r="Y155" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z155" t="s">
         <v>1</v>
@@ -48395,7 +48392,7 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D156">
         <v>7000000</v>
@@ -48446,7 +48443,7 @@
         <v>1</v>
       </c>
       <c r="Y156" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z156" t="s">
         <v>1</v>
@@ -48532,7 +48529,7 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D157">
         <v>7000000</v>
@@ -48583,7 +48580,7 @@
         <v>1</v>
       </c>
       <c r="Y157" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z157" t="s">
         <v>1</v>
@@ -48669,7 +48666,7 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D158">
         <v>7000000</v>
@@ -48720,7 +48717,7 @@
         <v>1</v>
       </c>
       <c r="Y158" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z158" t="s">
         <v>1</v>
@@ -48806,7 +48803,7 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D159">
         <v>7000000</v>
@@ -48857,7 +48854,7 @@
         <v>1</v>
       </c>
       <c r="Y159" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z159" t="s">
         <v>1</v>
@@ -48943,7 +48940,7 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D160">
         <v>7000000</v>
@@ -48994,7 +48991,7 @@
         <v>1</v>
       </c>
       <c r="Y160" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z160" t="s">
         <v>1</v>
@@ -49080,7 +49077,7 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D161">
         <v>7000000</v>
@@ -49131,7 +49128,7 @@
         <v>1</v>
       </c>
       <c r="Y161" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z161" t="s">
         <v>1</v>
@@ -49231,40 +49228,40 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B1" t="s">
         <v>225</v>
       </c>
       <c r="C1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" t="s">
         <v>415</v>
       </c>
-      <c r="D1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>416</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>417</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>418</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>419</v>
-      </c>
-      <c r="I1" t="s">
-        <v>420</v>
       </c>
       <c r="J1" t="s">
         <v>261</v>
       </c>
       <c r="K1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L1" t="s">
         <v>421</v>
-      </c>
-      <c r="L1" t="s">
-        <v>422</v>
       </c>
       <c r="M1" t="s">
         <v>357</v>
@@ -49276,7 +49273,7 @@
         <v>265</v>
       </c>
       <c r="P1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -49284,19 +49281,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D2">
         <v>100000</v>
       </c>
       <c r="F2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2" t="s">
         <v>423</v>
       </c>
-      <c r="G2" t="s">
-        <v>424</v>
-      </c>
       <c r="H2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I2">
         <v>123456</v>
@@ -49305,13 +49302,13 @@
         <v>500</v>
       </c>
       <c r="M2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O2" t="s">
         <v>314</v>
       </c>
       <c r="P2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -49319,19 +49316,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D3">
         <v>100000</v>
       </c>
       <c r="F3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I3">
         <v>123456</v>
@@ -49340,13 +49337,13 @@
         <v>500</v>
       </c>
       <c r="M3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O3" t="s">
         <v>314</v>
       </c>
       <c r="P3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -49354,19 +49351,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D4">
         <v>100000</v>
       </c>
       <c r="F4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I4">
         <v>123456</v>
@@ -49375,13 +49372,13 @@
         <v>500</v>
       </c>
       <c r="M4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O4" t="s">
         <v>314</v>
       </c>
       <c r="P4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -49389,19 +49386,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D5">
         <v>100000</v>
       </c>
       <c r="F5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I5">
         <v>123456</v>
@@ -49410,13 +49407,13 @@
         <v>500</v>
       </c>
       <c r="M5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O5" t="s">
         <v>314</v>
       </c>
       <c r="P5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -49424,19 +49421,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D6">
         <v>100000</v>
       </c>
       <c r="F6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I6">
         <v>123456</v>
@@ -49445,13 +49442,13 @@
         <v>500</v>
       </c>
       <c r="M6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O6" t="s">
         <v>314</v>
       </c>
       <c r="P6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -49459,19 +49456,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D7">
         <v>100000</v>
       </c>
       <c r="F7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G7" t="s">
         <v>423</v>
       </c>
-      <c r="G7" t="s">
-        <v>424</v>
-      </c>
       <c r="H7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I7">
         <v>123456</v>
@@ -49480,13 +49477,13 @@
         <v>500</v>
       </c>
       <c r="M7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O7" t="s">
         <v>314</v>
       </c>
       <c r="P7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -49494,19 +49491,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D8">
         <v>100000</v>
       </c>
       <c r="F8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I8">
         <v>123456</v>
@@ -49515,13 +49512,13 @@
         <v>500</v>
       </c>
       <c r="M8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O8" t="s">
         <v>314</v>
       </c>
       <c r="P8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -49529,19 +49526,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9">
         <v>100000</v>
       </c>
       <c r="F9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I9">
         <v>123456</v>
@@ -49550,13 +49547,13 @@
         <v>500</v>
       </c>
       <c r="M9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O9" t="s">
         <v>314</v>
       </c>
       <c r="P9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -49564,19 +49561,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D10">
         <v>100000</v>
       </c>
       <c r="F10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I10">
         <v>123456</v>
@@ -49585,13 +49582,13 @@
         <v>500</v>
       </c>
       <c r="M10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O10" t="s">
         <v>314</v>
       </c>
       <c r="P10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -49599,19 +49596,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D11">
         <v>100000</v>
       </c>
       <c r="F11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I11">
         <v>123456</v>
@@ -49620,13 +49617,13 @@
         <v>500</v>
       </c>
       <c r="M11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O11" t="s">
         <v>314</v>
       </c>
       <c r="P11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -49634,19 +49631,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D12">
         <v>100000</v>
       </c>
       <c r="F12" t="s">
+        <v>422</v>
+      </c>
+      <c r="G12" t="s">
         <v>423</v>
       </c>
-      <c r="G12" t="s">
-        <v>424</v>
-      </c>
       <c r="H12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I12">
         <v>123456</v>
@@ -49655,13 +49652,13 @@
         <v>500</v>
       </c>
       <c r="M12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O12" t="s">
         <v>314</v>
       </c>
       <c r="P12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -49669,19 +49666,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D13">
         <v>100000</v>
       </c>
       <c r="F13" t="s">
+        <v>422</v>
+      </c>
+      <c r="G13" t="s">
         <v>423</v>
       </c>
-      <c r="G13" t="s">
-        <v>424</v>
-      </c>
       <c r="H13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I13">
         <v>123456</v>
@@ -49690,13 +49687,13 @@
         <v>500</v>
       </c>
       <c r="M13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O13" t="s">
         <v>314</v>
       </c>
       <c r="P13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -49704,19 +49701,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D14">
         <v>100000</v>
       </c>
       <c r="F14" t="s">
+        <v>422</v>
+      </c>
+      <c r="G14" t="s">
         <v>423</v>
       </c>
-      <c r="G14" t="s">
-        <v>424</v>
-      </c>
       <c r="H14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I14">
         <v>123456</v>
@@ -49725,13 +49722,13 @@
         <v>500</v>
       </c>
       <c r="M14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O14" t="s">
         <v>314</v>
       </c>
       <c r="P14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -49739,19 +49736,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D15">
         <v>100000</v>
       </c>
       <c r="F15" t="s">
+        <v>422</v>
+      </c>
+      <c r="G15" t="s">
         <v>423</v>
       </c>
-      <c r="G15" t="s">
-        <v>424</v>
-      </c>
       <c r="H15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I15">
         <v>123456</v>
@@ -49760,13 +49757,13 @@
         <v>334</v>
       </c>
       <c r="M15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O15" t="s">
         <v>314</v>
       </c>
       <c r="P15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -49774,19 +49771,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D16">
         <v>100000</v>
       </c>
       <c r="F16" t="s">
+        <v>422</v>
+      </c>
+      <c r="G16" t="s">
         <v>423</v>
       </c>
-      <c r="G16" t="s">
-        <v>424</v>
-      </c>
       <c r="H16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I16">
         <v>123456</v>
@@ -49795,13 +49792,13 @@
         <v>500</v>
       </c>
       <c r="M16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O16" t="s">
         <v>314</v>
       </c>
       <c r="P16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -49809,19 +49806,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D17">
         <v>100000</v>
       </c>
       <c r="F17" t="s">
+        <v>422</v>
+      </c>
+      <c r="G17" t="s">
         <v>423</v>
       </c>
-      <c r="G17" t="s">
-        <v>424</v>
-      </c>
       <c r="H17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I17">
         <v>123456</v>
@@ -49830,13 +49827,13 @@
         <v>5000</v>
       </c>
       <c r="M17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O17" t="s">
         <v>314</v>
       </c>
       <c r="P17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -49844,19 +49841,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D18">
         <v>100000</v>
       </c>
       <c r="F18" t="s">
+        <v>422</v>
+      </c>
+      <c r="G18" t="s">
         <v>423</v>
       </c>
-      <c r="G18" t="s">
-        <v>424</v>
-      </c>
       <c r="H18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I18">
         <v>123456</v>
@@ -49865,13 +49862,13 @@
         <v>7500</v>
       </c>
       <c r="M18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O18" t="s">
         <v>314</v>
       </c>
       <c r="P18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -49879,19 +49876,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D19">
         <v>100000</v>
       </c>
       <c r="F19" t="s">
+        <v>422</v>
+      </c>
+      <c r="G19" t="s">
         <v>423</v>
       </c>
-      <c r="G19" t="s">
-        <v>424</v>
-      </c>
       <c r="H19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I19">
         <v>123456</v>
@@ -49900,13 +49897,13 @@
         <v>10000</v>
       </c>
       <c r="M19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O19" t="s">
         <v>314</v>
       </c>
       <c r="P19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -49914,19 +49911,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D20">
         <v>100000</v>
       </c>
       <c r="F20" t="s">
+        <v>422</v>
+      </c>
+      <c r="G20" t="s">
         <v>423</v>
       </c>
-      <c r="G20" t="s">
-        <v>424</v>
-      </c>
       <c r="H20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I20">
         <v>123456</v>
@@ -49935,13 +49932,13 @@
         <v>15000</v>
       </c>
       <c r="M20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O20" t="s">
         <v>314</v>
       </c>
       <c r="P20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -49949,19 +49946,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D21">
         <v>100000</v>
       </c>
       <c r="F21" t="s">
+        <v>422</v>
+      </c>
+      <c r="G21" t="s">
         <v>423</v>
       </c>
-      <c r="G21" t="s">
-        <v>424</v>
-      </c>
       <c r="H21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I21">
         <v>123456</v>
@@ -49970,13 +49967,13 @@
         <v>20000</v>
       </c>
       <c r="M21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O21" t="s">
         <v>314</v>
       </c>
       <c r="P21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -49984,19 +49981,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D22">
         <v>100000</v>
       </c>
       <c r="F22" t="s">
+        <v>422</v>
+      </c>
+      <c r="G22" t="s">
         <v>423</v>
       </c>
-      <c r="G22" t="s">
-        <v>424</v>
-      </c>
       <c r="H22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I22">
         <v>123456</v>
@@ -50005,13 +50002,13 @@
         <v>40000</v>
       </c>
       <c r="M22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O22" t="s">
         <v>314</v>
       </c>
       <c r="P22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -50019,19 +50016,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D23">
         <v>100000</v>
       </c>
       <c r="F23" t="s">
+        <v>422</v>
+      </c>
+      <c r="G23" t="s">
         <v>423</v>
       </c>
-      <c r="G23" t="s">
-        <v>424</v>
-      </c>
       <c r="H23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I23">
         <v>123456</v>
@@ -50040,13 +50037,13 @@
         <v>80000</v>
       </c>
       <c r="M23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O23" t="s">
         <v>314</v>
       </c>
       <c r="P23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -50054,19 +50051,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D24">
         <v>100000</v>
       </c>
       <c r="F24" t="s">
+        <v>422</v>
+      </c>
+      <c r="G24" t="s">
         <v>423</v>
       </c>
-      <c r="G24" t="s">
-        <v>424</v>
-      </c>
       <c r="H24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I24">
         <v>123456</v>
@@ -50075,13 +50072,13 @@
         <v>100000</v>
       </c>
       <c r="M24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O24" t="s">
         <v>314</v>
       </c>
       <c r="P24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -50089,19 +50086,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D25">
         <v>100000</v>
       </c>
       <c r="F25" t="s">
+        <v>422</v>
+      </c>
+      <c r="G25" t="s">
         <v>423</v>
       </c>
-      <c r="G25" t="s">
-        <v>424</v>
-      </c>
       <c r="H25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I25">
         <v>123456</v>
@@ -50110,13 +50107,13 @@
         <v>500</v>
       </c>
       <c r="M25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O25" t="s">
         <v>314</v>
       </c>
       <c r="P25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -50130,13 +50127,13 @@
         <v>100000</v>
       </c>
       <c r="F26" t="s">
+        <v>422</v>
+      </c>
+      <c r="G26" t="s">
         <v>423</v>
       </c>
-      <c r="G26" t="s">
-        <v>424</v>
-      </c>
       <c r="H26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I26">
         <v>123456</v>
@@ -50145,13 +50142,13 @@
         <v>500</v>
       </c>
       <c r="M26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O26" t="s">
         <v>314</v>
       </c>
       <c r="P26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -50165,13 +50162,13 @@
         <v>100000</v>
       </c>
       <c r="F27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G27" t="s">
         <v>423</v>
       </c>
-      <c r="G27" t="s">
-        <v>424</v>
-      </c>
       <c r="H27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I27">
         <v>123456</v>
@@ -50180,13 +50177,13 @@
         <v>500</v>
       </c>
       <c r="M27" t="s">
+        <v>424</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
         <v>425</v>
-      </c>
-      <c r="O27" t="s">
-        <v>1</v>
-      </c>
-      <c r="P27" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -50194,19 +50191,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D28">
         <v>100000</v>
       </c>
       <c r="F28" t="s">
+        <v>422</v>
+      </c>
+      <c r="G28" t="s">
         <v>423</v>
       </c>
-      <c r="G28" t="s">
-        <v>424</v>
-      </c>
       <c r="H28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I28">
         <v>123456</v>
@@ -50215,13 +50212,13 @@
         <v>500</v>
       </c>
       <c r="M28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O28" t="s">
         <v>314</v>
       </c>
       <c r="P28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -50609,6 +50606,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100974990A4B7481540AD2827693D2B4677" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29dc9a2c723eb601f8a43bd90399fbaa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="39c968c6-d81e-4a40-af5e-103bfa8ea621" xmlns:ns3="16e03651-acd4-40f0-82ea-ba55e12251a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9dea1e42ffc2c62d22e8c39d3144f8a7" ns2:_="" ns3:_="">
     <xsd:import namespace="39c968c6-d81e-4a40-af5e-103bfa8ea621"/>
@@ -50857,15 +50863,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -50878,6 +50875,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{488A6D9C-A748-45FA-846F-A9AD5EC1A9F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF06F155-6F1A-4F06-A273-A2279113E9CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50896,14 +50901,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{488A6D9C-A748-45FA-846F-A9AD5EC1A9F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DE6B354-43A9-4490-9EF5-3F7471DCEA9A}">
   <ds:schemaRefs>

--- a/src/NIMBIS.xlsx
+++ b/src/NIMBIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SandhiyaM\Documents\GitHub\qa-automation-nimbus\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2395DD-D140-4702-B31A-96E72E684C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7722BD81-568D-4423-8E14-DB76F4FFECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{A48C591E-A447-324F-80BA-5B973C426F33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23016" windowHeight="11232" firstSheet="3" activeTab="5" xr2:uid="{A48C591E-A447-324F-80BA-5B973C426F33}"/>
   </bookViews>
   <sheets>
     <sheet name=" Client Test cases" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Cyber Insurance Test Cases" sheetId="7" r:id="rId3"/>
     <sheet name="LoginDetails" sheetId="5" r:id="rId4"/>
     <sheet name="Content Test Cases" sheetId="9" r:id="rId5"/>
-    <sheet name="Assest Specified Test Cases" sheetId="10" r:id="rId6"/>
-    <sheet name="Contents" sheetId="4" state="hidden" r:id="rId7"/>
+    <sheet name="Caravan Test Cases" sheetId="11" r:id="rId6"/>
+    <sheet name="Assest Specified Test Cases" sheetId="10" r:id="rId7"/>
+    <sheet name="Contents" sheetId="4" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="AssetsSpecified">#REF!</definedName>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11375" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11539" uniqueCount="471">
   <si>
     <t>ITC check consent</t>
   </si>
@@ -1387,6 +1388,94 @@
   <si>
     <t>Limited Cover (excl. theft)</t>
   </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Caravan Value</t>
+  </si>
+  <si>
+    <t>Insured Values</t>
+  </si>
+  <si>
+    <t>Caravan Sum Insured</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Registeration Number</t>
+  </si>
+  <si>
+    <t>Cover Options</t>
+  </si>
+  <si>
+    <t>Vehicle Liability</t>
+  </si>
+  <si>
+    <t>Class of Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Type of cover </t>
+  </si>
+  <si>
+    <t>Sasria Class</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>sum insured</t>
+  </si>
+  <si>
+    <t>Number of Caravan claims in the last 0 - 12 months, excluding glass damage</t>
+  </si>
+  <si>
+    <t>Number of Caravan claims in the last 25 - 36 months, excluding glass damage</t>
+  </si>
+  <si>
+    <t>Number of Caravan claims in the last 13 - 24 months, excluding glass damage</t>
+  </si>
+  <si>
+    <t>Type of cover</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>Personal use</t>
+  </si>
+  <si>
+    <t>comprehensive</t>
+  </si>
+  <si>
+    <t>Caravan value</t>
+  </si>
+  <si>
+    <t>Caravan sum insured</t>
+  </si>
+  <si>
+    <t>Vehicle liability</t>
+  </si>
+  <si>
+    <t>Usgae</t>
+  </si>
+  <si>
+    <t>contents</t>
+  </si>
 </sst>
 </file>
 
@@ -1479,7 +1568,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
@@ -1487,6 +1576,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="8" builtinId="3"/>
@@ -27101,13 +27193,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3695A1B5-30DE-4652-A92D-76AA38C7B0EE}">
   <dimension ref="A1:BR161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70">
@@ -49217,6 +49310,1059 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A337AF85-72AA-4945-AE6E-FA537AC7F4C8}">
+  <dimension ref="A1:AB18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J1" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1" t="s">
+        <v>450</v>
+      </c>
+      <c r="L1" t="s">
+        <v>451</v>
+      </c>
+      <c r="M1" t="s">
+        <v>421</v>
+      </c>
+      <c r="N1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O1" t="s">
+        <v>452</v>
+      </c>
+      <c r="P1" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>454</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="S1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U1" t="s">
+        <v>456</v>
+      </c>
+      <c r="V1" t="s">
+        <v>266</v>
+      </c>
+      <c r="W1" t="s">
+        <v>457</v>
+      </c>
+      <c r="X1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2">
+        <v>1000000</v>
+      </c>
+      <c r="F2">
+        <v>1000000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I2">
+        <v>2002</v>
+      </c>
+      <c r="J2">
+        <v>245</v>
+      </c>
+      <c r="K2" t="s">
+        <v>463</v>
+      </c>
+      <c r="L2">
+        <v>123456</v>
+      </c>
+      <c r="P2" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>464</v>
+      </c>
+      <c r="R2" t="s">
+        <v>465</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1000</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2">
+        <v>2</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3">
+        <v>1000000</v>
+      </c>
+      <c r="F3">
+        <v>1000000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I3">
+        <v>2002</v>
+      </c>
+      <c r="J3">
+        <v>245</v>
+      </c>
+      <c r="K3" t="s">
+        <v>463</v>
+      </c>
+      <c r="L3">
+        <v>123456</v>
+      </c>
+      <c r="P3" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>464</v>
+      </c>
+      <c r="R3" t="s">
+        <v>465</v>
+      </c>
+      <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1000</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4">
+        <v>1000000</v>
+      </c>
+      <c r="F4">
+        <v>1000000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>423</v>
+      </c>
+      <c r="I4">
+        <v>2002</v>
+      </c>
+      <c r="J4">
+        <v>245</v>
+      </c>
+      <c r="K4" t="s">
+        <v>463</v>
+      </c>
+      <c r="L4">
+        <v>123456</v>
+      </c>
+      <c r="P4" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>464</v>
+      </c>
+      <c r="R4" t="s">
+        <v>465</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1000</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D5">
+        <v>1000000</v>
+      </c>
+      <c r="F5">
+        <v>1000000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>423</v>
+      </c>
+      <c r="I5">
+        <v>2002</v>
+      </c>
+      <c r="J5">
+        <v>245</v>
+      </c>
+      <c r="K5" t="s">
+        <v>463</v>
+      </c>
+      <c r="L5">
+        <v>123456</v>
+      </c>
+      <c r="P5" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>464</v>
+      </c>
+      <c r="R5" t="s">
+        <v>465</v>
+      </c>
+      <c r="T5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1000</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6">
+        <v>1000000</v>
+      </c>
+      <c r="F6">
+        <v>1000000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>423</v>
+      </c>
+      <c r="I6">
+        <v>2002</v>
+      </c>
+      <c r="J6">
+        <v>245</v>
+      </c>
+      <c r="K6" t="s">
+        <v>463</v>
+      </c>
+      <c r="L6">
+        <v>123456</v>
+      </c>
+      <c r="P6" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>464</v>
+      </c>
+      <c r="R6" t="s">
+        <v>465</v>
+      </c>
+      <c r="T6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1000</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D7">
+        <v>1000000</v>
+      </c>
+      <c r="F7">
+        <v>1000000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>423</v>
+      </c>
+      <c r="I7">
+        <v>2002</v>
+      </c>
+      <c r="J7">
+        <v>245</v>
+      </c>
+      <c r="K7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L7">
+        <v>123456</v>
+      </c>
+      <c r="P7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>464</v>
+      </c>
+      <c r="R7" t="s">
+        <v>465</v>
+      </c>
+      <c r="T7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1000</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8">
+        <v>1000000</v>
+      </c>
+      <c r="F8">
+        <v>1000000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>423</v>
+      </c>
+      <c r="I8">
+        <v>2002</v>
+      </c>
+      <c r="J8">
+        <v>245</v>
+      </c>
+      <c r="K8" t="s">
+        <v>463</v>
+      </c>
+      <c r="L8">
+        <v>123456</v>
+      </c>
+      <c r="P8" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>464</v>
+      </c>
+      <c r="R8" t="s">
+        <v>465</v>
+      </c>
+      <c r="T8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1000</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D9">
+        <v>1000000</v>
+      </c>
+      <c r="F9">
+        <v>1000000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>423</v>
+      </c>
+      <c r="I9">
+        <v>2002</v>
+      </c>
+      <c r="J9">
+        <v>245</v>
+      </c>
+      <c r="K9" t="s">
+        <v>463</v>
+      </c>
+      <c r="L9">
+        <v>123456</v>
+      </c>
+      <c r="P9" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>464</v>
+      </c>
+      <c r="R9" t="s">
+        <v>465</v>
+      </c>
+      <c r="T9" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1000</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>450</v>
+      </c>
+      <c r="D10">
+        <v>1000000</v>
+      </c>
+      <c r="F10">
+        <v>1000000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>423</v>
+      </c>
+      <c r="I10">
+        <v>2002</v>
+      </c>
+      <c r="J10">
+        <v>245</v>
+      </c>
+      <c r="K10" t="s">
+        <v>463</v>
+      </c>
+      <c r="L10">
+        <v>123456</v>
+      </c>
+      <c r="P10" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>464</v>
+      </c>
+      <c r="R10" t="s">
+        <v>465</v>
+      </c>
+      <c r="T10" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1000</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D11">
+        <v>1000000</v>
+      </c>
+      <c r="F11">
+        <v>1000000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>423</v>
+      </c>
+      <c r="I11">
+        <v>2002</v>
+      </c>
+      <c r="J11">
+        <v>245</v>
+      </c>
+      <c r="K11" t="s">
+        <v>463</v>
+      </c>
+      <c r="L11">
+        <v>123456</v>
+      </c>
+      <c r="P11" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>464</v>
+      </c>
+      <c r="R11" t="s">
+        <v>465</v>
+      </c>
+      <c r="T11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1000</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D12">
+        <v>1000000</v>
+      </c>
+      <c r="F12">
+        <v>1000000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>423</v>
+      </c>
+      <c r="I12">
+        <v>2002</v>
+      </c>
+      <c r="J12">
+        <v>245</v>
+      </c>
+      <c r="K12" t="s">
+        <v>463</v>
+      </c>
+      <c r="L12">
+        <v>123456</v>
+      </c>
+      <c r="P12" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>464</v>
+      </c>
+      <c r="R12" t="s">
+        <v>465</v>
+      </c>
+      <c r="T12" t="s">
+        <v>49</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1000</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D13">
+        <v>1000000</v>
+      </c>
+      <c r="F13">
+        <v>1000000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>423</v>
+      </c>
+      <c r="I13">
+        <v>2002</v>
+      </c>
+      <c r="J13">
+        <v>245</v>
+      </c>
+      <c r="K13" t="s">
+        <v>463</v>
+      </c>
+      <c r="L13">
+        <v>123456</v>
+      </c>
+      <c r="P13" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>464</v>
+      </c>
+      <c r="R13" t="s">
+        <v>465</v>
+      </c>
+      <c r="T13" t="s">
+        <v>49</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1000</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>470</v>
+      </c>
+      <c r="D14">
+        <v>1000000</v>
+      </c>
+      <c r="F14">
+        <v>1000000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>423</v>
+      </c>
+      <c r="I14">
+        <v>2002</v>
+      </c>
+      <c r="J14">
+        <v>245</v>
+      </c>
+      <c r="K14" t="s">
+        <v>463</v>
+      </c>
+      <c r="L14">
+        <v>123456</v>
+      </c>
+      <c r="P14" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>464</v>
+      </c>
+      <c r="R14" t="s">
+        <v>465</v>
+      </c>
+      <c r="T14" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1000</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>470</v>
+      </c>
+      <c r="D15">
+        <v>1000000</v>
+      </c>
+      <c r="F15">
+        <v>1000000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>423</v>
+      </c>
+      <c r="I15">
+        <v>2002</v>
+      </c>
+      <c r="J15">
+        <v>245</v>
+      </c>
+      <c r="K15" t="s">
+        <v>463</v>
+      </c>
+      <c r="L15">
+        <v>123456</v>
+      </c>
+      <c r="P15" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>464</v>
+      </c>
+      <c r="R15" t="s">
+        <v>465</v>
+      </c>
+      <c r="T15" t="s">
+        <v>49</v>
+      </c>
+      <c r="W15" t="s">
+        <v>314</v>
+      </c>
+      <c r="X15">
+        <v>1000</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D16">
+        <v>1000000</v>
+      </c>
+      <c r="F16">
+        <v>1000000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>423</v>
+      </c>
+      <c r="I16">
+        <v>2002</v>
+      </c>
+      <c r="J16">
+        <v>245</v>
+      </c>
+      <c r="K16" t="s">
+        <v>463</v>
+      </c>
+      <c r="L16">
+        <v>123456</v>
+      </c>
+      <c r="P16" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>464</v>
+      </c>
+      <c r="R16" t="s">
+        <v>465</v>
+      </c>
+      <c r="T16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1000</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>460</v>
+      </c>
+      <c r="D17">
+        <v>1000000</v>
+      </c>
+      <c r="F17">
+        <v>1000000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>423</v>
+      </c>
+      <c r="I17">
+        <v>2002</v>
+      </c>
+      <c r="J17">
+        <v>245</v>
+      </c>
+      <c r="K17" t="s">
+        <v>463</v>
+      </c>
+      <c r="L17">
+        <v>123456</v>
+      </c>
+      <c r="P17" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>464</v>
+      </c>
+      <c r="R17" t="s">
+        <v>465</v>
+      </c>
+      <c r="T17" t="s">
+        <v>49</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1000</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>461</v>
+      </c>
+      <c r="D18">
+        <v>1000000</v>
+      </c>
+      <c r="F18">
+        <v>1000000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>423</v>
+      </c>
+      <c r="I18">
+        <v>2002</v>
+      </c>
+      <c r="J18">
+        <v>245</v>
+      </c>
+      <c r="K18" t="s">
+        <v>463</v>
+      </c>
+      <c r="L18">
+        <v>123456</v>
+      </c>
+      <c r="P18" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>464</v>
+      </c>
+      <c r="R18" t="s">
+        <v>465</v>
+      </c>
+      <c r="T18" t="s">
+        <v>49</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1000</v>
+      </c>
+      <c r="Z18">
+        <v>2</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59041EA9-8709-4AB5-8382-8D75AFDF5A6B}">
   <dimension ref="A1:P28"/>
   <sheetViews>
@@ -50226,7 +51372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1D0593-06F1-1341-B518-B1BD152C56B0}">
   <dimension ref="A2:A73"/>
   <sheetViews>

--- a/src/NIMBIS.xlsx
+++ b/src/NIMBIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SandhiyaM\Documents\GitHub\qa-automation-nimbus\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7722BD81-568D-4423-8E14-DB76F4FFECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F88D99-F5E5-4526-B7E8-42D95EE837B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23016" windowHeight="11232" firstSheet="3" activeTab="5" xr2:uid="{A48C591E-A447-324F-80BA-5B973C426F33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23016" windowHeight="11232" firstSheet="3" activeTab="7" xr2:uid="{A48C591E-A447-324F-80BA-5B973C426F33}"/>
   </bookViews>
   <sheets>
     <sheet name=" Client Test cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Content Test Cases" sheetId="9" r:id="rId5"/>
     <sheet name="Caravan Test Cases" sheetId="11" r:id="rId6"/>
     <sheet name="Assest Specified Test Cases" sheetId="10" r:id="rId7"/>
-    <sheet name="Contents" sheetId="4" state="hidden" r:id="rId8"/>
+    <sheet name="Trailer Test Cases" sheetId="12" r:id="rId8"/>
+    <sheet name="Contents" sheetId="4" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="AssetsSpecified">#REF!</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11539" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11810" uniqueCount="489">
   <si>
     <t>ITC check consent</t>
   </si>
@@ -1476,6 +1477,63 @@
   <si>
     <t>contents</t>
   </si>
+  <si>
+    <t>Finance Date</t>
+  </si>
+  <si>
+    <t>Finance House</t>
+  </si>
+  <si>
+    <t>Period finance</t>
+  </si>
+  <si>
+    <t>Trailer Sum Insured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration Number_x000D_
+</t>
+  </si>
+  <si>
+    <t>Address *</t>
+  </si>
+  <si>
+    <t>Number of Trailer claims in the last 12 months, excluding glass damage</t>
+  </si>
+  <si>
+    <t>Number of Trailer claims in the last 13 - 24 months, excluding glass damage</t>
+  </si>
+  <si>
+    <t>Number of Trailer claims in the last 25 - 36 months, excluding glass damage</t>
+  </si>
+  <si>
+    <t>20/07/2005</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>Motoar based on vehicle type</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>type of cover</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Registration Number</t>
+  </si>
 </sst>
 </file>
 
@@ -49313,13 +49371,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A337AF85-72AA-4945-AE6E-FA537AC7F4C8}">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="45">
       <c r="A1" t="s">
         <v>343</v>
       </c>
@@ -51373,6 +51431,1476 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09498BAA-94D9-4B80-B0FE-DE21B3D3127B}">
+  <dimension ref="A1:AE21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:31" ht="60">
+      <c r="A1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L1" t="s">
+        <v>448</v>
+      </c>
+      <c r="M1" t="s">
+        <v>449</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P1" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>476</v>
+      </c>
+      <c r="R1" t="s">
+        <v>452</v>
+      </c>
+      <c r="S1" t="s">
+        <v>453</v>
+      </c>
+      <c r="T1" t="s">
+        <v>454</v>
+      </c>
+      <c r="U1" t="s">
+        <v>462</v>
+      </c>
+      <c r="V1" t="s">
+        <v>264</v>
+      </c>
+      <c r="W1" t="s">
+        <v>265</v>
+      </c>
+      <c r="X1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>100000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>423</v>
+      </c>
+      <c r="L2">
+        <v>2001</v>
+      </c>
+      <c r="M2">
+        <v>245</v>
+      </c>
+      <c r="N2" t="s">
+        <v>481</v>
+      </c>
+      <c r="O2">
+        <v>123456</v>
+      </c>
+      <c r="S2" t="s">
+        <v>314</v>
+      </c>
+      <c r="T2" t="s">
+        <v>464</v>
+      </c>
+      <c r="U2" t="s">
+        <v>465</v>
+      </c>
+      <c r="W2" t="s">
+        <v>314</v>
+      </c>
+      <c r="X2" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1000</v>
+      </c>
+      <c r="AC2">
+        <v>5</v>
+      </c>
+      <c r="AD2">
+        <v>5</v>
+      </c>
+      <c r="AE2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>100000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>423</v>
+      </c>
+      <c r="L3">
+        <v>2001</v>
+      </c>
+      <c r="M3">
+        <v>245</v>
+      </c>
+      <c r="N3" t="s">
+        <v>481</v>
+      </c>
+      <c r="O3">
+        <v>123456</v>
+      </c>
+      <c r="S3" t="s">
+        <v>314</v>
+      </c>
+      <c r="T3" t="s">
+        <v>464</v>
+      </c>
+      <c r="U3" t="s">
+        <v>465</v>
+      </c>
+      <c r="W3" t="s">
+        <v>314</v>
+      </c>
+      <c r="X3" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1000</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
+      </c>
+      <c r="AD3">
+        <v>5</v>
+      </c>
+      <c r="AE3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>100000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L4">
+        <v>2001</v>
+      </c>
+      <c r="M4">
+        <v>245</v>
+      </c>
+      <c r="N4" t="s">
+        <v>481</v>
+      </c>
+      <c r="O4">
+        <v>123456</v>
+      </c>
+      <c r="S4" t="s">
+        <v>314</v>
+      </c>
+      <c r="T4" t="s">
+        <v>464</v>
+      </c>
+      <c r="U4" t="s">
+        <v>465</v>
+      </c>
+      <c r="W4" t="s">
+        <v>314</v>
+      </c>
+      <c r="X4" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1000</v>
+      </c>
+      <c r="AC4">
+        <v>5</v>
+      </c>
+      <c r="AD4">
+        <v>5</v>
+      </c>
+      <c r="AE4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>483</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>100000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>423</v>
+      </c>
+      <c r="L5">
+        <v>2001</v>
+      </c>
+      <c r="M5">
+        <v>245</v>
+      </c>
+      <c r="N5" t="s">
+        <v>481</v>
+      </c>
+      <c r="O5">
+        <v>123456</v>
+      </c>
+      <c r="S5" t="s">
+        <v>314</v>
+      </c>
+      <c r="T5" t="s">
+        <v>464</v>
+      </c>
+      <c r="U5" t="s">
+        <v>465</v>
+      </c>
+      <c r="W5" t="s">
+        <v>314</v>
+      </c>
+      <c r="X5" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1000</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
+      <c r="AD5">
+        <v>5</v>
+      </c>
+      <c r="AE5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" t="s">
+        <v>480</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>483</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>100000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>423</v>
+      </c>
+      <c r="L6">
+        <v>2001</v>
+      </c>
+      <c r="M6">
+        <v>245</v>
+      </c>
+      <c r="N6" t="s">
+        <v>481</v>
+      </c>
+      <c r="O6">
+        <v>123456</v>
+      </c>
+      <c r="S6" t="s">
+        <v>314</v>
+      </c>
+      <c r="T6" t="s">
+        <v>464</v>
+      </c>
+      <c r="U6" t="s">
+        <v>465</v>
+      </c>
+      <c r="W6" t="s">
+        <v>314</v>
+      </c>
+      <c r="X6" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1000</v>
+      </c>
+      <c r="AC6">
+        <v>5</v>
+      </c>
+      <c r="AD6">
+        <v>5</v>
+      </c>
+      <c r="AE6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>100000</v>
+      </c>
+      <c r="K7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L7">
+        <v>2001</v>
+      </c>
+      <c r="M7">
+        <v>245</v>
+      </c>
+      <c r="N7" t="s">
+        <v>481</v>
+      </c>
+      <c r="O7">
+        <v>123456</v>
+      </c>
+      <c r="S7" t="s">
+        <v>314</v>
+      </c>
+      <c r="T7" t="s">
+        <v>464</v>
+      </c>
+      <c r="U7" t="s">
+        <v>465</v>
+      </c>
+      <c r="W7" t="s">
+        <v>314</v>
+      </c>
+      <c r="X7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1000</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AD7">
+        <v>5</v>
+      </c>
+      <c r="AE7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" t="s">
+        <v>480</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>100000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>423</v>
+      </c>
+      <c r="L8">
+        <v>2001</v>
+      </c>
+      <c r="M8">
+        <v>245</v>
+      </c>
+      <c r="N8" t="s">
+        <v>481</v>
+      </c>
+      <c r="O8">
+        <v>123456</v>
+      </c>
+      <c r="S8" t="s">
+        <v>314</v>
+      </c>
+      <c r="T8" t="s">
+        <v>464</v>
+      </c>
+      <c r="U8" t="s">
+        <v>465</v>
+      </c>
+      <c r="W8" t="s">
+        <v>314</v>
+      </c>
+      <c r="X8" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1000</v>
+      </c>
+      <c r="AC8">
+        <v>5</v>
+      </c>
+      <c r="AD8">
+        <v>5</v>
+      </c>
+      <c r="AE8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D9" t="s">
+        <v>480</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>483</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>100000</v>
+      </c>
+      <c r="K9" t="s">
+        <v>423</v>
+      </c>
+      <c r="L9">
+        <v>2001</v>
+      </c>
+      <c r="M9">
+        <v>245</v>
+      </c>
+      <c r="N9" t="s">
+        <v>481</v>
+      </c>
+      <c r="O9">
+        <v>123456</v>
+      </c>
+      <c r="S9" t="s">
+        <v>314</v>
+      </c>
+      <c r="T9" t="s">
+        <v>464</v>
+      </c>
+      <c r="U9" t="s">
+        <v>465</v>
+      </c>
+      <c r="W9" t="s">
+        <v>314</v>
+      </c>
+      <c r="X9" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1000</v>
+      </c>
+      <c r="AC9">
+        <v>5</v>
+      </c>
+      <c r="AD9">
+        <v>5</v>
+      </c>
+      <c r="AE9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="60">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D10" t="s">
+        <v>480</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>483</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>100000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>423</v>
+      </c>
+      <c r="L10">
+        <v>2001</v>
+      </c>
+      <c r="M10">
+        <v>245</v>
+      </c>
+      <c r="N10" t="s">
+        <v>481</v>
+      </c>
+      <c r="O10">
+        <v>123456</v>
+      </c>
+      <c r="S10" t="s">
+        <v>314</v>
+      </c>
+      <c r="T10" t="s">
+        <v>464</v>
+      </c>
+      <c r="U10" t="s">
+        <v>465</v>
+      </c>
+      <c r="W10" t="s">
+        <v>314</v>
+      </c>
+      <c r="X10" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1000</v>
+      </c>
+      <c r="AC10">
+        <v>5</v>
+      </c>
+      <c r="AD10">
+        <v>5</v>
+      </c>
+      <c r="AE10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D11" t="s">
+        <v>480</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>483</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>100000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>423</v>
+      </c>
+      <c r="L11">
+        <v>2001</v>
+      </c>
+      <c r="M11">
+        <v>245</v>
+      </c>
+      <c r="N11" t="s">
+        <v>481</v>
+      </c>
+      <c r="O11">
+        <v>123456</v>
+      </c>
+      <c r="S11" t="s">
+        <v>314</v>
+      </c>
+      <c r="T11" t="s">
+        <v>464</v>
+      </c>
+      <c r="U11" t="s">
+        <v>465</v>
+      </c>
+      <c r="W11" t="s">
+        <v>314</v>
+      </c>
+      <c r="X11" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1000</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
+      <c r="AD11">
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" t="s">
+        <v>480</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>483</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>100000</v>
+      </c>
+      <c r="K12" t="s">
+        <v>423</v>
+      </c>
+      <c r="L12">
+        <v>2001</v>
+      </c>
+      <c r="M12">
+        <v>245</v>
+      </c>
+      <c r="N12" t="s">
+        <v>481</v>
+      </c>
+      <c r="O12">
+        <v>123456</v>
+      </c>
+      <c r="S12" t="s">
+        <v>314</v>
+      </c>
+      <c r="T12" t="s">
+        <v>464</v>
+      </c>
+      <c r="U12" t="s">
+        <v>465</v>
+      </c>
+      <c r="W12" t="s">
+        <v>314</v>
+      </c>
+      <c r="X12" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1000</v>
+      </c>
+      <c r="AC12">
+        <v>5</v>
+      </c>
+      <c r="AD12">
+        <v>5</v>
+      </c>
+      <c r="AE12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>485</v>
+      </c>
+      <c r="D13" t="s">
+        <v>480</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>483</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>100000</v>
+      </c>
+      <c r="K13" t="s">
+        <v>423</v>
+      </c>
+      <c r="L13">
+        <v>2001</v>
+      </c>
+      <c r="M13">
+        <v>245</v>
+      </c>
+      <c r="N13" t="s">
+        <v>481</v>
+      </c>
+      <c r="O13">
+        <v>123456</v>
+      </c>
+      <c r="S13" t="s">
+        <v>314</v>
+      </c>
+      <c r="T13" t="s">
+        <v>464</v>
+      </c>
+      <c r="U13" t="s">
+        <v>465</v>
+      </c>
+      <c r="W13" t="s">
+        <v>314</v>
+      </c>
+      <c r="X13" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1000</v>
+      </c>
+      <c r="AC13">
+        <v>5</v>
+      </c>
+      <c r="AD13">
+        <v>5</v>
+      </c>
+      <c r="AE13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" t="s">
+        <v>480</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>483</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>100000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>423</v>
+      </c>
+      <c r="L14">
+        <v>2001</v>
+      </c>
+      <c r="M14">
+        <v>245</v>
+      </c>
+      <c r="N14" t="s">
+        <v>481</v>
+      </c>
+      <c r="O14">
+        <v>123456</v>
+      </c>
+      <c r="S14" t="s">
+        <v>314</v>
+      </c>
+      <c r="T14" t="s">
+        <v>464</v>
+      </c>
+      <c r="U14" t="s">
+        <v>465</v>
+      </c>
+      <c r="W14" t="s">
+        <v>314</v>
+      </c>
+      <c r="X14" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1000</v>
+      </c>
+      <c r="AC14">
+        <v>5</v>
+      </c>
+      <c r="AD14">
+        <v>5</v>
+      </c>
+      <c r="AE14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>486</v>
+      </c>
+      <c r="D15" t="s">
+        <v>480</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>483</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>100000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>423</v>
+      </c>
+      <c r="L15">
+        <v>2001</v>
+      </c>
+      <c r="M15">
+        <v>245</v>
+      </c>
+      <c r="N15" t="s">
+        <v>481</v>
+      </c>
+      <c r="O15">
+        <v>123456</v>
+      </c>
+      <c r="S15" t="s">
+        <v>314</v>
+      </c>
+      <c r="T15" t="s">
+        <v>464</v>
+      </c>
+      <c r="U15" t="s">
+        <v>465</v>
+      </c>
+      <c r="W15" t="s">
+        <v>314</v>
+      </c>
+      <c r="X15" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1000</v>
+      </c>
+      <c r="AC15">
+        <v>5</v>
+      </c>
+      <c r="AD15">
+        <v>5</v>
+      </c>
+      <c r="AE15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>486</v>
+      </c>
+      <c r="D16" t="s">
+        <v>480</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>483</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>100000</v>
+      </c>
+      <c r="K16" t="s">
+        <v>423</v>
+      </c>
+      <c r="L16">
+        <v>2001</v>
+      </c>
+      <c r="M16">
+        <v>245</v>
+      </c>
+      <c r="N16" t="s">
+        <v>481</v>
+      </c>
+      <c r="O16">
+        <v>123456</v>
+      </c>
+      <c r="S16" t="s">
+        <v>314</v>
+      </c>
+      <c r="T16" t="s">
+        <v>464</v>
+      </c>
+      <c r="U16" t="s">
+        <v>465</v>
+      </c>
+      <c r="W16" t="s">
+        <v>314</v>
+      </c>
+      <c r="X16" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA16">
+        <v>1000</v>
+      </c>
+      <c r="AC16">
+        <v>5</v>
+      </c>
+      <c r="AD16">
+        <v>5</v>
+      </c>
+      <c r="AE16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>472</v>
+      </c>
+      <c r="D17" t="s">
+        <v>480</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>483</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>100000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>423</v>
+      </c>
+      <c r="L17">
+        <v>2001</v>
+      </c>
+      <c r="M17">
+        <v>245</v>
+      </c>
+      <c r="N17" t="s">
+        <v>481</v>
+      </c>
+      <c r="O17">
+        <v>123456</v>
+      </c>
+      <c r="S17" t="s">
+        <v>314</v>
+      </c>
+      <c r="T17" t="s">
+        <v>464</v>
+      </c>
+      <c r="U17" t="s">
+        <v>465</v>
+      </c>
+      <c r="W17" t="s">
+        <v>314</v>
+      </c>
+      <c r="X17" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>1000</v>
+      </c>
+      <c r="AC17">
+        <v>5</v>
+      </c>
+      <c r="AD17">
+        <v>5</v>
+      </c>
+      <c r="AE17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>473</v>
+      </c>
+      <c r="D18" t="s">
+        <v>480</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>483</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>100000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>423</v>
+      </c>
+      <c r="L18">
+        <v>2001</v>
+      </c>
+      <c r="M18">
+        <v>245</v>
+      </c>
+      <c r="N18" t="s">
+        <v>481</v>
+      </c>
+      <c r="O18">
+        <v>123456</v>
+      </c>
+      <c r="S18" t="s">
+        <v>314</v>
+      </c>
+      <c r="T18" t="s">
+        <v>464</v>
+      </c>
+      <c r="U18" t="s">
+        <v>465</v>
+      </c>
+      <c r="W18" t="s">
+        <v>314</v>
+      </c>
+      <c r="X18" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1000</v>
+      </c>
+      <c r="AC18">
+        <v>5</v>
+      </c>
+      <c r="AD18">
+        <v>5</v>
+      </c>
+      <c r="AE18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>477</v>
+      </c>
+      <c r="D19" t="s">
+        <v>480</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>483</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>100000</v>
+      </c>
+      <c r="K19" t="s">
+        <v>423</v>
+      </c>
+      <c r="L19">
+        <v>2001</v>
+      </c>
+      <c r="M19">
+        <v>245</v>
+      </c>
+      <c r="N19" t="s">
+        <v>481</v>
+      </c>
+      <c r="O19">
+        <v>123456</v>
+      </c>
+      <c r="S19" t="s">
+        <v>314</v>
+      </c>
+      <c r="T19" t="s">
+        <v>464</v>
+      </c>
+      <c r="U19" t="s">
+        <v>465</v>
+      </c>
+      <c r="W19" t="s">
+        <v>314</v>
+      </c>
+      <c r="X19" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1000</v>
+      </c>
+      <c r="AC19">
+        <v>5</v>
+      </c>
+      <c r="AD19">
+        <v>5</v>
+      </c>
+      <c r="AE19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>478</v>
+      </c>
+      <c r="D20" t="s">
+        <v>480</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>483</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>100000</v>
+      </c>
+      <c r="K20" t="s">
+        <v>423</v>
+      </c>
+      <c r="L20">
+        <v>2001</v>
+      </c>
+      <c r="M20">
+        <v>245</v>
+      </c>
+      <c r="N20" t="s">
+        <v>481</v>
+      </c>
+      <c r="O20">
+        <v>123456</v>
+      </c>
+      <c r="S20" t="s">
+        <v>314</v>
+      </c>
+      <c r="T20" t="s">
+        <v>464</v>
+      </c>
+      <c r="U20" t="s">
+        <v>465</v>
+      </c>
+      <c r="W20" t="s">
+        <v>314</v>
+      </c>
+      <c r="X20" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1000</v>
+      </c>
+      <c r="AC20">
+        <v>5</v>
+      </c>
+      <c r="AD20">
+        <v>5</v>
+      </c>
+      <c r="AE20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>479</v>
+      </c>
+      <c r="D21" t="s">
+        <v>480</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>483</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>100000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>423</v>
+      </c>
+      <c r="L21">
+        <v>2001</v>
+      </c>
+      <c r="M21">
+        <v>245</v>
+      </c>
+      <c r="N21" t="s">
+        <v>481</v>
+      </c>
+      <c r="O21">
+        <v>123456</v>
+      </c>
+      <c r="S21" t="s">
+        <v>314</v>
+      </c>
+      <c r="T21" t="s">
+        <v>464</v>
+      </c>
+      <c r="U21" t="s">
+        <v>465</v>
+      </c>
+      <c r="W21" t="s">
+        <v>314</v>
+      </c>
+      <c r="X21" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1000</v>
+      </c>
+      <c r="AC21">
+        <v>5</v>
+      </c>
+      <c r="AD21">
+        <v>5</v>
+      </c>
+      <c r="AE21">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1D0593-06F1-1341-B518-B1BD152C56B0}">
   <dimension ref="A2:A73"/>
   <sheetViews>
@@ -51752,12 +53280,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="16e03651-acd4-40f0-82ea-ba55e12251a9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="39c968c6-d81e-4a40-af5e-103bfa8ea621">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52010,20 +53540,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="16e03651-acd4-40f0-82ea-ba55e12251a9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="39c968c6-d81e-4a40-af5e-103bfa8ea621">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{488A6D9C-A748-45FA-846F-A9AD5EC1A9F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DE6B354-43A9-4490-9EF5-3F7471DCEA9A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16e03651-acd4-40f0-82ea-ba55e12251a9"/>
+    <ds:schemaRef ds:uri="39c968c6-d81e-4a40-af5e-103bfa8ea621"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -52048,12 +53579,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DE6B354-43A9-4490-9EF5-3F7471DCEA9A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{488A6D9C-A748-45FA-846F-A9AD5EC1A9F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16e03651-acd4-40f0-82ea-ba55e12251a9"/>
-    <ds:schemaRef ds:uri="39c968c6-d81e-4a40-af5e-103bfa8ea621"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/NIMBIS.xlsx
+++ b/src/NIMBIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SandhiyaM\Documents\GitHub\qa-automation-nimbus\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F88D99-F5E5-4526-B7E8-42D95EE837B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECB4AC7-DB0E-48D5-8A46-7F00CF42E98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23016" windowHeight="11232" firstSheet="3" activeTab="7" xr2:uid="{A48C591E-A447-324F-80BA-5B973C426F33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23016" windowHeight="11232" firstSheet="6" activeTab="8" xr2:uid="{A48C591E-A447-324F-80BA-5B973C426F33}"/>
   </bookViews>
   <sheets>
     <sheet name=" Client Test cases" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <sheet name="Caravan Test Cases" sheetId="11" r:id="rId6"/>
     <sheet name="Assest Specified Test Cases" sheetId="10" r:id="rId7"/>
     <sheet name="Trailer Test Cases" sheetId="12" r:id="rId8"/>
-    <sheet name="Contents" sheetId="4" state="hidden" r:id="rId9"/>
+    <sheet name="NonRoad Test Cases" sheetId="13" r:id="rId9"/>
+    <sheet name="Personal Liabitity Test Cases" sheetId="14" r:id="rId10"/>
+    <sheet name="Contents" sheetId="4" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="AssetsSpecified">#REF!</definedName>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11810" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11978" uniqueCount="514">
   <si>
     <t>ITC check consent</t>
   </si>
@@ -1123,9 +1125,6 @@
     <t>Cyber insurance cover option</t>
   </si>
   <si>
-    <t>Hollard@135</t>
-  </si>
-  <si>
     <t>COVER DETAILS</t>
   </si>
   <si>
@@ -1533,6 +1532,85 @@
   <si>
     <t xml:space="preserve">
 Registration Number</t>
+  </si>
+  <si>
+    <t>Test Objective</t>
+  </si>
+  <si>
+    <t>Vehicle Type</t>
+  </si>
+  <si>
+    <t>Registered Owner</t>
+  </si>
+  <si>
+    <t>Basis of settlement</t>
+  </si>
+  <si>
+    <t>Class of use</t>
+  </si>
+  <si>
+    <t>Financed</t>
+  </si>
+  <si>
+    <t>Financial Institution </t>
+  </si>
+  <si>
+    <t>claims</t>
+  </si>
+  <si>
+    <t>Number of Non-road Vehicles claims in the last 12 months</t>
+  </si>
+  <si>
+    <t>Number of Non-road Vehicles claims in the last 25 to 36 months</t>
+  </si>
+  <si>
+    <t>Quad bike</t>
+  </si>
+  <si>
+    <t>Agreed value</t>
+  </si>
+  <si>
+    <t>Off-road motorcycle</t>
+  </si>
+  <si>
+    <t>Golf cart</t>
+  </si>
+  <si>
+    <t>Ride-on lawnmower</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Go kart</t>
+  </si>
+  <si>
+    <t>Beach buggy</t>
+  </si>
+  <si>
+    <t>Number of Non-road Vehicles claims in the last 13 to 24 months</t>
+  </si>
+  <si>
+    <t>Financial Institution</t>
+  </si>
+  <si>
+    <t>Number of Non-road Vehicles claims in the last 13 to 24 months
+Number of Non-road Vehicles claims in the last 13 to 24 months</t>
+  </si>
+  <si>
+    <t>Risk details</t>
+  </si>
+  <si>
+    <t>Extended Personal Liability</t>
+  </si>
+  <si>
+    <t>Total Sum Insured</t>
+  </si>
+  <si>
+    <t>Comprehensive</t>
+  </si>
+  <si>
+    <t>Qwsdcvnm@13</t>
   </si>
 </sst>
 </file>
@@ -4269,6 +4347,464 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDCBEB5-5DD0-41D3-994B-C953E1879851}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="29.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2">
+        <v>10000000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D3">
+        <v>10000000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D4">
+        <v>10000000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1D0593-06F1-1341-B518-B1BD152C56B0}">
+  <dimension ref="A2:A73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="152.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8891EE30-555D-499D-89F6-28DDBA243B49}">
   <dimension ref="A1:BM159"/>
@@ -27213,7 +27749,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27235,7 +27771,7 @@
         <v>342</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -27269,19 +27805,19 @@
         <v>225</v>
       </c>
       <c r="C1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D1" t="s">
         <v>227</v>
       </c>
       <c r="E1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1" t="s">
         <v>355</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>356</v>
-      </c>
-      <c r="H1" t="s">
-        <v>357</v>
       </c>
       <c r="I1" t="s">
         <v>96</v>
@@ -27296,7 +27832,7 @@
         <v>103</v>
       </c>
       <c r="M1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N1" t="s">
         <v>120</v>
@@ -27311,7 +27847,7 @@
         <v>128</v>
       </c>
       <c r="S1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T1" t="s">
         <v>250</v>
@@ -27329,112 +27865,112 @@
         <v>127</v>
       </c>
       <c r="Y1" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z1" t="s">
         <v>360</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>361</v>
       </c>
       <c r="AA1" t="s">
         <v>88</v>
       </c>
       <c r="AB1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AC1" t="s">
         <v>252</v>
       </c>
       <c r="AD1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AG1" t="s">
         <v>363</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>440</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>364</v>
       </c>
       <c r="AI1" t="s">
         <v>256</v>
       </c>
       <c r="AJ1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AK1" t="s">
         <v>365</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>366</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>367</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>368</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>369</v>
       </c>
       <c r="AO1" t="s">
         <v>111</v>
       </c>
       <c r="AP1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>370</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>371</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>372</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>373</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>374</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>375</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>376</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>377</v>
       </c>
       <c r="BB1" t="s">
         <v>87</v>
       </c>
       <c r="BC1" t="s">
+        <v>377</v>
+      </c>
+      <c r="BE1" t="s">
         <v>378</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>379</v>
       </c>
       <c r="BG1" t="s">
         <v>265</v>
       </c>
       <c r="BH1" t="s">
+        <v>379</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>380</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>381</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>382</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>383</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>384</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>385</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>386</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>387</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:70">
@@ -27493,7 +28029,7 @@
         <v>1</v>
       </c>
       <c r="Y2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z2" t="s">
         <v>1</v>
@@ -27588,7 +28124,7 @@
         <v>271</v>
       </c>
       <c r="I3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
@@ -27630,7 +28166,7 @@
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z3" t="s">
         <v>1</v>
@@ -27725,7 +28261,7 @@
         <v>271</v>
       </c>
       <c r="I4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J4" t="s">
         <v>1</v>
@@ -27767,7 +28303,7 @@
         <v>1</v>
       </c>
       <c r="Y4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z4" t="s">
         <v>1</v>
@@ -27862,7 +28398,7 @@
         <v>271</v>
       </c>
       <c r="I5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J5" t="s">
         <v>1</v>
@@ -27904,7 +28440,7 @@
         <v>1</v>
       </c>
       <c r="Y5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z5" t="s">
         <v>1</v>
@@ -27999,7 +28535,7 @@
         <v>271</v>
       </c>
       <c r="I6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J6" t="s">
         <v>1</v>
@@ -28041,7 +28577,7 @@
         <v>1</v>
       </c>
       <c r="Y6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z6" t="s">
         <v>1</v>
@@ -28136,7 +28672,7 @@
         <v>271</v>
       </c>
       <c r="I7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
@@ -28178,7 +28714,7 @@
         <v>1</v>
       </c>
       <c r="Y7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z7" t="s">
         <v>1</v>
@@ -28273,7 +28809,7 @@
         <v>271</v>
       </c>
       <c r="I8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J8" t="s">
         <v>1</v>
@@ -28315,7 +28851,7 @@
         <v>1</v>
       </c>
       <c r="Y8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z8" t="s">
         <v>1</v>
@@ -28410,7 +28946,7 @@
         <v>271</v>
       </c>
       <c r="I9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J9" t="s">
         <v>1</v>
@@ -28452,7 +28988,7 @@
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z9" t="s">
         <v>1</v>
@@ -28547,7 +29083,7 @@
         <v>271</v>
       </c>
       <c r="I10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J10" t="s">
         <v>1</v>
@@ -28589,7 +29125,7 @@
         <v>1</v>
       </c>
       <c r="Y10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z10" t="s">
         <v>1</v>
@@ -28684,7 +29220,7 @@
         <v>271</v>
       </c>
       <c r="I11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J11" t="s">
         <v>1</v>
@@ -28726,7 +29262,7 @@
         <v>1</v>
       </c>
       <c r="Y11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z11" t="s">
         <v>1</v>
@@ -28863,7 +29399,7 @@
         <v>1</v>
       </c>
       <c r="Y12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z12" t="s">
         <v>1</v>
@@ -29000,7 +29536,7 @@
         <v>1</v>
       </c>
       <c r="Y13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z13" t="s">
         <v>1</v>
@@ -29137,7 +29673,7 @@
         <v>1</v>
       </c>
       <c r="Y14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z14" t="s">
         <v>1</v>
@@ -29274,7 +29810,7 @@
         <v>1</v>
       </c>
       <c r="Y15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z15" t="s">
         <v>1</v>
@@ -29411,7 +29947,7 @@
         <v>1</v>
       </c>
       <c r="Y16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z16" t="s">
         <v>1</v>
@@ -29548,7 +30084,7 @@
         <v>1</v>
       </c>
       <c r="Y17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z17" t="s">
         <v>1</v>
@@ -29685,7 +30221,7 @@
         <v>1</v>
       </c>
       <c r="Y18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z18" t="s">
         <v>1</v>
@@ -29822,7 +30358,7 @@
         <v>1</v>
       </c>
       <c r="Y19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z19" t="s">
         <v>1</v>
@@ -29923,7 +30459,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L20" t="s">
         <v>275</v>
@@ -29959,7 +30495,7 @@
         <v>1</v>
       </c>
       <c r="Y20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z20" t="s">
         <v>1</v>
@@ -30096,7 +30632,7 @@
         <v>1</v>
       </c>
       <c r="Y21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z21" t="s">
         <v>1</v>
@@ -30233,7 +30769,7 @@
         <v>1</v>
       </c>
       <c r="Y22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z22" t="s">
         <v>1</v>
@@ -30370,7 +30906,7 @@
         <v>1</v>
       </c>
       <c r="Y23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z23" t="s">
         <v>1</v>
@@ -30507,7 +31043,7 @@
         <v>1</v>
       </c>
       <c r="Y24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z24" t="s">
         <v>1</v>
@@ -30644,7 +31180,7 @@
         <v>1</v>
       </c>
       <c r="Y25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z25" t="s">
         <v>1</v>
@@ -30781,7 +31317,7 @@
         <v>1</v>
       </c>
       <c r="Y26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z26" t="s">
         <v>1</v>
@@ -30918,7 +31454,7 @@
         <v>1</v>
       </c>
       <c r="Y27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z27" t="s">
         <v>1</v>
@@ -31055,7 +31591,7 @@
         <v>1</v>
       </c>
       <c r="Y28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z28" t="s">
         <v>1</v>
@@ -31192,7 +31728,7 @@
         <v>1</v>
       </c>
       <c r="Y29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z29" t="s">
         <v>1</v>
@@ -31329,7 +31865,7 @@
         <v>1</v>
       </c>
       <c r="Y30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z30" t="s">
         <v>1</v>
@@ -31466,7 +32002,7 @@
         <v>1</v>
       </c>
       <c r="Y31" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z31" t="s">
         <v>1</v>
@@ -31603,7 +32139,7 @@
         <v>1</v>
       </c>
       <c r="Y32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z32" t="s">
         <v>1</v>
@@ -31740,7 +32276,7 @@
         <v>1</v>
       </c>
       <c r="Y33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z33" t="s">
         <v>1</v>
@@ -31877,7 +32413,7 @@
         <v>1</v>
       </c>
       <c r="Y34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z34" t="s">
         <v>1</v>
@@ -32014,7 +32550,7 @@
         <v>1</v>
       </c>
       <c r="Y35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z35" t="s">
         <v>1</v>
@@ -32151,7 +32687,7 @@
         <v>1</v>
       </c>
       <c r="Y36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z36" t="s">
         <v>1</v>
@@ -32288,7 +32824,7 @@
         <v>1</v>
       </c>
       <c r="Y37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z37" t="s">
         <v>1</v>
@@ -32425,7 +32961,7 @@
         <v>1</v>
       </c>
       <c r="Y38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z38" t="s">
         <v>1</v>
@@ -32511,7 +33047,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D39">
         <v>7000000</v>
@@ -32562,7 +33098,7 @@
         <v>1</v>
       </c>
       <c r="Y39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z39" t="s">
         <v>1</v>
@@ -32648,7 +33184,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D40">
         <v>7000000</v>
@@ -32699,7 +33235,7 @@
         <v>1</v>
       </c>
       <c r="Y40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z40" t="s">
         <v>1</v>
@@ -32836,7 +33372,7 @@
         <v>1</v>
       </c>
       <c r="Y41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z41" t="s">
         <v>1</v>
@@ -32973,7 +33509,7 @@
         <v>1</v>
       </c>
       <c r="Y42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z42" t="s">
         <v>1</v>
@@ -33110,7 +33646,7 @@
         <v>1</v>
       </c>
       <c r="Y43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z43" t="s">
         <v>1</v>
@@ -33247,7 +33783,7 @@
         <v>1</v>
       </c>
       <c r="Y44" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z44" t="s">
         <v>1</v>
@@ -33384,7 +33920,7 @@
         <v>1</v>
       </c>
       <c r="Y45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z45" t="s">
         <v>1</v>
@@ -33521,7 +34057,7 @@
         <v>1</v>
       </c>
       <c r="Y46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z46" t="s">
         <v>1</v>
@@ -33658,7 +34194,7 @@
         <v>1</v>
       </c>
       <c r="Y47" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z47" t="s">
         <v>1</v>
@@ -33795,7 +34331,7 @@
         <v>1</v>
       </c>
       <c r="Y48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z48" t="s">
         <v>1</v>
@@ -33932,7 +34468,7 @@
         <v>1</v>
       </c>
       <c r="Y49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z49" t="s">
         <v>1</v>
@@ -34069,7 +34605,7 @@
         <v>1</v>
       </c>
       <c r="Y50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z50" t="s">
         <v>1</v>
@@ -34206,7 +34742,7 @@
         <v>1</v>
       </c>
       <c r="Y51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z51" t="s">
         <v>1</v>
@@ -34343,7 +34879,7 @@
         <v>1</v>
       </c>
       <c r="Y52" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z52" t="s">
         <v>1</v>
@@ -34480,7 +35016,7 @@
         <v>1</v>
       </c>
       <c r="Y53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z53" t="s">
         <v>1</v>
@@ -34617,7 +35153,7 @@
         <v>1</v>
       </c>
       <c r="Y54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z54" t="s">
         <v>1</v>
@@ -34754,7 +35290,7 @@
         <v>1</v>
       </c>
       <c r="Y55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z55" t="s">
         <v>1</v>
@@ -34891,7 +35427,7 @@
         <v>1</v>
       </c>
       <c r="Y56" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z56" t="s">
         <v>1</v>
@@ -35028,7 +35564,7 @@
         <v>49</v>
       </c>
       <c r="Y57" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z57" t="s">
         <v>1</v>
@@ -35165,7 +35701,7 @@
         <v>1</v>
       </c>
       <c r="Y58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z58" t="s">
         <v>1</v>
@@ -35302,7 +35838,7 @@
         <v>1</v>
       </c>
       <c r="Y59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z59" t="s">
         <v>49</v>
@@ -35439,7 +35975,7 @@
         <v>1</v>
       </c>
       <c r="Y60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z60" t="s">
         <v>1</v>
@@ -35576,7 +36112,7 @@
         <v>1</v>
       </c>
       <c r="Y61" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z61" t="s">
         <v>1</v>
@@ -35713,7 +36249,7 @@
         <v>1</v>
       </c>
       <c r="Y62" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z62" t="s">
         <v>1</v>
@@ -35850,7 +36386,7 @@
         <v>1</v>
       </c>
       <c r="Y63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z63" t="s">
         <v>1</v>
@@ -35987,7 +36523,7 @@
         <v>1</v>
       </c>
       <c r="Y64" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z64" t="s">
         <v>1</v>
@@ -36124,7 +36660,7 @@
         <v>1</v>
       </c>
       <c r="Y65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z65" t="s">
         <v>1</v>
@@ -36261,7 +36797,7 @@
         <v>1</v>
       </c>
       <c r="Y66" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z66" t="s">
         <v>1</v>
@@ -36398,7 +36934,7 @@
         <v>1</v>
       </c>
       <c r="Y67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z67" t="s">
         <v>1</v>
@@ -36535,7 +37071,7 @@
         <v>1</v>
       </c>
       <c r="Y68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z68" t="s">
         <v>1</v>
@@ -36621,7 +37157,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D69">
         <v>7000000</v>
@@ -36672,7 +37208,7 @@
         <v>1</v>
       </c>
       <c r="Y69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z69" t="s">
         <v>1</v>
@@ -36809,7 +37345,7 @@
         <v>1</v>
       </c>
       <c r="Y70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z70" t="s">
         <v>1</v>
@@ -36946,7 +37482,7 @@
         <v>1</v>
       </c>
       <c r="Y71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z71" t="s">
         <v>1</v>
@@ -37083,7 +37619,7 @@
         <v>1</v>
       </c>
       <c r="Y72" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z72" t="s">
         <v>1</v>
@@ -37220,7 +37756,7 @@
         <v>1</v>
       </c>
       <c r="Y73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z73" t="s">
         <v>1</v>
@@ -37357,7 +37893,7 @@
         <v>1</v>
       </c>
       <c r="Y74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z74" t="s">
         <v>1</v>
@@ -37494,7 +38030,7 @@
         <v>1</v>
       </c>
       <c r="Y75" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z75" t="s">
         <v>1</v>
@@ -37631,7 +38167,7 @@
         <v>1</v>
       </c>
       <c r="Y76" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z76" t="s">
         <v>1</v>
@@ -37768,7 +38304,7 @@
         <v>1</v>
       </c>
       <c r="Y77" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z77" t="s">
         <v>1</v>
@@ -37905,7 +38441,7 @@
         <v>1</v>
       </c>
       <c r="Y78" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z78" t="s">
         <v>1</v>
@@ -38042,7 +38578,7 @@
         <v>1</v>
       </c>
       <c r="Y79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z79" t="s">
         <v>1</v>
@@ -38179,7 +38715,7 @@
         <v>1</v>
       </c>
       <c r="Y80" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z80" t="s">
         <v>1</v>
@@ -38316,7 +38852,7 @@
         <v>1</v>
       </c>
       <c r="Y81" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z81" t="s">
         <v>1</v>
@@ -38453,7 +38989,7 @@
         <v>1</v>
       </c>
       <c r="Y82" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z82" t="s">
         <v>1</v>
@@ -38590,7 +39126,7 @@
         <v>1</v>
       </c>
       <c r="Y83" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z83" t="s">
         <v>1</v>
@@ -38727,7 +39263,7 @@
         <v>1</v>
       </c>
       <c r="Y84" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z84" t="s">
         <v>1</v>
@@ -38864,7 +39400,7 @@
         <v>1</v>
       </c>
       <c r="Y85" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z85" t="s">
         <v>1</v>
@@ -39001,7 +39537,7 @@
         <v>1</v>
       </c>
       <c r="Y86" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z86" t="s">
         <v>1</v>
@@ -39138,7 +39674,7 @@
         <v>1</v>
       </c>
       <c r="Y87" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z87" t="s">
         <v>1</v>
@@ -39275,7 +39811,7 @@
         <v>1</v>
       </c>
       <c r="Y88" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z88" t="s">
         <v>1</v>
@@ -39361,7 +39897,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D89">
         <v>7000000</v>
@@ -39412,7 +39948,7 @@
         <v>1</v>
       </c>
       <c r="Y89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z89" t="s">
         <v>1</v>
@@ -39549,7 +40085,7 @@
         <v>1</v>
       </c>
       <c r="Y90" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z90" t="s">
         <v>1</v>
@@ -39686,7 +40222,7 @@
         <v>1</v>
       </c>
       <c r="Y91" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z91" t="s">
         <v>1</v>
@@ -39772,7 +40308,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D92">
         <v>7000000</v>
@@ -39823,7 +40359,7 @@
         <v>1</v>
       </c>
       <c r="Y92" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z92" t="s">
         <v>1</v>
@@ -39909,7 +40445,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D93">
         <v>7000000</v>
@@ -39960,7 +40496,7 @@
         <v>1</v>
       </c>
       <c r="Y93" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z93" t="s">
         <v>1</v>
@@ -40046,7 +40582,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D94">
         <v>7000000</v>
@@ -40097,7 +40633,7 @@
         <v>1</v>
       </c>
       <c r="Y94" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z94" t="s">
         <v>1</v>
@@ -40183,7 +40719,7 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D95">
         <v>7000000</v>
@@ -40234,7 +40770,7 @@
         <v>1</v>
       </c>
       <c r="Y95" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z95" t="s">
         <v>1</v>
@@ -40320,7 +40856,7 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D96">
         <v>7000000</v>
@@ -40371,7 +40907,7 @@
         <v>1</v>
       </c>
       <c r="Y96" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z96" t="s">
         <v>1</v>
@@ -40380,7 +40916,7 @@
         <v>49</v>
       </c>
       <c r="AB96" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AD96" t="s">
         <v>314</v>
@@ -40460,7 +40996,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D97">
         <v>7000000</v>
@@ -40511,7 +41047,7 @@
         <v>1</v>
       </c>
       <c r="Y97" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z97" t="s">
         <v>1</v>
@@ -40597,7 +41133,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D98">
         <v>7000000</v>
@@ -40648,7 +41184,7 @@
         <v>1</v>
       </c>
       <c r="Y98" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Z98" t="s">
         <v>1</v>
@@ -40734,7 +41270,7 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D99">
         <v>7000000</v>
@@ -40785,7 +41321,7 @@
         <v>1</v>
       </c>
       <c r="Y99" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z99" t="s">
         <v>1</v>
@@ -40871,7 +41407,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D100">
         <v>7000000</v>
@@ -40922,7 +41458,7 @@
         <v>1</v>
       </c>
       <c r="Y100" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Z100" t="s">
         <v>1</v>
@@ -41008,7 +41544,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D101">
         <v>7000000</v>
@@ -41059,7 +41595,7 @@
         <v>1</v>
       </c>
       <c r="Y101" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Z101" t="s">
         <v>1</v>
@@ -41145,7 +41681,7 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D102">
         <v>7000000</v>
@@ -41196,7 +41732,7 @@
         <v>1</v>
       </c>
       <c r="Y102" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Z102" t="s">
         <v>1</v>
@@ -41282,7 +41818,7 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D103">
         <v>7000000</v>
@@ -41333,7 +41869,7 @@
         <v>1</v>
       </c>
       <c r="Y103" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Z103" t="s">
         <v>1</v>
@@ -41419,7 +41955,7 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D104">
         <v>7000000</v>
@@ -41470,7 +42006,7 @@
         <v>1</v>
       </c>
       <c r="Y104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Z104" t="s">
         <v>1</v>
@@ -41556,7 +42092,7 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D105">
         <v>7000000</v>
@@ -41607,7 +42143,7 @@
         <v>1</v>
       </c>
       <c r="Y105" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z105" t="s">
         <v>1</v>
@@ -41693,7 +42229,7 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D106">
         <v>7000000</v>
@@ -41744,7 +42280,7 @@
         <v>1</v>
       </c>
       <c r="Y106" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z106" t="s">
         <v>1</v>
@@ -41830,7 +42366,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D107">
         <v>7000000</v>
@@ -41881,7 +42417,7 @@
         <v>1</v>
       </c>
       <c r="Y107" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z107" t="s">
         <v>1</v>
@@ -41967,7 +42503,7 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D108">
         <v>7000000</v>
@@ -42018,7 +42554,7 @@
         <v>1</v>
       </c>
       <c r="Y108" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z108" t="s">
         <v>1</v>
@@ -42104,7 +42640,7 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D109">
         <v>7000000</v>
@@ -42155,7 +42691,7 @@
         <v>1</v>
       </c>
       <c r="Y109" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z109" t="s">
         <v>1</v>
@@ -42241,7 +42777,7 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D110">
         <v>7000000</v>
@@ -42292,7 +42828,7 @@
         <v>1</v>
       </c>
       <c r="Y110" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z110" t="s">
         <v>1</v>
@@ -42378,7 +42914,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D111">
         <v>7000000</v>
@@ -42429,7 +42965,7 @@
         <v>1</v>
       </c>
       <c r="Y111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z111" t="s">
         <v>1</v>
@@ -42515,7 +43051,7 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D112">
         <v>7000000</v>
@@ -42566,7 +43102,7 @@
         <v>1</v>
       </c>
       <c r="Y112" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z112" t="s">
         <v>1</v>
@@ -42652,7 +43188,7 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D113">
         <v>7000000</v>
@@ -42703,7 +43239,7 @@
         <v>1</v>
       </c>
       <c r="Y113" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z113" t="s">
         <v>1</v>
@@ -42789,7 +43325,7 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D114">
         <v>7000000</v>
@@ -42840,7 +43376,7 @@
         <v>1</v>
       </c>
       <c r="Y114" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z114" t="s">
         <v>1</v>
@@ -42926,7 +43462,7 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D115">
         <v>7000000</v>
@@ -42977,7 +43513,7 @@
         <v>1</v>
       </c>
       <c r="Y115" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z115" t="s">
         <v>1</v>
@@ -43063,7 +43599,7 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D116">
         <v>7000000</v>
@@ -43114,7 +43650,7 @@
         <v>1</v>
       </c>
       <c r="Y116" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z116" t="s">
         <v>1</v>
@@ -43200,7 +43736,7 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D117">
         <v>7000000</v>
@@ -43251,7 +43787,7 @@
         <v>1</v>
       </c>
       <c r="Y117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z117" t="s">
         <v>1</v>
@@ -43337,7 +43873,7 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D118">
         <v>7000000</v>
@@ -43388,7 +43924,7 @@
         <v>1</v>
       </c>
       <c r="Y118" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z118" t="s">
         <v>1</v>
@@ -43474,7 +44010,7 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D119">
         <v>7000000</v>
@@ -43525,7 +44061,7 @@
         <v>1</v>
       </c>
       <c r="Y119" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z119" t="s">
         <v>1</v>
@@ -43611,7 +44147,7 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D120">
         <v>7000000</v>
@@ -43662,7 +44198,7 @@
         <v>1</v>
       </c>
       <c r="Y120" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z120" t="s">
         <v>1</v>
@@ -43754,7 +44290,7 @@
         <v>7000000</v>
       </c>
       <c r="E121" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I121" t="s">
         <v>272</v>
@@ -43799,7 +44335,7 @@
         <v>1</v>
       </c>
       <c r="Y121" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z121" t="s">
         <v>1</v>
@@ -43936,7 +44472,7 @@
         <v>1</v>
       </c>
       <c r="Y122" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z122" t="s">
         <v>1</v>
@@ -44073,7 +44609,7 @@
         <v>1</v>
       </c>
       <c r="Y123" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z123" t="s">
         <v>1</v>
@@ -44210,7 +44746,7 @@
         <v>1</v>
       </c>
       <c r="Y124" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z124" t="s">
         <v>1</v>
@@ -44347,7 +44883,7 @@
         <v>1</v>
       </c>
       <c r="Y125" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z125" t="s">
         <v>1</v>
@@ -44484,7 +45020,7 @@
         <v>1</v>
       </c>
       <c r="Y126" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z126" t="s">
         <v>1</v>
@@ -44621,7 +45157,7 @@
         <v>1</v>
       </c>
       <c r="Y127" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z127" t="s">
         <v>1</v>
@@ -44758,7 +45294,7 @@
         <v>1</v>
       </c>
       <c r="Y128" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z128" t="s">
         <v>1</v>
@@ -44895,7 +45431,7 @@
         <v>1</v>
       </c>
       <c r="Y129" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z129" t="s">
         <v>1</v>
@@ -45032,7 +45568,7 @@
         <v>1</v>
       </c>
       <c r="Y130" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z130" t="s">
         <v>1</v>
@@ -45169,7 +45705,7 @@
         <v>1</v>
       </c>
       <c r="Y131" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z131" t="s">
         <v>1</v>
@@ -45306,7 +45842,7 @@
         <v>1</v>
       </c>
       <c r="Y132" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z132" t="s">
         <v>1</v>
@@ -45443,7 +45979,7 @@
         <v>1</v>
       </c>
       <c r="Y133" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z133" t="s">
         <v>1</v>
@@ -45580,7 +46116,7 @@
         <v>1</v>
       </c>
       <c r="Y134" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z134" t="s">
         <v>1</v>
@@ -45717,7 +46253,7 @@
         <v>1</v>
       </c>
       <c r="Y135" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z135" t="s">
         <v>1</v>
@@ -45854,7 +46390,7 @@
         <v>1</v>
       </c>
       <c r="Y136" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z136" t="s">
         <v>1</v>
@@ -45991,7 +46527,7 @@
         <v>1</v>
       </c>
       <c r="Y137" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z137" t="s">
         <v>1</v>
@@ -46128,7 +46664,7 @@
         <v>1</v>
       </c>
       <c r="Y138" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z138" t="s">
         <v>1</v>
@@ -46265,7 +46801,7 @@
         <v>1</v>
       </c>
       <c r="Y139" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z139" t="s">
         <v>1</v>
@@ -46402,7 +46938,7 @@
         <v>1</v>
       </c>
       <c r="Y140" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z140" t="s">
         <v>1</v>
@@ -46539,7 +47075,7 @@
         <v>1</v>
       </c>
       <c r="Y141" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z141" t="s">
         <v>1</v>
@@ -46676,7 +47212,7 @@
         <v>1</v>
       </c>
       <c r="Y142" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z142" t="s">
         <v>1</v>
@@ -46813,7 +47349,7 @@
         <v>1</v>
       </c>
       <c r="Y143" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z143" t="s">
         <v>1</v>
@@ -46950,7 +47486,7 @@
         <v>1</v>
       </c>
       <c r="Y144" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z144" t="s">
         <v>1</v>
@@ -47087,7 +47623,7 @@
         <v>1</v>
       </c>
       <c r="Y145" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z145" t="s">
         <v>1</v>
@@ -47224,7 +47760,7 @@
         <v>1</v>
       </c>
       <c r="Y146" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z146" t="s">
         <v>1</v>
@@ -47361,7 +47897,7 @@
         <v>1</v>
       </c>
       <c r="Y147" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z147" t="s">
         <v>1</v>
@@ -47498,7 +48034,7 @@
         <v>1</v>
       </c>
       <c r="Y148" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z148" t="s">
         <v>1</v>
@@ -47635,7 +48171,7 @@
         <v>1</v>
       </c>
       <c r="Y149" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z149" t="s">
         <v>1</v>
@@ -47772,7 +48308,7 @@
         <v>1</v>
       </c>
       <c r="Y150" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z150" t="s">
         <v>1</v>
@@ -47909,7 +48445,7 @@
         <v>1</v>
       </c>
       <c r="Y151" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z151" t="s">
         <v>1</v>
@@ -48046,7 +48582,7 @@
         <v>1</v>
       </c>
       <c r="Y152" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z152" t="s">
         <v>1</v>
@@ -48183,7 +48719,7 @@
         <v>1</v>
       </c>
       <c r="Y153" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z153" t="s">
         <v>1</v>
@@ -48320,7 +48856,7 @@
         <v>1</v>
       </c>
       <c r="Y154" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z154" t="s">
         <v>1</v>
@@ -48457,7 +48993,7 @@
         <v>1</v>
       </c>
       <c r="Y155" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z155" t="s">
         <v>1</v>
@@ -48543,7 +49079,7 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D156">
         <v>7000000</v>
@@ -48594,7 +49130,7 @@
         <v>1</v>
       </c>
       <c r="Y156" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z156" t="s">
         <v>1</v>
@@ -48680,7 +49216,7 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D157">
         <v>7000000</v>
@@ -48731,7 +49267,7 @@
         <v>1</v>
       </c>
       <c r="Y157" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z157" t="s">
         <v>1</v>
@@ -48817,7 +49353,7 @@
         <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D158">
         <v>7000000</v>
@@ -48868,7 +49404,7 @@
         <v>1</v>
       </c>
       <c r="Y158" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z158" t="s">
         <v>1</v>
@@ -48954,7 +49490,7 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D159">
         <v>7000000</v>
@@ -49005,7 +49541,7 @@
         <v>1</v>
       </c>
       <c r="Y159" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z159" t="s">
         <v>1</v>
@@ -49091,7 +49627,7 @@
         <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D160">
         <v>7000000</v>
@@ -49142,7 +49678,7 @@
         <v>1</v>
       </c>
       <c r="Y160" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z160" t="s">
         <v>1</v>
@@ -49228,7 +49764,7 @@
         <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D161">
         <v>7000000</v>
@@ -49279,7 +49815,7 @@
         <v>1</v>
       </c>
       <c r="Y161" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z161" t="s">
         <v>1</v>
@@ -49385,52 +49921,52 @@
         <v>225</v>
       </c>
       <c r="C1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1" t="s">
         <v>442</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>443</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>444</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>445</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>446</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>447</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>448</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>449</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>450</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>420</v>
+      </c>
+      <c r="N1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O1" t="s">
         <v>451</v>
       </c>
-      <c r="M1" t="s">
-        <v>421</v>
-      </c>
-      <c r="N1" t="s">
-        <v>357</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>452</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>453</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="S1" t="s">
         <v>264</v>
@@ -49439,28 +49975,28 @@
         <v>265</v>
       </c>
       <c r="U1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V1" t="s">
         <v>266</v>
       </c>
       <c r="W1" t="s">
+        <v>456</v>
+      </c>
+      <c r="X1" t="s">
         <v>457</v>
-      </c>
-      <c r="X1" t="s">
-        <v>458</v>
       </c>
       <c r="Y1" t="s">
         <v>257</v>
       </c>
       <c r="Z1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA1" t="s">
         <v>459</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>460</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -49468,7 +50004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D2">
         <v>1000000</v>
@@ -49477,7 +50013,7 @@
         <v>1000000</v>
       </c>
       <c r="H2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I2">
         <v>2002</v>
@@ -49486,7 +50022,7 @@
         <v>245</v>
       </c>
       <c r="K2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L2">
         <v>123456</v>
@@ -49495,10 +50031,10 @@
         <v>314</v>
       </c>
       <c r="Q2" t="s">
+        <v>463</v>
+      </c>
+      <c r="R2" t="s">
         <v>464</v>
-      </c>
-      <c r="R2" t="s">
-        <v>465</v>
       </c>
       <c r="T2" t="s">
         <v>49</v>
@@ -49533,7 +50069,7 @@
         <v>1000000</v>
       </c>
       <c r="H3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I3">
         <v>2002</v>
@@ -49542,7 +50078,7 @@
         <v>245</v>
       </c>
       <c r="K3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L3">
         <v>123456</v>
@@ -49551,10 +50087,10 @@
         <v>314</v>
       </c>
       <c r="Q3" t="s">
+        <v>463</v>
+      </c>
+      <c r="R3" t="s">
         <v>464</v>
-      </c>
-      <c r="R3" t="s">
-        <v>465</v>
       </c>
       <c r="T3" t="s">
         <v>49</v>
@@ -49589,7 +50125,7 @@
         <v>1000000</v>
       </c>
       <c r="H4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I4">
         <v>2002</v>
@@ -49598,7 +50134,7 @@
         <v>245</v>
       </c>
       <c r="K4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L4">
         <v>123456</v>
@@ -49607,10 +50143,10 @@
         <v>314</v>
       </c>
       <c r="Q4" t="s">
+        <v>463</v>
+      </c>
+      <c r="R4" t="s">
         <v>464</v>
-      </c>
-      <c r="R4" t="s">
-        <v>465</v>
       </c>
       <c r="T4" t="s">
         <v>1</v>
@@ -49636,7 +50172,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D5">
         <v>1000000</v>
@@ -49645,7 +50181,7 @@
         <v>1000000</v>
       </c>
       <c r="H5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I5">
         <v>2002</v>
@@ -49654,7 +50190,7 @@
         <v>245</v>
       </c>
       <c r="K5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L5">
         <v>123456</v>
@@ -49663,10 +50199,10 @@
         <v>314</v>
       </c>
       <c r="Q5" t="s">
+        <v>463</v>
+      </c>
+      <c r="R5" t="s">
         <v>464</v>
-      </c>
-      <c r="R5" t="s">
-        <v>465</v>
       </c>
       <c r="T5" t="s">
         <v>49</v>
@@ -49692,7 +50228,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D6">
         <v>1000000</v>
@@ -49701,7 +50237,7 @@
         <v>1000000</v>
       </c>
       <c r="H6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I6">
         <v>2002</v>
@@ -49710,7 +50246,7 @@
         <v>245</v>
       </c>
       <c r="K6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L6">
         <v>123456</v>
@@ -49719,10 +50255,10 @@
         <v>314</v>
       </c>
       <c r="Q6" t="s">
+        <v>463</v>
+      </c>
+      <c r="R6" t="s">
         <v>464</v>
-      </c>
-      <c r="R6" t="s">
-        <v>465</v>
       </c>
       <c r="T6" t="s">
         <v>49</v>
@@ -49748,7 +50284,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D7">
         <v>1000000</v>
@@ -49757,7 +50293,7 @@
         <v>1000000</v>
       </c>
       <c r="H7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I7">
         <v>2002</v>
@@ -49766,7 +50302,7 @@
         <v>245</v>
       </c>
       <c r="K7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L7">
         <v>123456</v>
@@ -49775,10 +50311,10 @@
         <v>314</v>
       </c>
       <c r="Q7" t="s">
+        <v>463</v>
+      </c>
+      <c r="R7" t="s">
         <v>464</v>
-      </c>
-      <c r="R7" t="s">
-        <v>465</v>
       </c>
       <c r="T7" t="s">
         <v>49</v>
@@ -49804,7 +50340,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D8">
         <v>1000000</v>
@@ -49813,7 +50349,7 @@
         <v>1000000</v>
       </c>
       <c r="H8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I8">
         <v>2002</v>
@@ -49822,7 +50358,7 @@
         <v>245</v>
       </c>
       <c r="K8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L8">
         <v>123456</v>
@@ -49831,10 +50367,10 @@
         <v>314</v>
       </c>
       <c r="Q8" t="s">
+        <v>463</v>
+      </c>
+      <c r="R8" t="s">
         <v>464</v>
-      </c>
-      <c r="R8" t="s">
-        <v>465</v>
       </c>
       <c r="T8" t="s">
         <v>49</v>
@@ -49860,7 +50396,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D9">
         <v>1000000</v>
@@ -49869,7 +50405,7 @@
         <v>1000000</v>
       </c>
       <c r="H9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I9">
         <v>2002</v>
@@ -49878,7 +50414,7 @@
         <v>245</v>
       </c>
       <c r="K9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L9">
         <v>123456</v>
@@ -49887,10 +50423,10 @@
         <v>314</v>
       </c>
       <c r="Q9" t="s">
+        <v>463</v>
+      </c>
+      <c r="R9" t="s">
         <v>464</v>
-      </c>
-      <c r="R9" t="s">
-        <v>465</v>
       </c>
       <c r="T9" t="s">
         <v>49</v>
@@ -49916,7 +50452,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D10">
         <v>1000000</v>
@@ -49925,7 +50461,7 @@
         <v>1000000</v>
       </c>
       <c r="H10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I10">
         <v>2002</v>
@@ -49934,7 +50470,7 @@
         <v>245</v>
       </c>
       <c r="K10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L10">
         <v>123456</v>
@@ -49943,10 +50479,10 @@
         <v>314</v>
       </c>
       <c r="Q10" t="s">
+        <v>463</v>
+      </c>
+      <c r="R10" t="s">
         <v>464</v>
-      </c>
-      <c r="R10" t="s">
-        <v>465</v>
       </c>
       <c r="T10" t="s">
         <v>49</v>
@@ -49972,7 +50508,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D11">
         <v>1000000</v>
@@ -49981,7 +50517,7 @@
         <v>1000000</v>
       </c>
       <c r="H11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I11">
         <v>2002</v>
@@ -49990,7 +50526,7 @@
         <v>245</v>
       </c>
       <c r="K11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L11">
         <v>123456</v>
@@ -49999,10 +50535,10 @@
         <v>314</v>
       </c>
       <c r="Q11" t="s">
+        <v>463</v>
+      </c>
+      <c r="R11" t="s">
         <v>464</v>
-      </c>
-      <c r="R11" t="s">
-        <v>465</v>
       </c>
       <c r="T11" t="s">
         <v>49</v>
@@ -50028,7 +50564,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D12">
         <v>1000000</v>
@@ -50037,7 +50573,7 @@
         <v>1000000</v>
       </c>
       <c r="H12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I12">
         <v>2002</v>
@@ -50046,7 +50582,7 @@
         <v>245</v>
       </c>
       <c r="K12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L12">
         <v>123456</v>
@@ -50055,10 +50591,10 @@
         <v>314</v>
       </c>
       <c r="Q12" t="s">
+        <v>463</v>
+      </c>
+      <c r="R12" t="s">
         <v>464</v>
-      </c>
-      <c r="R12" t="s">
-        <v>465</v>
       </c>
       <c r="T12" t="s">
         <v>49</v>
@@ -50084,7 +50620,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D13">
         <v>1000000</v>
@@ -50093,7 +50629,7 @@
         <v>1000000</v>
       </c>
       <c r="H13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I13">
         <v>2002</v>
@@ -50102,7 +50638,7 @@
         <v>245</v>
       </c>
       <c r="K13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L13">
         <v>123456</v>
@@ -50111,10 +50647,10 @@
         <v>314</v>
       </c>
       <c r="Q13" t="s">
+        <v>463</v>
+      </c>
+      <c r="R13" t="s">
         <v>464</v>
-      </c>
-      <c r="R13" t="s">
-        <v>465</v>
       </c>
       <c r="T13" t="s">
         <v>49</v>
@@ -50140,7 +50676,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D14">
         <v>1000000</v>
@@ -50149,7 +50685,7 @@
         <v>1000000</v>
       </c>
       <c r="H14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I14">
         <v>2002</v>
@@ -50158,7 +50694,7 @@
         <v>245</v>
       </c>
       <c r="K14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L14">
         <v>123456</v>
@@ -50167,10 +50703,10 @@
         <v>314</v>
       </c>
       <c r="Q14" t="s">
+        <v>463</v>
+      </c>
+      <c r="R14" t="s">
         <v>464</v>
-      </c>
-      <c r="R14" t="s">
-        <v>465</v>
       </c>
       <c r="T14" t="s">
         <v>49</v>
@@ -50196,7 +50732,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D15">
         <v>1000000</v>
@@ -50205,7 +50741,7 @@
         <v>1000000</v>
       </c>
       <c r="H15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I15">
         <v>2002</v>
@@ -50214,7 +50750,7 @@
         <v>245</v>
       </c>
       <c r="K15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L15">
         <v>123456</v>
@@ -50223,10 +50759,10 @@
         <v>314</v>
       </c>
       <c r="Q15" t="s">
+        <v>463</v>
+      </c>
+      <c r="R15" t="s">
         <v>464</v>
-      </c>
-      <c r="R15" t="s">
-        <v>465</v>
       </c>
       <c r="T15" t="s">
         <v>49</v>
@@ -50252,7 +50788,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D16">
         <v>1000000</v>
@@ -50261,7 +50797,7 @@
         <v>1000000</v>
       </c>
       <c r="H16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I16">
         <v>2002</v>
@@ -50270,7 +50806,7 @@
         <v>245</v>
       </c>
       <c r="K16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L16">
         <v>123456</v>
@@ -50279,10 +50815,10 @@
         <v>314</v>
       </c>
       <c r="Q16" t="s">
+        <v>463</v>
+      </c>
+      <c r="R16" t="s">
         <v>464</v>
-      </c>
-      <c r="R16" t="s">
-        <v>465</v>
       </c>
       <c r="T16" t="s">
         <v>49</v>
@@ -50308,7 +50844,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D17">
         <v>1000000</v>
@@ -50317,7 +50853,7 @@
         <v>1000000</v>
       </c>
       <c r="H17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I17">
         <v>2002</v>
@@ -50326,7 +50862,7 @@
         <v>245</v>
       </c>
       <c r="K17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L17">
         <v>123456</v>
@@ -50335,10 +50871,10 @@
         <v>314</v>
       </c>
       <c r="Q17" t="s">
+        <v>463</v>
+      </c>
+      <c r="R17" t="s">
         <v>464</v>
-      </c>
-      <c r="R17" t="s">
-        <v>465</v>
       </c>
       <c r="T17" t="s">
         <v>49</v>
@@ -50364,7 +50900,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D18">
         <v>1000000</v>
@@ -50373,7 +50909,7 @@
         <v>1000000</v>
       </c>
       <c r="H18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I18">
         <v>2002</v>
@@ -50382,7 +50918,7 @@
         <v>245</v>
       </c>
       <c r="K18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L18">
         <v>123456</v>
@@ -50391,10 +50927,10 @@
         <v>314</v>
       </c>
       <c r="Q18" t="s">
+        <v>463</v>
+      </c>
+      <c r="R18" t="s">
         <v>464</v>
-      </c>
-      <c r="R18" t="s">
-        <v>465</v>
       </c>
       <c r="T18" t="s">
         <v>49</v>
@@ -50432,43 +50968,43 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B1" t="s">
         <v>225</v>
       </c>
       <c r="C1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" t="s">
         <v>414</v>
       </c>
-      <c r="D1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>415</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>416</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>417</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>418</v>
-      </c>
-      <c r="I1" t="s">
-        <v>419</v>
       </c>
       <c r="J1" t="s">
         <v>261</v>
       </c>
       <c r="K1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L1" t="s">
         <v>420</v>
       </c>
-      <c r="L1" t="s">
-        <v>421</v>
-      </c>
       <c r="M1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N1" t="s">
         <v>264</v>
@@ -50477,7 +51013,7 @@
         <v>265</v>
       </c>
       <c r="P1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -50485,19 +51021,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D2">
         <v>100000</v>
       </c>
       <c r="F2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G2" t="s">
         <v>422</v>
       </c>
-      <c r="G2" t="s">
-        <v>423</v>
-      </c>
       <c r="H2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I2">
         <v>123456</v>
@@ -50506,13 +51042,13 @@
         <v>500</v>
       </c>
       <c r="M2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O2" t="s">
         <v>314</v>
       </c>
       <c r="P2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -50520,19 +51056,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D3">
         <v>100000</v>
       </c>
       <c r="F3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I3">
         <v>123456</v>
@@ -50541,13 +51077,13 @@
         <v>500</v>
       </c>
       <c r="M3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O3" t="s">
         <v>314</v>
       </c>
       <c r="P3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -50555,19 +51091,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D4">
         <v>100000</v>
       </c>
       <c r="F4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I4">
         <v>123456</v>
@@ -50576,13 +51112,13 @@
         <v>500</v>
       </c>
       <c r="M4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O4" t="s">
         <v>314</v>
       </c>
       <c r="P4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -50590,19 +51126,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D5">
         <v>100000</v>
       </c>
       <c r="F5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I5">
         <v>123456</v>
@@ -50611,13 +51147,13 @@
         <v>500</v>
       </c>
       <c r="M5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O5" t="s">
         <v>314</v>
       </c>
       <c r="P5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -50625,19 +51161,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D6">
         <v>100000</v>
       </c>
       <c r="F6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I6">
         <v>123456</v>
@@ -50646,13 +51182,13 @@
         <v>500</v>
       </c>
       <c r="M6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O6" t="s">
         <v>314</v>
       </c>
       <c r="P6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -50660,19 +51196,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D7">
         <v>100000</v>
       </c>
       <c r="F7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G7" t="s">
         <v>422</v>
       </c>
-      <c r="G7" t="s">
-        <v>423</v>
-      </c>
       <c r="H7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I7">
         <v>123456</v>
@@ -50681,13 +51217,13 @@
         <v>500</v>
       </c>
       <c r="M7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O7" t="s">
         <v>314</v>
       </c>
       <c r="P7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -50695,19 +51231,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D8">
         <v>100000</v>
       </c>
       <c r="F8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I8">
         <v>123456</v>
@@ -50716,13 +51252,13 @@
         <v>500</v>
       </c>
       <c r="M8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O8" t="s">
         <v>314</v>
       </c>
       <c r="P8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -50730,19 +51266,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D9">
         <v>100000</v>
       </c>
       <c r="F9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I9">
         <v>123456</v>
@@ -50751,13 +51287,13 @@
         <v>500</v>
       </c>
       <c r="M9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O9" t="s">
         <v>314</v>
       </c>
       <c r="P9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -50765,19 +51301,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D10">
         <v>100000</v>
       </c>
       <c r="F10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I10">
         <v>123456</v>
@@ -50786,13 +51322,13 @@
         <v>500</v>
       </c>
       <c r="M10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O10" t="s">
         <v>314</v>
       </c>
       <c r="P10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -50800,19 +51336,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D11">
         <v>100000</v>
       </c>
       <c r="F11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I11">
         <v>123456</v>
@@ -50821,13 +51357,13 @@
         <v>500</v>
       </c>
       <c r="M11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O11" t="s">
         <v>314</v>
       </c>
       <c r="P11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -50835,19 +51371,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D12">
         <v>100000</v>
       </c>
       <c r="F12" t="s">
+        <v>421</v>
+      </c>
+      <c r="G12" t="s">
         <v>422</v>
       </c>
-      <c r="G12" t="s">
-        <v>423</v>
-      </c>
       <c r="H12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I12">
         <v>123456</v>
@@ -50856,13 +51392,13 @@
         <v>500</v>
       </c>
       <c r="M12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O12" t="s">
         <v>314</v>
       </c>
       <c r="P12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -50870,19 +51406,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D13">
         <v>100000</v>
       </c>
       <c r="F13" t="s">
+        <v>421</v>
+      </c>
+      <c r="G13" t="s">
         <v>422</v>
       </c>
-      <c r="G13" t="s">
-        <v>423</v>
-      </c>
       <c r="H13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I13">
         <v>123456</v>
@@ -50891,13 +51427,13 @@
         <v>500</v>
       </c>
       <c r="M13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O13" t="s">
         <v>314</v>
       </c>
       <c r="P13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -50905,19 +51441,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D14">
         <v>100000</v>
       </c>
       <c r="F14" t="s">
+        <v>421</v>
+      </c>
+      <c r="G14" t="s">
         <v>422</v>
       </c>
-      <c r="G14" t="s">
-        <v>423</v>
-      </c>
       <c r="H14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I14">
         <v>123456</v>
@@ -50926,13 +51462,13 @@
         <v>500</v>
       </c>
       <c r="M14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O14" t="s">
         <v>314</v>
       </c>
       <c r="P14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -50940,19 +51476,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D15">
         <v>100000</v>
       </c>
       <c r="F15" t="s">
+        <v>421</v>
+      </c>
+      <c r="G15" t="s">
         <v>422</v>
       </c>
-      <c r="G15" t="s">
-        <v>423</v>
-      </c>
       <c r="H15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I15">
         <v>123456</v>
@@ -50961,13 +51497,13 @@
         <v>334</v>
       </c>
       <c r="M15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O15" t="s">
         <v>314</v>
       </c>
       <c r="P15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -50975,19 +51511,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D16">
         <v>100000</v>
       </c>
       <c r="F16" t="s">
+        <v>421</v>
+      </c>
+      <c r="G16" t="s">
         <v>422</v>
       </c>
-      <c r="G16" t="s">
-        <v>423</v>
-      </c>
       <c r="H16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I16">
         <v>123456</v>
@@ -50996,13 +51532,13 @@
         <v>500</v>
       </c>
       <c r="M16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O16" t="s">
         <v>314</v>
       </c>
       <c r="P16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -51010,19 +51546,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D17">
         <v>100000</v>
       </c>
       <c r="F17" t="s">
+        <v>421</v>
+      </c>
+      <c r="G17" t="s">
         <v>422</v>
       </c>
-      <c r="G17" t="s">
-        <v>423</v>
-      </c>
       <c r="H17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I17">
         <v>123456</v>
@@ -51031,13 +51567,13 @@
         <v>5000</v>
       </c>
       <c r="M17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O17" t="s">
         <v>314</v>
       </c>
       <c r="P17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -51045,19 +51581,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D18">
         <v>100000</v>
       </c>
       <c r="F18" t="s">
+        <v>421</v>
+      </c>
+      <c r="G18" t="s">
         <v>422</v>
       </c>
-      <c r="G18" t="s">
-        <v>423</v>
-      </c>
       <c r="H18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I18">
         <v>123456</v>
@@ -51066,13 +51602,13 @@
         <v>7500</v>
       </c>
       <c r="M18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O18" t="s">
         <v>314</v>
       </c>
       <c r="P18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -51080,19 +51616,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D19">
         <v>100000</v>
       </c>
       <c r="F19" t="s">
+        <v>421</v>
+      </c>
+      <c r="G19" t="s">
         <v>422</v>
       </c>
-      <c r="G19" t="s">
-        <v>423</v>
-      </c>
       <c r="H19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I19">
         <v>123456</v>
@@ -51101,13 +51637,13 @@
         <v>10000</v>
       </c>
       <c r="M19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O19" t="s">
         <v>314</v>
       </c>
       <c r="P19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -51115,19 +51651,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D20">
         <v>100000</v>
       </c>
       <c r="F20" t="s">
+        <v>421</v>
+      </c>
+      <c r="G20" t="s">
         <v>422</v>
       </c>
-      <c r="G20" t="s">
-        <v>423</v>
-      </c>
       <c r="H20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I20">
         <v>123456</v>
@@ -51136,13 +51672,13 @@
         <v>15000</v>
       </c>
       <c r="M20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O20" t="s">
         <v>314</v>
       </c>
       <c r="P20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -51150,19 +51686,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D21">
         <v>100000</v>
       </c>
       <c r="F21" t="s">
+        <v>421</v>
+      </c>
+      <c r="G21" t="s">
         <v>422</v>
       </c>
-      <c r="G21" t="s">
-        <v>423</v>
-      </c>
       <c r="H21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I21">
         <v>123456</v>
@@ -51171,13 +51707,13 @@
         <v>20000</v>
       </c>
       <c r="M21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O21" t="s">
         <v>314</v>
       </c>
       <c r="P21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -51185,19 +51721,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D22">
         <v>100000</v>
       </c>
       <c r="F22" t="s">
+        <v>421</v>
+      </c>
+      <c r="G22" t="s">
         <v>422</v>
       </c>
-      <c r="G22" t="s">
-        <v>423</v>
-      </c>
       <c r="H22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I22">
         <v>123456</v>
@@ -51206,13 +51742,13 @@
         <v>40000</v>
       </c>
       <c r="M22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O22" t="s">
         <v>314</v>
       </c>
       <c r="P22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -51220,19 +51756,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D23">
         <v>100000</v>
       </c>
       <c r="F23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G23" t="s">
         <v>422</v>
       </c>
-      <c r="G23" t="s">
-        <v>423</v>
-      </c>
       <c r="H23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I23">
         <v>123456</v>
@@ -51241,13 +51777,13 @@
         <v>80000</v>
       </c>
       <c r="M23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O23" t="s">
         <v>314</v>
       </c>
       <c r="P23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -51255,19 +51791,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D24">
         <v>100000</v>
       </c>
       <c r="F24" t="s">
+        <v>421</v>
+      </c>
+      <c r="G24" t="s">
         <v>422</v>
       </c>
-      <c r="G24" t="s">
-        <v>423</v>
-      </c>
       <c r="H24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I24">
         <v>123456</v>
@@ -51276,13 +51812,13 @@
         <v>100000</v>
       </c>
       <c r="M24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O24" t="s">
         <v>314</v>
       </c>
       <c r="P24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -51290,19 +51826,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D25">
         <v>100000</v>
       </c>
       <c r="F25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G25" t="s">
         <v>422</v>
       </c>
-      <c r="G25" t="s">
-        <v>423</v>
-      </c>
       <c r="H25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I25">
         <v>123456</v>
@@ -51311,13 +51847,13 @@
         <v>500</v>
       </c>
       <c r="M25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O25" t="s">
         <v>314</v>
       </c>
       <c r="P25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -51331,13 +51867,13 @@
         <v>100000</v>
       </c>
       <c r="F26" t="s">
+        <v>421</v>
+      </c>
+      <c r="G26" t="s">
         <v>422</v>
       </c>
-      <c r="G26" t="s">
-        <v>423</v>
-      </c>
       <c r="H26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I26">
         <v>123456</v>
@@ -51346,13 +51882,13 @@
         <v>500</v>
       </c>
       <c r="M26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O26" t="s">
         <v>314</v>
       </c>
       <c r="P26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -51366,13 +51902,13 @@
         <v>100000</v>
       </c>
       <c r="F27" t="s">
+        <v>421</v>
+      </c>
+      <c r="G27" t="s">
         <v>422</v>
       </c>
-      <c r="G27" t="s">
-        <v>423</v>
-      </c>
       <c r="H27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I27">
         <v>123456</v>
@@ -51381,13 +51917,13 @@
         <v>500</v>
       </c>
       <c r="M27" t="s">
+        <v>423</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
         <v>424</v>
-      </c>
-      <c r="O27" t="s">
-        <v>1</v>
-      </c>
-      <c r="P27" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -51395,19 +51931,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D28">
         <v>100000</v>
       </c>
       <c r="F28" t="s">
+        <v>421</v>
+      </c>
+      <c r="G28" t="s">
         <v>422</v>
       </c>
-      <c r="G28" t="s">
-        <v>423</v>
-      </c>
       <c r="H28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I28">
         <v>123456</v>
@@ -51416,13 +51952,13 @@
         <v>500</v>
       </c>
       <c r="M28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O28" t="s">
         <v>314</v>
       </c>
       <c r="P28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -51432,15 +51968,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09498BAA-94D9-4B80-B0FE-DE21B3D3127B}">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="60">
+    <row r="1" spans="1:30" ht="60">
       <c r="A1" t="s">
         <v>343</v>
       </c>
@@ -51448,49 +51984,49 @@
         <v>225</v>
       </c>
       <c r="C1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E1" t="s">
         <v>244</v>
       </c>
       <c r="F1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" t="s">
         <v>472</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I1" t="s">
         <v>473</v>
       </c>
-      <c r="H1" t="s">
-        <v>444</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K1" t="s">
+        <v>446</v>
+      </c>
+      <c r="L1" t="s">
+        <v>447</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="J1" t="s">
-        <v>446</v>
-      </c>
-      <c r="K1" t="s">
-        <v>447</v>
-      </c>
-      <c r="L1" t="s">
-        <v>448</v>
-      </c>
-      <c r="M1" t="s">
-        <v>449</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" t="s">
+        <v>420</v>
+      </c>
+      <c r="P1" t="s">
         <v>475</v>
       </c>
-      <c r="P1" t="s">
-        <v>421</v>
-      </c>
       <c r="Q1" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="R1" t="s">
         <v>452</v>
@@ -51499,31 +52035,31 @@
         <v>453</v>
       </c>
       <c r="T1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="U1" t="s">
-        <v>462</v>
+        <v>264</v>
       </c>
       <c r="V1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W1" t="s">
-        <v>265</v>
+        <v>455</v>
       </c>
       <c r="X1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y1" t="s">
         <v>456</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>266</v>
       </c>
       <c r="Z1" t="s">
         <v>457</v>
       </c>
       <c r="AA1" t="s">
-        <v>458</v>
+        <v>257</v>
       </c>
       <c r="AB1" t="s">
-        <v>257</v>
+        <v>476</v>
       </c>
       <c r="AC1" t="s">
         <v>477</v>
@@ -51531,11 +52067,8 @@
       <c r="AD1" t="s">
         <v>478</v>
       </c>
-      <c r="AE1" t="s">
-        <v>479</v>
-      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>1</v>
       </c>
@@ -51543,13 +52076,13 @@
         <v>244</v>
       </c>
       <c r="D2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -51558,40 +52091,40 @@
         <v>100000</v>
       </c>
       <c r="K2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L2">
         <v>2001</v>
       </c>
-      <c r="M2">
-        <v>245</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="M2" t="s">
+        <v>480</v>
+      </c>
+      <c r="N2">
+        <v>123456</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>463</v>
+      </c>
+      <c r="T2" t="s">
+        <v>512</v>
+      </c>
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s">
         <v>481</v>
       </c>
-      <c r="O2">
-        <v>123456</v>
-      </c>
-      <c r="S2" t="s">
-        <v>314</v>
-      </c>
-      <c r="T2" t="s">
-        <v>464</v>
-      </c>
-      <c r="U2" t="s">
-        <v>465</v>
-      </c>
-      <c r="W2" t="s">
-        <v>314</v>
-      </c>
-      <c r="X2" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2">
+      <c r="Y2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2">
         <v>1000</v>
+      </c>
+      <c r="AB2">
+        <v>5</v>
       </c>
       <c r="AC2">
         <v>5</v>
@@ -51599,11 +52132,8 @@
       <c r="AD2">
         <v>5</v>
       </c>
-      <c r="AE2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>2</v>
       </c>
@@ -51611,13 +52141,13 @@
         <v>244</v>
       </c>
       <c r="D3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E3" t="s">
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -51626,40 +52156,40 @@
         <v>100000</v>
       </c>
       <c r="K3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L3">
         <v>2001</v>
       </c>
-      <c r="M3">
-        <v>245</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>480</v>
+      </c>
+      <c r="N3">
+        <v>123456</v>
+      </c>
+      <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
+        <v>463</v>
+      </c>
+      <c r="T3" t="s">
+        <v>512</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" t="s">
         <v>481</v>
       </c>
-      <c r="O3">
-        <v>123456</v>
-      </c>
-      <c r="S3" t="s">
-        <v>314</v>
-      </c>
-      <c r="T3" t="s">
-        <v>464</v>
-      </c>
-      <c r="U3" t="s">
-        <v>465</v>
-      </c>
-      <c r="W3" t="s">
-        <v>314</v>
-      </c>
-      <c r="X3" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA3">
+      <c r="Y3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3">
         <v>1000</v>
+      </c>
+      <c r="AB3">
+        <v>5</v>
       </c>
       <c r="AC3">
         <v>5</v>
@@ -51667,25 +52197,22 @@
       <c r="AD3">
         <v>5</v>
       </c>
-      <c r="AE3">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -51694,40 +52221,40 @@
         <v>100000</v>
       </c>
       <c r="K4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L4">
         <v>2001</v>
       </c>
-      <c r="M4">
-        <v>245</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>480</v>
+      </c>
+      <c r="N4">
+        <v>123456</v>
+      </c>
+      <c r="R4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" t="s">
+        <v>463</v>
+      </c>
+      <c r="T4" t="s">
+        <v>512</v>
+      </c>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" t="s">
         <v>481</v>
       </c>
-      <c r="O4">
-        <v>123456</v>
-      </c>
-      <c r="S4" t="s">
-        <v>314</v>
-      </c>
-      <c r="T4" t="s">
-        <v>464</v>
-      </c>
-      <c r="U4" t="s">
-        <v>465</v>
-      </c>
-      <c r="W4" t="s">
-        <v>314</v>
-      </c>
-      <c r="X4" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA4">
+      <c r="Y4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4">
         <v>1000</v>
+      </c>
+      <c r="AB4">
+        <v>5</v>
       </c>
       <c r="AC4">
         <v>5</v>
@@ -51735,25 +52262,22 @@
       <c r="AD4">
         <v>5</v>
       </c>
-      <c r="AE4">
-        <v>5</v>
-      </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -51762,40 +52286,40 @@
         <v>100000</v>
       </c>
       <c r="K5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L5">
         <v>2001</v>
       </c>
-      <c r="M5">
-        <v>245</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="M5" t="s">
+        <v>480</v>
+      </c>
+      <c r="N5">
+        <v>123456</v>
+      </c>
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" t="s">
+        <v>463</v>
+      </c>
+      <c r="T5" t="s">
+        <v>512</v>
+      </c>
+      <c r="V5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" t="s">
         <v>481</v>
       </c>
-      <c r="O5">
-        <v>123456</v>
-      </c>
-      <c r="S5" t="s">
-        <v>314</v>
-      </c>
-      <c r="T5" t="s">
-        <v>464</v>
-      </c>
-      <c r="U5" t="s">
-        <v>465</v>
-      </c>
-      <c r="W5" t="s">
-        <v>314</v>
-      </c>
-      <c r="X5" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA5">
+      <c r="Y5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5">
         <v>1000</v>
+      </c>
+      <c r="AB5">
+        <v>5</v>
       </c>
       <c r="AC5">
         <v>5</v>
@@ -51803,25 +52327,22 @@
       <c r="AD5">
         <v>5</v>
       </c>
-      <c r="AE5">
-        <v>5</v>
-      </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -51830,40 +52351,40 @@
         <v>100000</v>
       </c>
       <c r="K6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L6">
         <v>2001</v>
       </c>
-      <c r="M6">
-        <v>245</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="M6" t="s">
+        <v>480</v>
+      </c>
+      <c r="N6">
+        <v>123456</v>
+      </c>
+      <c r="R6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" t="s">
+        <v>463</v>
+      </c>
+      <c r="T6" t="s">
+        <v>512</v>
+      </c>
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" t="s">
         <v>481</v>
       </c>
-      <c r="O6">
-        <v>123456</v>
-      </c>
-      <c r="S6" t="s">
-        <v>314</v>
-      </c>
-      <c r="T6" t="s">
-        <v>464</v>
-      </c>
-      <c r="U6" t="s">
-        <v>465</v>
-      </c>
-      <c r="W6" t="s">
-        <v>314</v>
-      </c>
-      <c r="X6" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA6">
+      <c r="Y6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z6">
         <v>1000</v>
+      </c>
+      <c r="AB6">
+        <v>5</v>
       </c>
       <c r="AC6">
         <v>5</v>
@@ -51871,25 +52392,22 @@
       <c r="AD6">
         <v>5</v>
       </c>
-      <c r="AE6">
-        <v>5</v>
-      </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -51898,40 +52416,40 @@
         <v>100000</v>
       </c>
       <c r="K7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L7">
         <v>2001</v>
       </c>
-      <c r="M7">
-        <v>245</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="M7" t="s">
+        <v>480</v>
+      </c>
+      <c r="N7">
+        <v>123456</v>
+      </c>
+      <c r="R7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" t="s">
+        <v>463</v>
+      </c>
+      <c r="T7" t="s">
+        <v>512</v>
+      </c>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" t="s">
         <v>481</v>
       </c>
-      <c r="O7">
-        <v>123456</v>
-      </c>
-      <c r="S7" t="s">
-        <v>314</v>
-      </c>
-      <c r="T7" t="s">
-        <v>464</v>
-      </c>
-      <c r="U7" t="s">
-        <v>465</v>
-      </c>
-      <c r="W7" t="s">
-        <v>314</v>
-      </c>
-      <c r="X7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA7">
+      <c r="Y7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z7">
         <v>1000</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
       </c>
       <c r="AC7">
         <v>5</v>
@@ -51939,25 +52457,22 @@
       <c r="AD7">
         <v>5</v>
       </c>
-      <c r="AE7">
-        <v>5</v>
-      </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:30">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>449</v>
       </c>
       <c r="D8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -51966,40 +52481,40 @@
         <v>100000</v>
       </c>
       <c r="K8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L8">
         <v>2001</v>
       </c>
-      <c r="M8">
-        <v>245</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="M8" t="s">
+        <v>480</v>
+      </c>
+      <c r="N8">
+        <v>123456</v>
+      </c>
+      <c r="R8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" t="s">
+        <v>463</v>
+      </c>
+      <c r="T8" t="s">
+        <v>512</v>
+      </c>
+      <c r="V8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" t="s">
         <v>481</v>
       </c>
-      <c r="O8">
-        <v>123456</v>
-      </c>
-      <c r="S8" t="s">
-        <v>314</v>
-      </c>
-      <c r="T8" t="s">
-        <v>464</v>
-      </c>
-      <c r="U8" t="s">
-        <v>465</v>
-      </c>
-      <c r="W8" t="s">
-        <v>314</v>
-      </c>
-      <c r="X8" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA8">
+      <c r="Y8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z8">
         <v>1000</v>
+      </c>
+      <c r="AB8">
+        <v>5</v>
       </c>
       <c r="AC8">
         <v>5</v>
@@ -52007,25 +52522,22 @@
       <c r="AD8">
         <v>5</v>
       </c>
-      <c r="AE8">
-        <v>5</v>
-      </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:30" ht="60">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>450</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>487</v>
       </c>
       <c r="D9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -52034,40 +52546,40 @@
         <v>100000</v>
       </c>
       <c r="K9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L9">
         <v>2001</v>
       </c>
-      <c r="M9">
-        <v>245</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="M9" t="s">
+        <v>480</v>
+      </c>
+      <c r="N9">
+        <v>123456</v>
+      </c>
+      <c r="R9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" t="s">
+        <v>463</v>
+      </c>
+      <c r="T9" t="s">
+        <v>512</v>
+      </c>
+      <c r="V9" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" t="s">
         <v>481</v>
       </c>
-      <c r="O9">
-        <v>123456</v>
-      </c>
-      <c r="S9" t="s">
-        <v>314</v>
-      </c>
-      <c r="T9" t="s">
-        <v>464</v>
-      </c>
-      <c r="U9" t="s">
-        <v>465</v>
-      </c>
-      <c r="W9" t="s">
-        <v>314</v>
-      </c>
-      <c r="X9" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA9">
+      <c r="Y9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z9">
         <v>1000</v>
+      </c>
+      <c r="AB9">
+        <v>5</v>
       </c>
       <c r="AC9">
         <v>5</v>
@@ -52075,25 +52587,22 @@
       <c r="AD9">
         <v>5</v>
       </c>
-      <c r="AE9">
-        <v>5</v>
-      </c>
     </row>
-    <row r="10" spans="1:31" ht="60">
+    <row r="10" spans="1:30">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>488</v>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>452</v>
       </c>
       <c r="D10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -52102,40 +52611,40 @@
         <v>100000</v>
       </c>
       <c r="K10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L10">
         <v>2001</v>
       </c>
-      <c r="M10">
-        <v>245</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="M10" t="s">
+        <v>480</v>
+      </c>
+      <c r="N10">
+        <v>123456</v>
+      </c>
+      <c r="R10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" t="s">
+        <v>463</v>
+      </c>
+      <c r="T10" t="s">
+        <v>512</v>
+      </c>
+      <c r="V10" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10" t="s">
         <v>481</v>
       </c>
-      <c r="O10">
-        <v>123456</v>
-      </c>
-      <c r="S10" t="s">
-        <v>314</v>
-      </c>
-      <c r="T10" t="s">
-        <v>464</v>
-      </c>
-      <c r="U10" t="s">
-        <v>465</v>
-      </c>
-      <c r="W10" t="s">
-        <v>314</v>
-      </c>
-      <c r="X10" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA10">
+      <c r="Y10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10">
         <v>1000</v>
+      </c>
+      <c r="AB10">
+        <v>5</v>
       </c>
       <c r="AC10">
         <v>5</v>
@@ -52143,25 +52652,22 @@
       <c r="AD10">
         <v>5</v>
       </c>
-      <c r="AE10">
-        <v>5</v>
-      </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:30">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="D11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -52170,40 +52676,40 @@
         <v>100000</v>
       </c>
       <c r="K11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L11">
         <v>2001</v>
       </c>
-      <c r="M11">
-        <v>245</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="M11" t="s">
+        <v>480</v>
+      </c>
+      <c r="N11">
+        <v>123456</v>
+      </c>
+      <c r="R11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" t="s">
+        <v>463</v>
+      </c>
+      <c r="T11" t="s">
+        <v>512</v>
+      </c>
+      <c r="V11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" t="s">
         <v>481</v>
       </c>
-      <c r="O11">
-        <v>123456</v>
-      </c>
-      <c r="S11" t="s">
-        <v>314</v>
-      </c>
-      <c r="T11" t="s">
-        <v>464</v>
-      </c>
-      <c r="U11" t="s">
-        <v>465</v>
-      </c>
-      <c r="W11" t="s">
-        <v>314</v>
-      </c>
-      <c r="X11" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA11">
+      <c r="Y11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z11">
         <v>1000</v>
+      </c>
+      <c r="AB11">
+        <v>5</v>
       </c>
       <c r="AC11">
         <v>5</v>
@@ -52211,25 +52717,22 @@
       <c r="AD11">
         <v>5</v>
       </c>
-      <c r="AE11">
-        <v>5</v>
-      </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:30">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>484</v>
       </c>
       <c r="D12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -52238,40 +52741,40 @@
         <v>100000</v>
       </c>
       <c r="K12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L12">
         <v>2001</v>
       </c>
-      <c r="M12">
-        <v>245</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="M12" t="s">
+        <v>480</v>
+      </c>
+      <c r="N12">
+        <v>123456</v>
+      </c>
+      <c r="R12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" t="s">
+        <v>463</v>
+      </c>
+      <c r="T12" t="s">
+        <v>512</v>
+      </c>
+      <c r="V12" t="s">
+        <v>49</v>
+      </c>
+      <c r="W12" t="s">
         <v>481</v>
       </c>
-      <c r="O12">
-        <v>123456</v>
-      </c>
-      <c r="S12" t="s">
-        <v>314</v>
-      </c>
-      <c r="T12" t="s">
-        <v>464</v>
-      </c>
-      <c r="U12" t="s">
-        <v>465</v>
-      </c>
-      <c r="W12" t="s">
-        <v>314</v>
-      </c>
-      <c r="X12" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA12">
+      <c r="Y12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z12">
         <v>1000</v>
+      </c>
+      <c r="AB12">
+        <v>5</v>
       </c>
       <c r="AC12">
         <v>5</v>
@@ -52279,25 +52782,22 @@
       <c r="AD12">
         <v>5</v>
       </c>
-      <c r="AE12">
-        <v>5</v>
-      </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:30">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>485</v>
+        <v>265</v>
       </c>
       <c r="D13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -52306,40 +52806,40 @@
         <v>100000</v>
       </c>
       <c r="K13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L13">
         <v>2001</v>
       </c>
-      <c r="M13">
-        <v>245</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="M13" t="s">
+        <v>480</v>
+      </c>
+      <c r="N13">
+        <v>123456</v>
+      </c>
+      <c r="R13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" t="s">
+        <v>463</v>
+      </c>
+      <c r="T13" t="s">
+        <v>512</v>
+      </c>
+      <c r="V13" t="s">
+        <v>49</v>
+      </c>
+      <c r="W13" t="s">
         <v>481</v>
       </c>
-      <c r="O13">
-        <v>123456</v>
-      </c>
-      <c r="S13" t="s">
-        <v>314</v>
-      </c>
-      <c r="T13" t="s">
-        <v>464</v>
-      </c>
-      <c r="U13" t="s">
-        <v>465</v>
-      </c>
-      <c r="W13" t="s">
-        <v>314</v>
-      </c>
-      <c r="X13" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA13">
+      <c r="Y13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z13">
         <v>1000</v>
+      </c>
+      <c r="AB13">
+        <v>5</v>
       </c>
       <c r="AC13">
         <v>5</v>
@@ -52347,25 +52847,22 @@
       <c r="AD13">
         <v>5</v>
       </c>
-      <c r="AE13">
-        <v>5</v>
-      </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:30">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>485</v>
       </c>
       <c r="D14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -52374,40 +52871,40 @@
         <v>100000</v>
       </c>
       <c r="K14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L14">
         <v>2001</v>
       </c>
-      <c r="M14">
-        <v>245</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="M14" t="s">
+        <v>480</v>
+      </c>
+      <c r="N14">
+        <v>123456</v>
+      </c>
+      <c r="R14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" t="s">
+        <v>463</v>
+      </c>
+      <c r="T14" t="s">
+        <v>512</v>
+      </c>
+      <c r="V14" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14" t="s">
         <v>481</v>
       </c>
-      <c r="O14">
-        <v>123456</v>
-      </c>
-      <c r="S14" t="s">
-        <v>314</v>
-      </c>
-      <c r="T14" t="s">
-        <v>464</v>
-      </c>
-      <c r="U14" t="s">
-        <v>465</v>
-      </c>
-      <c r="W14" t="s">
-        <v>314</v>
-      </c>
-      <c r="X14" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA14">
+      <c r="Y14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z14">
         <v>1000</v>
+      </c>
+      <c r="AB14">
+        <v>5</v>
       </c>
       <c r="AC14">
         <v>5</v>
@@ -52415,25 +52912,22 @@
       <c r="AD14">
         <v>5</v>
       </c>
-      <c r="AE14">
-        <v>5</v>
-      </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:30">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -52442,40 +52936,40 @@
         <v>100000</v>
       </c>
       <c r="K15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L15">
         <v>2001</v>
       </c>
-      <c r="M15">
-        <v>245</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="M15" t="s">
+        <v>480</v>
+      </c>
+      <c r="N15">
+        <v>123456</v>
+      </c>
+      <c r="R15" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" t="s">
+        <v>463</v>
+      </c>
+      <c r="T15" t="s">
+        <v>512</v>
+      </c>
+      <c r="V15" t="s">
+        <v>49</v>
+      </c>
+      <c r="W15" t="s">
         <v>481</v>
       </c>
-      <c r="O15">
-        <v>123456</v>
-      </c>
-      <c r="S15" t="s">
-        <v>314</v>
-      </c>
-      <c r="T15" t="s">
-        <v>464</v>
-      </c>
-      <c r="U15" t="s">
-        <v>465</v>
-      </c>
-      <c r="W15" t="s">
-        <v>314</v>
-      </c>
-      <c r="X15" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA15">
+      <c r="Y15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z15">
         <v>1000</v>
+      </c>
+      <c r="AB15">
+        <v>5</v>
       </c>
       <c r="AC15">
         <v>5</v>
@@ -52483,25 +52977,22 @@
       <c r="AD15">
         <v>5</v>
       </c>
-      <c r="AE15">
-        <v>5</v>
-      </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:30">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="D16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -52510,40 +53001,40 @@
         <v>100000</v>
       </c>
       <c r="K16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L16">
         <v>2001</v>
       </c>
-      <c r="M16">
-        <v>245</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="M16" t="s">
+        <v>480</v>
+      </c>
+      <c r="N16">
+        <v>123456</v>
+      </c>
+      <c r="R16" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" t="s">
+        <v>463</v>
+      </c>
+      <c r="T16" t="s">
+        <v>512</v>
+      </c>
+      <c r="V16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W16" t="s">
         <v>481</v>
       </c>
-      <c r="O16">
-        <v>123456</v>
-      </c>
-      <c r="S16" t="s">
-        <v>314</v>
-      </c>
-      <c r="T16" t="s">
-        <v>464</v>
-      </c>
-      <c r="U16" t="s">
-        <v>465</v>
-      </c>
-      <c r="W16" t="s">
-        <v>314</v>
-      </c>
-      <c r="X16" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA16">
+      <c r="Y16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z16">
         <v>1000</v>
+      </c>
+      <c r="AB16">
+        <v>5</v>
       </c>
       <c r="AC16">
         <v>5</v>
@@ -52551,25 +53042,22 @@
       <c r="AD16">
         <v>5</v>
       </c>
-      <c r="AE16">
-        <v>5</v>
-      </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:30">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>472</v>
       </c>
       <c r="D17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -52578,40 +53066,40 @@
         <v>100000</v>
       </c>
       <c r="K17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L17">
         <v>2001</v>
       </c>
-      <c r="M17">
-        <v>245</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="M17" t="s">
+        <v>480</v>
+      </c>
+      <c r="N17">
+        <v>123456</v>
+      </c>
+      <c r="R17" t="s">
+        <v>49</v>
+      </c>
+      <c r="S17" t="s">
+        <v>463</v>
+      </c>
+      <c r="T17" t="s">
+        <v>512</v>
+      </c>
+      <c r="V17" t="s">
+        <v>49</v>
+      </c>
+      <c r="W17" t="s">
         <v>481</v>
       </c>
-      <c r="O17">
-        <v>123456</v>
-      </c>
-      <c r="S17" t="s">
-        <v>314</v>
-      </c>
-      <c r="T17" t="s">
-        <v>464</v>
-      </c>
-      <c r="U17" t="s">
-        <v>465</v>
-      </c>
-      <c r="W17" t="s">
-        <v>314</v>
-      </c>
-      <c r="X17" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA17">
+      <c r="Y17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z17">
         <v>1000</v>
+      </c>
+      <c r="AB17">
+        <v>5</v>
       </c>
       <c r="AC17">
         <v>5</v>
@@ -52619,25 +53107,22 @@
       <c r="AD17">
         <v>5</v>
       </c>
-      <c r="AE17">
-        <v>5</v>
-      </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:30">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E18" t="s">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -52646,40 +53131,40 @@
         <v>100000</v>
       </c>
       <c r="K18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L18">
         <v>2001</v>
       </c>
-      <c r="M18">
-        <v>245</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="M18" t="s">
+        <v>480</v>
+      </c>
+      <c r="N18">
+        <v>123456</v>
+      </c>
+      <c r="R18" t="s">
+        <v>49</v>
+      </c>
+      <c r="S18" t="s">
+        <v>463</v>
+      </c>
+      <c r="T18" t="s">
+        <v>512</v>
+      </c>
+      <c r="V18" t="s">
+        <v>49</v>
+      </c>
+      <c r="W18" t="s">
         <v>481</v>
       </c>
-      <c r="O18">
-        <v>123456</v>
-      </c>
-      <c r="S18" t="s">
-        <v>314</v>
-      </c>
-      <c r="T18" t="s">
-        <v>464</v>
-      </c>
-      <c r="U18" t="s">
-        <v>465</v>
-      </c>
-      <c r="W18" t="s">
-        <v>314</v>
-      </c>
-      <c r="X18" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA18">
+      <c r="Y18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z18">
         <v>1000</v>
+      </c>
+      <c r="AB18">
+        <v>5</v>
       </c>
       <c r="AC18">
         <v>5</v>
@@ -52687,25 +53172,22 @@
       <c r="AD18">
         <v>5</v>
       </c>
-      <c r="AE18">
-        <v>5</v>
-      </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:30">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>477</v>
       </c>
       <c r="D19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -52714,40 +53196,40 @@
         <v>100000</v>
       </c>
       <c r="K19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L19">
         <v>2001</v>
       </c>
-      <c r="M19">
-        <v>245</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="M19" t="s">
+        <v>480</v>
+      </c>
+      <c r="N19">
+        <v>123456</v>
+      </c>
+      <c r="R19" t="s">
+        <v>49</v>
+      </c>
+      <c r="S19" t="s">
+        <v>463</v>
+      </c>
+      <c r="T19" t="s">
+        <v>512</v>
+      </c>
+      <c r="V19" t="s">
+        <v>49</v>
+      </c>
+      <c r="W19" t="s">
         <v>481</v>
       </c>
-      <c r="O19">
-        <v>123456</v>
-      </c>
-      <c r="S19" t="s">
-        <v>314</v>
-      </c>
-      <c r="T19" t="s">
-        <v>464</v>
-      </c>
-      <c r="U19" t="s">
-        <v>465</v>
-      </c>
-      <c r="W19" t="s">
-        <v>314</v>
-      </c>
-      <c r="X19" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA19">
+      <c r="Y19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z19">
         <v>1000</v>
+      </c>
+      <c r="AB19">
+        <v>5</v>
       </c>
       <c r="AC19">
         <v>5</v>
@@ -52755,25 +53237,22 @@
       <c r="AD19">
         <v>5</v>
       </c>
-      <c r="AE19">
-        <v>5</v>
-      </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:30">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>478</v>
       </c>
       <c r="D20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E20" t="s">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G20">
         <v>10</v>
@@ -52782,116 +53261,45 @@
         <v>100000</v>
       </c>
       <c r="K20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L20">
         <v>2001</v>
       </c>
-      <c r="M20">
-        <v>245</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="M20" t="s">
+        <v>480</v>
+      </c>
+      <c r="N20">
+        <v>123456</v>
+      </c>
+      <c r="R20" t="s">
+        <v>49</v>
+      </c>
+      <c r="S20" t="s">
+        <v>463</v>
+      </c>
+      <c r="T20" t="s">
+        <v>512</v>
+      </c>
+      <c r="V20" t="s">
+        <v>49</v>
+      </c>
+      <c r="W20" t="s">
         <v>481</v>
       </c>
-      <c r="O20">
-        <v>123456</v>
-      </c>
-      <c r="S20" t="s">
-        <v>314</v>
-      </c>
-      <c r="T20" t="s">
-        <v>464</v>
-      </c>
-      <c r="U20" t="s">
-        <v>465</v>
-      </c>
-      <c r="W20" t="s">
-        <v>314</v>
-      </c>
-      <c r="X20" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA20">
+      <c r="Y20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z20">
         <v>1000</v>
+      </c>
+      <c r="AB20">
+        <v>5</v>
       </c>
       <c r="AC20">
         <v>5</v>
       </c>
       <c r="AD20">
-        <v>5</v>
-      </c>
-      <c r="AE20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>479</v>
-      </c>
-      <c r="D21" t="s">
-        <v>480</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>483</v>
-      </c>
-      <c r="G21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>100000</v>
-      </c>
-      <c r="K21" t="s">
-        <v>423</v>
-      </c>
-      <c r="L21">
-        <v>2001</v>
-      </c>
-      <c r="M21">
-        <v>245</v>
-      </c>
-      <c r="N21" t="s">
-        <v>481</v>
-      </c>
-      <c r="O21">
-        <v>123456</v>
-      </c>
-      <c r="S21" t="s">
-        <v>314</v>
-      </c>
-      <c r="T21" t="s">
-        <v>464</v>
-      </c>
-      <c r="U21" t="s">
-        <v>465</v>
-      </c>
-      <c r="W21" t="s">
-        <v>314</v>
-      </c>
-      <c r="X21" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA21">
-        <v>1000</v>
-      </c>
-      <c r="AC21">
-        <v>5</v>
-      </c>
-      <c r="AD21">
-        <v>5</v>
-      </c>
-      <c r="AE21">
         <v>5</v>
       </c>
     </row>
@@ -52901,377 +53309,962 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1D0593-06F1-1341-B518-B1BD152C56B0}">
-  <dimension ref="A2:A73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C765D4F-B0ED-4700-8BBC-AAD493E09528}">
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="152.453125" customWidth="1"/>
-    <col min="2" max="2" width="29.08984375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>70</v>
+    <row r="1" spans="1:18" ht="240">
+      <c r="A1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J1" t="s">
+        <v>492</v>
+      </c>
+      <c r="K1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L1" t="s">
+        <v>493</v>
+      </c>
+      <c r="M1" t="s">
+        <v>507</v>
+      </c>
+      <c r="N1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O1" t="s">
+        <v>495</v>
+      </c>
+      <c r="P1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="R1" t="s">
+        <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>71</v>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2">
+        <v>100000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G2">
+        <v>1974</v>
+      </c>
+      <c r="H2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I2" t="s">
+        <v>499</v>
+      </c>
+      <c r="J2" t="s">
+        <v>463</v>
+      </c>
+      <c r="K2">
+        <v>1999</v>
+      </c>
+      <c r="L2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>72</v>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D3">
+        <v>100000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G3">
+        <v>1974</v>
+      </c>
+      <c r="H3" t="s">
+        <v>422</v>
+      </c>
+      <c r="I3" t="s">
+        <v>499</v>
+      </c>
+      <c r="J3" t="s">
+        <v>463</v>
+      </c>
+      <c r="K3">
+        <v>1999</v>
+      </c>
+      <c r="L3" t="s">
+        <v>314</v>
+      </c>
+      <c r="M3" t="s">
+        <v>312</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>73</v>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D4">
+        <v>100000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F4" t="s">
+        <v>482</v>
+      </c>
+      <c r="G4">
+        <v>1974</v>
+      </c>
+      <c r="H4" t="s">
+        <v>422</v>
+      </c>
+      <c r="I4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J4" t="s">
+        <v>463</v>
+      </c>
+      <c r="K4">
+        <v>1999</v>
+      </c>
+      <c r="L4" t="s">
+        <v>314</v>
+      </c>
+      <c r="M4" t="s">
+        <v>312</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>74</v>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D5">
+        <v>100000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F5" t="s">
+        <v>482</v>
+      </c>
+      <c r="G5">
+        <v>1974</v>
+      </c>
+      <c r="H5" t="s">
+        <v>422</v>
+      </c>
+      <c r="I5" t="s">
+        <v>499</v>
+      </c>
+      <c r="J5" t="s">
+        <v>463</v>
+      </c>
+      <c r="K5">
+        <v>1999</v>
+      </c>
+      <c r="L5" t="s">
+        <v>314</v>
+      </c>
+      <c r="M5" t="s">
+        <v>312</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>75</v>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D6">
+        <v>100000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>502</v>
+      </c>
+      <c r="F6" t="s">
+        <v>482</v>
+      </c>
+      <c r="G6">
+        <v>1974</v>
+      </c>
+      <c r="H6" t="s">
+        <v>422</v>
+      </c>
+      <c r="I6" t="s">
+        <v>499</v>
+      </c>
+      <c r="J6" t="s">
+        <v>463</v>
+      </c>
+      <c r="K6">
+        <v>1999</v>
+      </c>
+      <c r="L6" t="s">
+        <v>314</v>
+      </c>
+      <c r="M6" t="s">
+        <v>312</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>76</v>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7">
+        <v>100000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G7">
+        <v>1974</v>
+      </c>
+      <c r="H7" t="s">
+        <v>422</v>
+      </c>
+      <c r="I7" t="s">
+        <v>499</v>
+      </c>
+      <c r="J7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K7">
+        <v>1999</v>
+      </c>
+      <c r="L7" t="s">
+        <v>314</v>
+      </c>
+      <c r="M7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>77</v>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>489</v>
+      </c>
+      <c r="D8">
+        <v>100000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F8" t="s">
+        <v>482</v>
+      </c>
+      <c r="G8">
+        <v>1974</v>
+      </c>
+      <c r="H8" t="s">
+        <v>422</v>
+      </c>
+      <c r="I8" t="s">
+        <v>499</v>
+      </c>
+      <c r="J8" t="s">
+        <v>463</v>
+      </c>
+      <c r="K8">
+        <v>1999</v>
+      </c>
+      <c r="L8" t="s">
+        <v>314</v>
+      </c>
+      <c r="M8" t="s">
+        <v>312</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>78</v>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>489</v>
+      </c>
+      <c r="D9">
+        <v>100000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>505</v>
+      </c>
+      <c r="F9" t="s">
+        <v>482</v>
+      </c>
+      <c r="G9">
+        <v>1974</v>
+      </c>
+      <c r="H9" t="s">
+        <v>422</v>
+      </c>
+      <c r="I9" t="s">
+        <v>499</v>
+      </c>
+      <c r="J9" t="s">
+        <v>463</v>
+      </c>
+      <c r="K9">
+        <v>1999</v>
+      </c>
+      <c r="L9" t="s">
+        <v>314</v>
+      </c>
+      <c r="M9" t="s">
+        <v>312</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>79</v>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10">
+        <v>100000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>498</v>
+      </c>
+      <c r="F10" t="s">
+        <v>482</v>
+      </c>
+      <c r="G10">
+        <v>1974</v>
+      </c>
+      <c r="H10" t="s">
+        <v>422</v>
+      </c>
+      <c r="I10" t="s">
+        <v>499</v>
+      </c>
+      <c r="J10" t="s">
+        <v>463</v>
+      </c>
+      <c r="K10">
+        <v>1999</v>
+      </c>
+      <c r="L10" t="s">
+        <v>314</v>
+      </c>
+      <c r="M10" t="s">
+        <v>312</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>80</v>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D11">
+        <v>100000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>498</v>
+      </c>
+      <c r="F11" t="s">
+        <v>482</v>
+      </c>
+      <c r="G11">
+        <v>1974</v>
+      </c>
+      <c r="H11" t="s">
+        <v>422</v>
+      </c>
+      <c r="I11" t="s">
+        <v>499</v>
+      </c>
+      <c r="J11" t="s">
+        <v>463</v>
+      </c>
+      <c r="K11">
+        <v>1999</v>
+      </c>
+      <c r="L11" t="s">
+        <v>314</v>
+      </c>
+      <c r="M11" t="s">
+        <v>312</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>81</v>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12">
+        <v>100000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>498</v>
+      </c>
+      <c r="F12" t="s">
+        <v>482</v>
+      </c>
+      <c r="G12">
+        <v>1974</v>
+      </c>
+      <c r="H12" t="s">
+        <v>422</v>
+      </c>
+      <c r="I12" t="s">
+        <v>499</v>
+      </c>
+      <c r="J12" t="s">
+        <v>463</v>
+      </c>
+      <c r="K12">
+        <v>1999</v>
+      </c>
+      <c r="L12" t="s">
+        <v>314</v>
+      </c>
+      <c r="M12" t="s">
+        <v>312</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>82</v>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>449</v>
+      </c>
+      <c r="D13">
+        <v>100000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>498</v>
+      </c>
+      <c r="F13" t="s">
+        <v>482</v>
+      </c>
+      <c r="G13">
+        <v>1974</v>
+      </c>
+      <c r="H13" t="s">
+        <v>422</v>
+      </c>
+      <c r="I13" t="s">
+        <v>499</v>
+      </c>
+      <c r="J13" t="s">
+        <v>463</v>
+      </c>
+      <c r="K13">
+        <v>1999</v>
+      </c>
+      <c r="L13" t="s">
+        <v>314</v>
+      </c>
+      <c r="M13" t="s">
+        <v>312</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>83</v>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>490</v>
+      </c>
+      <c r="D14">
+        <v>100000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>498</v>
+      </c>
+      <c r="F14" t="s">
+        <v>482</v>
+      </c>
+      <c r="G14">
+        <v>1974</v>
+      </c>
+      <c r="H14" t="s">
+        <v>422</v>
+      </c>
+      <c r="I14" t="s">
+        <v>499</v>
+      </c>
+      <c r="J14" t="s">
+        <v>463</v>
+      </c>
+      <c r="K14">
+        <v>1999</v>
+      </c>
+      <c r="L14" t="s">
+        <v>314</v>
+      </c>
+      <c r="M14" t="s">
+        <v>312</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>84</v>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>493</v>
+      </c>
+      <c r="D15">
+        <v>100000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>498</v>
+      </c>
+      <c r="F15" t="s">
+        <v>482</v>
+      </c>
+      <c r="G15">
+        <v>1974</v>
+      </c>
+      <c r="H15" t="s">
+        <v>422</v>
+      </c>
+      <c r="I15" t="s">
+        <v>499</v>
+      </c>
+      <c r="J15" t="s">
+        <v>463</v>
+      </c>
+      <c r="K15">
+        <v>1999</v>
+      </c>
+      <c r="L15" t="s">
+        <v>314</v>
+      </c>
+      <c r="M15" t="s">
+        <v>312</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>85</v>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>491</v>
+      </c>
+      <c r="D16">
+        <v>100000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>498</v>
+      </c>
+      <c r="F16" t="s">
+        <v>482</v>
+      </c>
+      <c r="G16">
+        <v>1974</v>
+      </c>
+      <c r="H16" t="s">
+        <v>422</v>
+      </c>
+      <c r="I16" t="s">
+        <v>499</v>
+      </c>
+      <c r="J16" t="s">
+        <v>463</v>
+      </c>
+      <c r="K16">
+        <v>1999</v>
+      </c>
+      <c r="L16" t="s">
+        <v>314</v>
+      </c>
+      <c r="M16" t="s">
+        <v>312</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>86</v>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>494</v>
+      </c>
+      <c r="D17">
+        <v>100000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>498</v>
+      </c>
+      <c r="F17" t="s">
+        <v>482</v>
+      </c>
+      <c r="G17">
+        <v>1974</v>
+      </c>
+      <c r="H17" t="s">
+        <v>422</v>
+      </c>
+      <c r="I17" t="s">
+        <v>499</v>
+      </c>
+      <c r="J17" t="s">
+        <v>463</v>
+      </c>
+      <c r="K17">
+        <v>1999</v>
+      </c>
+      <c r="L17" t="s">
+        <v>314</v>
+      </c>
+      <c r="M17" t="s">
+        <v>312</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>87</v>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D18">
+        <v>100000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>498</v>
+      </c>
+      <c r="F18" t="s">
+        <v>482</v>
+      </c>
+      <c r="G18">
+        <v>1974</v>
+      </c>
+      <c r="H18" t="s">
+        <v>422</v>
+      </c>
+      <c r="I18" t="s">
+        <v>499</v>
+      </c>
+      <c r="J18" t="s">
+        <v>463</v>
+      </c>
+      <c r="K18">
+        <v>1999</v>
+      </c>
+      <c r="L18" t="s">
+        <v>314</v>
+      </c>
+      <c r="M18" t="s">
+        <v>312</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>88</v>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D19">
+        <v>100000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>498</v>
+      </c>
+      <c r="F19" t="s">
+        <v>482</v>
+      </c>
+      <c r="G19">
+        <v>1974</v>
+      </c>
+      <c r="H19" t="s">
+        <v>422</v>
+      </c>
+      <c r="I19" t="s">
+        <v>499</v>
+      </c>
+      <c r="J19" t="s">
+        <v>463</v>
+      </c>
+      <c r="K19">
+        <v>1999</v>
+      </c>
+      <c r="L19" t="s">
+        <v>314</v>
+      </c>
+      <c r="M19" t="s">
+        <v>312</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>141</v>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>506</v>
+      </c>
+      <c r="D20">
+        <v>100000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>498</v>
+      </c>
+      <c r="F20" t="s">
+        <v>482</v>
+      </c>
+      <c r="G20">
+        <v>1974</v>
+      </c>
+      <c r="H20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I20" t="s">
+        <v>499</v>
+      </c>
+      <c r="J20" t="s">
+        <v>463</v>
+      </c>
+      <c r="K20">
+        <v>1999</v>
+      </c>
+      <c r="L20" t="s">
+        <v>314</v>
+      </c>
+      <c r="M20" t="s">
+        <v>312</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -53280,14 +54273,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="16e03651-acd4-40f0-82ea-ba55e12251a9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="39c968c6-d81e-4a40-af5e-103bfa8ea621">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53540,21 +54531,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="16e03651-acd4-40f0-82ea-ba55e12251a9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="39c968c6-d81e-4a40-af5e-103bfa8ea621">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DE6B354-43A9-4490-9EF5-3F7471DCEA9A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{488A6D9C-A748-45FA-846F-A9AD5EC1A9F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16e03651-acd4-40f0-82ea-ba55e12251a9"/>
-    <ds:schemaRef ds:uri="39c968c6-d81e-4a40-af5e-103bfa8ea621"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -53579,9 +54569,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{488A6D9C-A748-45FA-846F-A9AD5EC1A9F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DE6B354-43A9-4490-9EF5-3F7471DCEA9A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16e03651-acd4-40f0-82ea-ba55e12251a9"/>
+    <ds:schemaRef ds:uri="39c968c6-d81e-4a40-af5e-103bfa8ea621"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/NIMBIS.xlsx
+++ b/src/NIMBIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NathanielS\Documents\GitHub\qa-automation-nimbus\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525FFF9E-2282-4B4E-BDE7-383BEAD109AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6696B06A-EDE9-4B33-A920-CF6E7AE084A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="4" activeTab="7" xr2:uid="{A48C591E-A447-324F-80BA-5B973C426F33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="4" activeTab="5" xr2:uid="{A48C591E-A447-324F-80BA-5B973C426F33}"/>
   </bookViews>
   <sheets>
     <sheet name=" Client Test cases" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20420" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20484" uniqueCount="857">
   <si>
     <t>ITC check consent</t>
   </si>
@@ -2287,9 +2287,6 @@
     <t>Coastal</t>
   </si>
   <si>
-    <t>Inland and coastal</t>
-  </si>
-  <si>
     <t>Boat club in locked storage facility</t>
   </si>
   <si>
@@ -2503,9 +2500,6 @@
     <t>Engine Types</t>
   </si>
   <si>
-    <t xml:space="preserve">Type </t>
-  </si>
-  <si>
     <t>Risk Address</t>
   </si>
   <si>
@@ -2634,6 +2628,12 @@
   <si>
     <t>P@ssword99</t>
   </si>
+  <si>
+    <t>Type Engine</t>
+  </si>
+  <si>
+    <t>Inland and Coastal</t>
+  </si>
 </sst>
 </file>
 
@@ -2750,7 +2750,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
@@ -2775,6 +2775,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="8" builtinId="3"/>
@@ -74611,10 +74612,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5248194-E493-469A-96FA-166A9DDF868A}">
-  <dimension ref="A1:AW64"/>
+  <dimension ref="A1:AX64"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AR1" sqref="AR1"/>
+    <sheetView tabSelected="1" topLeftCell="V25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AH44" sqref="AH44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -74655,15 +74656,16 @@
     <col min="40" max="41" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="8" customWidth="1"/>
     <col min="43" max="43" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.88671875" customWidth="1"/>
+    <col min="44" max="44" width="12.88671875" style="3" customWidth="1"/>
     <col min="45" max="45" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="19" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="15" customFormat="1" ht="15.75">
+    <row r="1" spans="1:50" s="15" customFormat="1" ht="15.75">
       <c r="A1" s="15" t="s">
         <v>47</v>
       </c>
@@ -74671,40 +74673,40 @@
         <v>225</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>752</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>753</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>442</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>721</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>722</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>723</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R1" s="15" t="s">
         <v>677</v>
@@ -74728,10 +74730,10 @@
         <v>434</v>
       </c>
       <c r="AA1" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="AB1" s="15" t="s">
         <v>776</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>777</v>
       </c>
       <c r="AD1" s="15" t="s">
         <v>682</v>
@@ -74740,13 +74742,13 @@
         <v>701</v>
       </c>
       <c r="AF1" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AG1" s="15" t="s">
         <v>727</v>
       </c>
       <c r="AH1" s="15" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AI1" s="15" t="s">
         <v>728</v>
@@ -74770,48 +74772,51 @@
         <v>730</v>
       </c>
       <c r="AQ1" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="AR1" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>778</v>
       </c>
       <c r="AS1" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="AT1" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AU1" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="AV1" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="AU1" s="15" t="s">
-        <v>780</v>
-      </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AW1" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="AW1" s="15" t="s">
-        <v>797</v>
+      <c r="AX1" s="15" t="s">
+        <v>855</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="16" customFormat="1" ht="15.75">
+    <row r="2" spans="1:50" s="16" customFormat="1" ht="15.75">
       <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E2" s="18">
         <v>2</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I2" s="17">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N2" s="20" t="s">
         <v>1</v>
@@ -74820,7 +74825,7 @@
         <v>2012</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q2" t="s">
         <v>732</v>
@@ -74862,10 +74867,10 @@
         <v>0</v>
       </c>
       <c r="AQ2" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR2" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR2" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS2" s="20">
         <v>2019</v>
@@ -74877,33 +74882,36 @@
         <v>26183</v>
       </c>
       <c r="AV2" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW2" s="20" t="s">
-        <v>783</v>
+        <v>782</v>
+      </c>
+      <c r="AX2" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="16" customFormat="1" ht="15.75">
+    <row r="3" spans="1:50" s="16" customFormat="1" ht="15.75">
       <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>753</v>
       </c>
-      <c r="E3" s="17">
-        <v>1</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>754</v>
-      </c>
       <c r="I3" s="17">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N3" s="20" t="s">
         <v>1</v>
@@ -74912,7 +74920,7 @@
         <v>2012</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q3" t="s">
         <v>732</v>
@@ -74954,10 +74962,10 @@
         <v>1</v>
       </c>
       <c r="AQ3" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR3" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR3" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS3" s="20">
         <v>2003</v>
@@ -74969,33 +74977,36 @@
         <v>7357</v>
       </c>
       <c r="AV3" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW3" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
+      </c>
+      <c r="AX3" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="16" customFormat="1" ht="15.75">
+    <row r="4" spans="1:50" s="16" customFormat="1" ht="15.75">
       <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E4" s="17">
         <v>1</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I4" s="17">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N4" s="20" t="s">
         <v>1</v>
@@ -75004,7 +75015,7 @@
         <v>2012</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q4" t="s">
         <v>732</v>
@@ -75046,10 +75057,10 @@
         <v>2</v>
       </c>
       <c r="AQ4" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR4" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR4" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS4" s="20">
         <v>1997</v>
@@ -75061,33 +75072,36 @@
         <v>17765</v>
       </c>
       <c r="AV4" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW4" s="20" t="s">
-        <v>785</v>
+        <v>784</v>
+      </c>
+      <c r="AX4" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="16" customFormat="1" ht="15.75">
+    <row r="5" spans="1:50" s="16" customFormat="1" ht="15.75">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I5" s="17">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N5" s="20" t="s">
         <v>1</v>
@@ -75096,7 +75110,7 @@
         <v>2012</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q5" t="s">
         <v>732</v>
@@ -75138,10 +75152,10 @@
         <v>3</v>
       </c>
       <c r="AQ5" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR5" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR5" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS5" s="20">
         <v>1994</v>
@@ -75153,33 +75167,36 @@
         <v>32311</v>
       </c>
       <c r="AV5" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW5" s="20" t="s">
-        <v>786</v>
+        <v>785</v>
+      </c>
+      <c r="AX5" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="16" customFormat="1" ht="15.75">
+    <row r="6" spans="1:50" s="16" customFormat="1" ht="15.75">
       <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E6" s="17">
         <v>1</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I6" s="17">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N6" s="20" t="s">
         <v>1</v>
@@ -75188,7 +75205,7 @@
         <v>2012</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q6" t="s">
         <v>732</v>
@@ -75230,10 +75247,10 @@
         <v>4</v>
       </c>
       <c r="AQ6" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR6" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR6" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS6" s="20">
         <v>2021</v>
@@ -75245,33 +75262,36 @@
         <v>39965</v>
       </c>
       <c r="AV6" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW6" s="20" t="s">
-        <v>787</v>
+        <v>786</v>
+      </c>
+      <c r="AX6" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="7" spans="1:49" s="16" customFormat="1" ht="15.75">
+    <row r="7" spans="1:50" s="16" customFormat="1" ht="15.75">
       <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E7" s="17">
         <v>1</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I7" s="17">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N7" s="20" t="s">
         <v>1</v>
@@ -75280,7 +75300,7 @@
         <v>2012</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q7" t="s">
         <v>732</v>
@@ -75322,10 +75342,10 @@
         <v>5</v>
       </c>
       <c r="AQ7" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR7" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR7" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS7" s="20">
         <v>1996</v>
@@ -75337,33 +75357,36 @@
         <v>38943</v>
       </c>
       <c r="AV7" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW7" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
+      </c>
+      <c r="AX7" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:50">
       <c r="A8" s="20">
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E8" s="17">
         <v>1</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I8" s="17">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N8" s="20" t="s">
         <v>1</v>
@@ -75372,7 +75395,7 @@
         <v>2012</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q8" t="s">
         <v>732</v>
@@ -75414,10 +75437,10 @@
         <v>6</v>
       </c>
       <c r="AQ8" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR8" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR8" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS8" s="14">
         <v>2001</v>
@@ -75429,33 +75452,36 @@
         <v>17442</v>
       </c>
       <c r="AV8" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AW8" s="14" t="s">
-        <v>789</v>
+        <v>788</v>
+      </c>
+      <c r="AX8" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:50">
       <c r="A9" s="20">
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I9" s="17">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="N9" s="20" t="s">
         <v>1</v>
@@ -75464,7 +75490,7 @@
         <v>2012</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q9" t="s">
         <v>732</v>
@@ -75506,10 +75532,10 @@
         <v>7</v>
       </c>
       <c r="AQ9" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR9" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR9" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS9" s="14">
         <v>1995</v>
@@ -75521,33 +75547,36 @@
         <v>37392</v>
       </c>
       <c r="AV9" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="AW9" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="AW9" s="14" t="s">
-        <v>791</v>
+      <c r="AX9" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:50">
       <c r="A10" s="20">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E10" s="17">
         <v>1</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I10" s="17">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N10" s="20" t="s">
         <v>1</v>
@@ -75556,7 +75585,7 @@
         <v>2012</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q10" t="s">
         <v>732</v>
@@ -75598,10 +75627,10 @@
         <v>8</v>
       </c>
       <c r="AQ10" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR10" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR10" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS10" s="14">
         <v>2017</v>
@@ -75613,18 +75642,21 @@
         <v>27857</v>
       </c>
       <c r="AV10" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AW10" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
+      </c>
+      <c r="AX10" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:50">
       <c r="A11" s="20">
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E11" s="17">
         <v>1</v>
@@ -75636,10 +75668,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N11" s="20" t="s">
         <v>1</v>
@@ -75648,7 +75680,7 @@
         <v>2012</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q11" t="s">
         <v>732</v>
@@ -75690,10 +75722,10 @@
         <v>9</v>
       </c>
       <c r="AQ11" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR11" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR11" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS11" s="14">
         <v>1993</v>
@@ -75705,33 +75737,36 @@
         <v>14913</v>
       </c>
       <c r="AV11" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW11" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
+      </c>
+      <c r="AX11" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:50">
       <c r="A12" s="20">
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E12" s="17">
         <v>1</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I12" s="17">
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N12" s="20" t="s">
         <v>1</v>
@@ -75740,7 +75775,7 @@
         <v>2012</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q12" t="s">
         <v>732</v>
@@ -75782,10 +75817,10 @@
         <v>10</v>
       </c>
       <c r="AQ12" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR12" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR12" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS12" s="20">
         <v>2019</v>
@@ -75797,33 +75832,36 @@
         <v>26183</v>
       </c>
       <c r="AV12" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW12" s="20" t="s">
-        <v>783</v>
+        <v>782</v>
+      </c>
+      <c r="AX12" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:50">
       <c r="A13" s="20">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E13" s="17">
         <v>1</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I13" s="17">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N13" s="18" t="s">
         <v>49</v>
@@ -75832,7 +75870,7 @@
         <v>2012</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q13" t="s">
         <v>732</v>
@@ -75874,10 +75912,10 @@
         <v>11</v>
       </c>
       <c r="AQ13" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR13" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR13" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS13" s="20">
         <v>2003</v>
@@ -75889,33 +75927,36 @@
         <v>7357</v>
       </c>
       <c r="AV13" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW13" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
+      </c>
+      <c r="AX13" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:50">
       <c r="A14" s="20">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E14" s="17">
         <v>1</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I14" s="17">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N14" s="18" t="s">
         <v>1</v>
@@ -75924,7 +75965,7 @@
         <v>2012</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q14" t="s">
         <v>732</v>
@@ -75966,10 +76007,10 @@
         <v>12</v>
       </c>
       <c r="AQ14" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR14" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR14" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS14" s="20">
         <v>1997</v>
@@ -75981,13 +76022,16 @@
         <v>17765</v>
       </c>
       <c r="AV14" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW14" s="20" t="s">
-        <v>785</v>
+        <v>784</v>
+      </c>
+      <c r="AX14" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:50">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -75998,16 +76042,16 @@
         <v>1</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I15" s="17">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N15" s="20" t="s">
         <v>1</v>
@@ -76016,7 +76060,7 @@
         <v>2012</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q15" t="s">
         <v>732</v>
@@ -76058,10 +76102,10 @@
         <v>13</v>
       </c>
       <c r="AQ15" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR15" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR15" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS15" s="20">
         <v>1994</v>
@@ -76073,33 +76117,36 @@
         <v>32311</v>
       </c>
       <c r="AV15" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW15" s="20" t="s">
-        <v>786</v>
+        <v>785</v>
+      </c>
+      <c r="AX15" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:50">
       <c r="A16" s="20">
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E16" s="17">
         <v>1</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I16" s="17">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N16" s="20" t="s">
         <v>1</v>
@@ -76108,7 +76155,7 @@
         <v>2012</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q16" t="s">
         <v>732</v>
@@ -76150,10 +76197,10 @@
         <v>14</v>
       </c>
       <c r="AQ16" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR16" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR16" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS16" s="20">
         <v>2021</v>
@@ -76165,33 +76212,36 @@
         <v>39965</v>
       </c>
       <c r="AV16" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW16" s="20" t="s">
-        <v>787</v>
+        <v>786</v>
+      </c>
+      <c r="AX16" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:50">
       <c r="A17" s="20">
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E17" s="17">
         <v>1</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I17" s="17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N17" s="20" t="s">
         <v>1</v>
@@ -76200,7 +76250,7 @@
         <v>2012</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="Q17" t="s">
         <v>732</v>
@@ -76242,10 +76292,10 @@
         <v>15</v>
       </c>
       <c r="AQ17" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR17" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR17" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS17" s="20">
         <v>1996</v>
@@ -76257,33 +76307,36 @@
         <v>38943</v>
       </c>
       <c r="AV17" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW17" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
+      </c>
+      <c r="AX17" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:50">
       <c r="A18" s="20">
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E18" s="17">
         <v>1</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I18" s="17">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N18" s="20" t="s">
         <v>1</v>
@@ -76292,7 +76345,7 @@
         <v>2012</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="Q18" t="s">
         <v>732</v>
@@ -76334,10 +76387,10 @@
         <v>16</v>
       </c>
       <c r="AQ18" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR18" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR18" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS18" s="14">
         <v>2001</v>
@@ -76349,33 +76402,36 @@
         <v>17442</v>
       </c>
       <c r="AV18" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AW18" s="14" t="s">
-        <v>789</v>
+        <v>788</v>
+      </c>
+      <c r="AX18" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:50">
       <c r="A19" s="20">
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E19" s="17">
         <v>1</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I19" s="17">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="N19" s="20" t="s">
         <v>1</v>
@@ -76384,7 +76440,7 @@
         <v>2012</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Q19" t="s">
         <v>732</v>
@@ -76426,10 +76482,10 @@
         <v>17</v>
       </c>
       <c r="AQ19" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR19" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR19" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS19" s="14">
         <v>1995</v>
@@ -76441,33 +76497,36 @@
         <v>37392</v>
       </c>
       <c r="AV19" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="AW19" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="AW19" s="14" t="s">
-        <v>791</v>
+      <c r="AX19" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:50">
       <c r="A20" s="20">
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E20" s="17">
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I20" s="17">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N20" s="20" t="s">
         <v>1</v>
@@ -76476,7 +76535,7 @@
         <v>2012</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Q20" t="s">
         <v>732</v>
@@ -76518,10 +76577,10 @@
         <v>18</v>
       </c>
       <c r="AQ20" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR20" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR20" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS20" s="14">
         <v>2017</v>
@@ -76533,33 +76592,36 @@
         <v>27857</v>
       </c>
       <c r="AV20" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AW20" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
+      </c>
+      <c r="AX20" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:50">
       <c r="A21" s="20">
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E21" s="17">
         <v>1</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I21" s="17">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N21" s="20" t="s">
         <v>1</v>
@@ -76568,7 +76630,7 @@
         <v>2012</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q21" t="s">
         <v>732</v>
@@ -76610,10 +76672,10 @@
         <v>19</v>
       </c>
       <c r="AQ21" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR21" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR21" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS21" s="14">
         <v>1993</v>
@@ -76625,33 +76687,36 @@
         <v>14913</v>
       </c>
       <c r="AV21" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW21" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
+      </c>
+      <c r="AX21" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:50">
       <c r="A22" s="20">
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E22" s="17">
         <v>1</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I22" s="17">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N22" s="20" t="s">
         <v>1</v>
@@ -76660,7 +76725,7 @@
         <v>2012</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q22" t="s">
         <v>732</v>
@@ -76702,10 +76767,10 @@
         <v>20</v>
       </c>
       <c r="AQ22" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR22" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR22" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS22" s="20">
         <v>2019</v>
@@ -76717,33 +76782,36 @@
         <v>26183</v>
       </c>
       <c r="AV22" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW22" s="20" t="s">
-        <v>783</v>
+        <v>782</v>
+      </c>
+      <c r="AX22" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:50">
       <c r="A23" s="20">
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E23" s="17">
         <v>1</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I23" s="17">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N23" s="20" t="s">
         <v>1</v>
@@ -76752,7 +76820,7 @@
         <v>2012</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Q23" t="s">
         <v>732</v>
@@ -76794,10 +76862,10 @@
         <v>21</v>
       </c>
       <c r="AQ23" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR23" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR23" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS23" s="20">
         <v>2003</v>
@@ -76809,33 +76877,36 @@
         <v>7357</v>
       </c>
       <c r="AV23" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW23" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
+      </c>
+      <c r="AX23" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:50">
       <c r="A24" s="20">
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E24" s="17">
         <v>1</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I24" s="17">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N24" s="20" t="s">
         <v>1</v>
@@ -76844,7 +76915,7 @@
         <v>2012</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q24" t="s">
         <v>732</v>
@@ -76886,10 +76957,10 @@
         <v>22</v>
       </c>
       <c r="AQ24" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR24" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR24" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS24" s="20">
         <v>1997</v>
@@ -76901,33 +76972,36 @@
         <v>17765</v>
       </c>
       <c r="AV24" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW24" s="20" t="s">
-        <v>785</v>
+        <v>784</v>
+      </c>
+      <c r="AX24" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:50">
       <c r="A25" s="20">
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E25" s="17">
         <v>1</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I25" s="17">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N25" s="20" t="s">
         <v>1</v>
@@ -76936,7 +77010,7 @@
         <v>2012</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="Q25" t="s">
         <v>732</v>
@@ -76978,10 +77052,10 @@
         <v>23</v>
       </c>
       <c r="AQ25" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR25" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR25" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS25" s="20">
         <v>1994</v>
@@ -76993,33 +77067,36 @@
         <v>32311</v>
       </c>
       <c r="AV25" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW25" s="20" t="s">
-        <v>786</v>
+        <v>785</v>
+      </c>
+      <c r="AX25" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:50">
       <c r="A26" s="20">
         <v>25</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E26" s="17">
         <v>1</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I26" s="17">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N26" s="20" t="s">
         <v>1</v>
@@ -77028,7 +77105,7 @@
         <v>2012</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Q26" t="s">
         <v>732</v>
@@ -77070,10 +77147,10 @@
         <v>24</v>
       </c>
       <c r="AQ26" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR26" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR26" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS26" s="20">
         <v>2021</v>
@@ -77085,33 +77162,36 @@
         <v>39965</v>
       </c>
       <c r="AV26" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW26" s="20" t="s">
-        <v>787</v>
+        <v>786</v>
+      </c>
+      <c r="AX26" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:50">
       <c r="A27" s="20">
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E27" s="17">
         <v>1</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I27" s="17">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N27" s="20" t="s">
         <v>1</v>
@@ -77120,7 +77200,7 @@
         <v>2012</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="Q27" t="s">
         <v>732</v>
@@ -77162,10 +77242,10 @@
         <v>25</v>
       </c>
       <c r="AQ27" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR27" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR27" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS27" s="20">
         <v>1996</v>
@@ -77177,33 +77257,36 @@
         <v>38943</v>
       </c>
       <c r="AV27" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW27" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
+      </c>
+      <c r="AX27" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:50">
       <c r="A28" s="20">
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E28" s="17">
         <v>1</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I28" s="17">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N28" s="20" t="s">
         <v>1</v>
@@ -77212,7 +77295,7 @@
         <v>2012</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Q28" t="s">
         <v>732</v>
@@ -77254,10 +77337,10 @@
         <v>26</v>
       </c>
       <c r="AQ28" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR28" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR28" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS28" s="14">
         <v>2001</v>
@@ -77269,33 +77352,36 @@
         <v>17442</v>
       </c>
       <c r="AV28" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AW28" s="14" t="s">
-        <v>789</v>
+        <v>788</v>
+      </c>
+      <c r="AX28" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:50">
       <c r="A29" s="20">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E29" s="17">
         <v>1</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I29" s="17">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="N29" s="20" t="s">
         <v>1</v>
@@ -77304,7 +77390,7 @@
         <v>2012</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>732</v>
@@ -77346,10 +77432,10 @@
         <v>27</v>
       </c>
       <c r="AQ29" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR29" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR29" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS29" s="14">
         <v>1995</v>
@@ -77361,33 +77447,36 @@
         <v>37392</v>
       </c>
       <c r="AV29" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="AW29" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="AW29" s="14" t="s">
-        <v>791</v>
+      <c r="AX29" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:50">
       <c r="A30" s="20">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E30" s="17">
         <v>1</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I30" s="17">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N30" s="20" t="s">
         <v>1</v>
@@ -77396,7 +77485,7 @@
         <v>2012</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>736</v>
@@ -77438,10 +77527,10 @@
         <v>28</v>
       </c>
       <c r="AQ30" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR30" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR30" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS30" s="14">
         <v>2017</v>
@@ -77453,33 +77542,36 @@
         <v>27857</v>
       </c>
       <c r="AV30" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AW30" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
+      </c>
+      <c r="AX30" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:50">
       <c r="A31" s="20">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E31" s="17">
         <v>1</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I31" s="17">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N31" s="20" t="s">
         <v>1</v>
@@ -77488,7 +77580,7 @@
         <v>2012</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>737</v>
@@ -77530,10 +77622,10 @@
         <v>29</v>
       </c>
       <c r="AQ31" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR31" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR31" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS31" s="14">
         <v>1993</v>
@@ -77545,33 +77637,36 @@
         <v>14913</v>
       </c>
       <c r="AV31" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW31" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
+      </c>
+      <c r="AX31" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:50">
       <c r="A32" s="20">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E32" s="17">
         <v>1</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I32" s="17">
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N32" s="20" t="s">
         <v>1</v>
@@ -77580,7 +77675,7 @@
         <v>2012</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>738</v>
@@ -77622,10 +77717,10 @@
         <v>30</v>
       </c>
       <c r="AQ32" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR32" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR32" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS32" s="20">
         <v>2019</v>
@@ -77637,33 +77732,36 @@
         <v>26183</v>
       </c>
       <c r="AV32" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW32" s="20" t="s">
-        <v>783</v>
+        <v>782</v>
+      </c>
+      <c r="AX32" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:50">
       <c r="A33" s="20">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E33" s="17">
         <v>1</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I33" s="17">
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N33" s="20" t="s">
         <v>1</v>
@@ -77672,7 +77770,7 @@
         <v>2012</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>290</v>
@@ -77714,10 +77812,10 @@
         <v>31</v>
       </c>
       <c r="AQ33" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR33" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR33" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS33" s="20">
         <v>2003</v>
@@ -77729,33 +77827,36 @@
         <v>7357</v>
       </c>
       <c r="AV33" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW33" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
+      </c>
+      <c r="AX33" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:50">
       <c r="A34" s="20">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E34" s="17">
         <v>1</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I34" s="17">
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N34" s="20" t="s">
         <v>1</v>
@@ -77764,7 +77865,7 @@
         <v>2012</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>292</v>
@@ -77806,10 +77907,10 @@
         <v>32</v>
       </c>
       <c r="AQ34" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR34" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR34" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS34" s="20">
         <v>1997</v>
@@ -77821,13 +77922,16 @@
         <v>17765</v>
       </c>
       <c r="AV34" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW34" s="20" t="s">
-        <v>785</v>
+        <v>784</v>
+      </c>
+      <c r="AX34" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:50">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -77838,16 +77942,16 @@
         <v>1</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I35" s="17">
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N35" s="20" t="s">
         <v>1</v>
@@ -77856,7 +77960,7 @@
         <v>2012</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q35" t="s">
         <v>732</v>
@@ -77898,10 +78002,10 @@
         <v>33</v>
       </c>
       <c r="AQ35" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR35" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR35" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS35" s="20">
         <v>1994</v>
@@ -77913,13 +78017,16 @@
         <v>32311</v>
       </c>
       <c r="AV35" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW35" s="20" t="s">
-        <v>786</v>
+        <v>785</v>
+      </c>
+      <c r="AX35" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:50">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -77930,16 +78037,16 @@
         <v>1</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I36" s="17">
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N36" s="20" t="s">
         <v>1</v>
@@ -77948,7 +78055,7 @@
         <v>2012</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q36" t="s">
         <v>732</v>
@@ -77990,10 +78097,10 @@
         <v>34</v>
       </c>
       <c r="AQ36" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR36" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR36" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS36" s="20">
         <v>2021</v>
@@ -78005,13 +78112,16 @@
         <v>39965</v>
       </c>
       <c r="AV36" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW36" s="20" t="s">
-        <v>787</v>
+        <v>786</v>
+      </c>
+      <c r="AX36" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:50">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -78022,16 +78132,16 @@
         <v>1</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I37" s="17">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N37" s="20" t="s">
         <v>1</v>
@@ -78040,7 +78150,7 @@
         <v>2012</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q37" t="s">
         <v>732</v>
@@ -78082,10 +78192,10 @@
         <v>35</v>
       </c>
       <c r="AQ37" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR37" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR37" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS37" s="20">
         <v>1996</v>
@@ -78097,13 +78207,16 @@
         <v>38943</v>
       </c>
       <c r="AV37" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW37" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
+      </c>
+      <c r="AX37" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:50">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -78114,16 +78227,16 @@
         <v>1</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I38" s="17">
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N38" s="20" t="s">
         <v>1</v>
@@ -78132,7 +78245,7 @@
         <v>2012</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q38" t="s">
         <v>732</v>
@@ -78174,10 +78287,10 @@
         <v>36</v>
       </c>
       <c r="AQ38" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR38" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR38" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS38" s="14">
         <v>2001</v>
@@ -78189,33 +78302,36 @@
         <v>17442</v>
       </c>
       <c r="AV38" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AW38" s="14" t="s">
-        <v>789</v>
+        <v>788</v>
+      </c>
+      <c r="AX38" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="39" spans="1:49">
+    <row r="39" spans="1:50">
       <c r="A39" s="20">
         <v>38</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E39" s="17">
         <v>1</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I39" s="17">
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="N39" s="20" t="s">
         <v>1</v>
@@ -78224,7 +78340,7 @@
         <v>2012</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q39" t="s">
         <v>732</v>
@@ -78266,10 +78382,10 @@
         <v>37</v>
       </c>
       <c r="AQ39" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR39" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR39" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS39" s="14">
         <v>1995</v>
@@ -78281,33 +78397,36 @@
         <v>37392</v>
       </c>
       <c r="AV39" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="AW39" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="AW39" s="14" t="s">
-        <v>791</v>
+      <c r="AX39" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="40" spans="1:49">
+    <row r="40" spans="1:50">
       <c r="A40" s="20">
         <v>39</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E40" s="17">
         <v>1</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I40" s="17">
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N40" s="20" t="s">
         <v>1</v>
@@ -78316,7 +78435,7 @@
         <v>2012</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q40" t="s">
         <v>732</v>
@@ -78358,10 +78477,10 @@
         <v>38</v>
       </c>
       <c r="AQ40" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR40" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR40" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS40" s="14">
         <v>2017</v>
@@ -78373,13 +78492,16 @@
         <v>27857</v>
       </c>
       <c r="AV40" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AW40" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
+      </c>
+      <c r="AX40" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="41" spans="1:49">
+    <row r="41" spans="1:50">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -78390,16 +78512,16 @@
         <v>1</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I41" s="17">
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N41" s="20" t="s">
         <v>1</v>
@@ -78408,7 +78530,7 @@
         <v>2012</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q41" t="s">
         <v>732</v>
@@ -78450,10 +78572,10 @@
         <v>39</v>
       </c>
       <c r="AQ41" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR41" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR41" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS41" s="14">
         <v>1993</v>
@@ -78465,33 +78587,36 @@
         <v>14913</v>
       </c>
       <c r="AV41" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW41" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
+      </c>
+      <c r="AX41" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:50">
       <c r="A42" s="20">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E42" s="17">
         <v>1</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I42" s="17">
         <v>0</v>
       </c>
       <c r="L42" t="s">
+        <v>806</v>
+      </c>
+      <c r="M42" s="20" t="s">
         <v>807</v>
-      </c>
-      <c r="M42" s="20" t="s">
-        <v>808</v>
       </c>
       <c r="N42" s="20" t="s">
         <v>1</v>
@@ -78500,7 +78625,7 @@
         <v>2012</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q42" t="s">
         <v>732</v>
@@ -78542,10 +78667,10 @@
         <v>40</v>
       </c>
       <c r="AQ42" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR42" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR42" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS42" s="20">
         <v>2019</v>
@@ -78557,33 +78682,36 @@
         <v>26183</v>
       </c>
       <c r="AV42" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW42" s="20" t="s">
-        <v>783</v>
+        <v>782</v>
+      </c>
+      <c r="AX42" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:50">
       <c r="A43" s="20">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E43" s="17">
         <v>1</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I43" s="17">
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N43" s="20" t="s">
         <v>1</v>
@@ -78592,7 +78720,7 @@
         <v>2012</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q43" t="s">
         <v>732</v>
@@ -78634,10 +78762,10 @@
         <v>41</v>
       </c>
       <c r="AQ43" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR43" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR43" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS43" s="20">
         <v>2003</v>
@@ -78649,33 +78777,36 @@
         <v>7357</v>
       </c>
       <c r="AV43" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW43" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
+      </c>
+      <c r="AX43" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:50">
       <c r="A44" s="20">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E44" s="17">
         <v>1</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I44" s="17">
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N44" s="20" t="s">
         <v>1</v>
@@ -78684,7 +78815,7 @@
         <v>2012</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q44" t="s">
         <v>732</v>
@@ -78708,7 +78839,7 @@
         <v>49</v>
       </c>
       <c r="AH44" s="1" t="s">
-        <v>741</v>
+        <v>856</v>
       </c>
       <c r="AI44" t="s">
         <v>735</v>
@@ -78726,10 +78857,10 @@
         <v>42</v>
       </c>
       <c r="AQ44" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR44" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR44" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS44" s="20">
         <v>1997</v>
@@ -78741,13 +78872,16 @@
         <v>17765</v>
       </c>
       <c r="AV44" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW44" s="20" t="s">
-        <v>785</v>
+        <v>784</v>
+      </c>
+      <c r="AX44" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:50">
       <c r="A45" s="20">
         <v>44</v>
       </c>
@@ -78758,16 +78892,16 @@
         <v>1</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I45" s="17">
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N45" s="20" t="s">
         <v>1</v>
@@ -78776,7 +78910,7 @@
         <v>2012</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q45" t="s">
         <v>732</v>
@@ -78803,7 +78937,7 @@
         <v>734</v>
       </c>
       <c r="AI45" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AJ45" s="20" t="s">
         <v>1</v>
@@ -78818,10 +78952,10 @@
         <v>43</v>
       </c>
       <c r="AQ45" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR45" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR45" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS45" s="20">
         <v>1994</v>
@@ -78833,13 +78967,16 @@
         <v>32311</v>
       </c>
       <c r="AV45" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW45" s="20" t="s">
-        <v>786</v>
+        <v>785</v>
+      </c>
+      <c r="AX45" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:50">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -78850,16 +78987,16 @@
         <v>1</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I46" s="17">
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N46" s="20" t="s">
         <v>1</v>
@@ -78868,7 +79005,7 @@
         <v>2012</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q46" t="s">
         <v>732</v>
@@ -78910,10 +79047,10 @@
         <v>44</v>
       </c>
       <c r="AQ46" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR46" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR46" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS46" s="20">
         <v>2021</v>
@@ -78925,13 +79062,16 @@
         <v>39965</v>
       </c>
       <c r="AV46" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW46" s="20" t="s">
-        <v>787</v>
+        <v>786</v>
+      </c>
+      <c r="AX46" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="47" spans="1:49">
+    <row r="47" spans="1:50">
       <c r="A47" s="20">
         <v>46</v>
       </c>
@@ -78942,16 +79082,16 @@
         <v>1</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I47" s="17">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N47" s="20" t="s">
         <v>1</v>
@@ -78960,7 +79100,7 @@
         <v>2012</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q47" t="s">
         <v>732</v>
@@ -78987,7 +79127,7 @@
         <v>734</v>
       </c>
       <c r="AI47" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AJ47" s="20" t="s">
         <v>1</v>
@@ -79002,10 +79142,10 @@
         <v>45</v>
       </c>
       <c r="AQ47" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR47" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR47" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS47" s="20">
         <v>1996</v>
@@ -79017,13 +79157,16 @@
         <v>38943</v>
       </c>
       <c r="AV47" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW47" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
+      </c>
+      <c r="AX47" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="48" spans="1:49">
+    <row r="48" spans="1:50">
       <c r="A48" s="20">
         <v>47</v>
       </c>
@@ -79034,16 +79177,16 @@
         <v>1</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I48" s="17">
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N48" s="20" t="s">
         <v>1</v>
@@ -79052,7 +79195,7 @@
         <v>2012</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q48" t="s">
         <v>732</v>
@@ -79079,7 +79222,7 @@
         <v>734</v>
       </c>
       <c r="AI48" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AJ48" s="20" t="s">
         <v>1</v>
@@ -79094,10 +79237,10 @@
         <v>46</v>
       </c>
       <c r="AQ48" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR48" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR48" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS48" s="14">
         <v>2001</v>
@@ -79109,13 +79252,16 @@
         <v>17442</v>
       </c>
       <c r="AV48" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AW48" s="14" t="s">
-        <v>789</v>
+        <v>788</v>
+      </c>
+      <c r="AX48" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="49" spans="1:49">
+    <row r="49" spans="1:50">
       <c r="A49" s="20">
         <v>48</v>
       </c>
@@ -79126,16 +79272,16 @@
         <v>1</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I49" s="17">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="N49" s="20" t="s">
         <v>1</v>
@@ -79144,7 +79290,7 @@
         <v>2012</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q49" t="s">
         <v>732</v>
@@ -79171,7 +79317,7 @@
         <v>734</v>
       </c>
       <c r="AI49" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AJ49" s="20" t="s">
         <v>1</v>
@@ -79186,10 +79332,10 @@
         <v>47</v>
       </c>
       <c r="AQ49" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR49" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR49" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS49" s="14">
         <v>1995</v>
@@ -79201,13 +79347,16 @@
         <v>37392</v>
       </c>
       <c r="AV49" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="AW49" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="AW49" s="14" t="s">
-        <v>791</v>
+      <c r="AX49" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="50" spans="1:49">
+    <row r="50" spans="1:50">
       <c r="A50" s="20">
         <v>49</v>
       </c>
@@ -79218,16 +79367,16 @@
         <v>1</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I50" s="17">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N50" s="20" t="s">
         <v>1</v>
@@ -79236,7 +79385,7 @@
         <v>2012</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q50" t="s">
         <v>732</v>
@@ -79263,7 +79412,7 @@
         <v>734</v>
       </c>
       <c r="AI50" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AJ50" s="20" t="s">
         <v>1</v>
@@ -79278,10 +79427,10 @@
         <v>48</v>
       </c>
       <c r="AQ50" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR50" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR50" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS50" s="14">
         <v>2017</v>
@@ -79293,13 +79442,16 @@
         <v>27857</v>
       </c>
       <c r="AV50" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AW50" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
+      </c>
+      <c r="AX50" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="51" spans="1:49">
+    <row r="51" spans="1:50">
       <c r="A51" s="20">
         <v>50</v>
       </c>
@@ -79310,16 +79462,16 @@
         <v>1</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I51" s="17">
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N51" s="20" t="s">
         <v>1</v>
@@ -79328,7 +79480,7 @@
         <v>2012</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q51" t="s">
         <v>732</v>
@@ -79370,10 +79522,10 @@
         <v>49</v>
       </c>
       <c r="AQ51" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR51" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR51" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS51" s="14">
         <v>1993</v>
@@ -79385,13 +79537,16 @@
         <v>14913</v>
       </c>
       <c r="AV51" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW51" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
+      </c>
+      <c r="AX51" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="52" spans="1:49">
+    <row r="52" spans="1:50">
       <c r="A52" s="20">
         <v>51</v>
       </c>
@@ -79402,16 +79557,16 @@
         <v>1</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I52" s="17">
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N52" s="20" t="s">
         <v>1</v>
@@ -79420,7 +79575,7 @@
         <v>2012</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q52" t="s">
         <v>732</v>
@@ -79447,7 +79602,7 @@
         <v>734</v>
       </c>
       <c r="AI52" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AJ52" s="20" t="s">
         <v>1</v>
@@ -79462,10 +79617,10 @@
         <v>50</v>
       </c>
       <c r="AQ52" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR52" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR52" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS52" s="20">
         <v>2019</v>
@@ -79477,13 +79632,16 @@
         <v>26183</v>
       </c>
       <c r="AV52" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW52" s="20" t="s">
-        <v>783</v>
+        <v>782</v>
+      </c>
+      <c r="AX52" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="53" spans="1:49">
+    <row r="53" spans="1:50">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -79494,16 +79652,16 @@
         <v>1</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I53" s="17">
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N53" s="20" t="s">
         <v>1</v>
@@ -79512,7 +79670,7 @@
         <v>2012</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q53" t="s">
         <v>732</v>
@@ -79554,10 +79712,10 @@
         <v>51</v>
       </c>
       <c r="AQ53" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR53" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR53" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS53" s="20">
         <v>2003</v>
@@ -79569,13 +79727,16 @@
         <v>7357</v>
       </c>
       <c r="AV53" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW53" s="20" t="s">
-        <v>784</v>
+        <v>783</v>
+      </c>
+      <c r="AX53" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="54" spans="1:49">
+    <row r="54" spans="1:50">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -79586,16 +79747,16 @@
         <v>1</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I54" s="17">
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N54" s="20" t="s">
         <v>1</v>
@@ -79604,7 +79765,7 @@
         <v>2012</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q54" t="s">
         <v>732</v>
@@ -79646,10 +79807,10 @@
         <v>52</v>
       </c>
       <c r="AQ54" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR54" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR54" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS54" s="20">
         <v>1997</v>
@@ -79661,13 +79822,16 @@
         <v>17765</v>
       </c>
       <c r="AV54" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW54" s="20" t="s">
-        <v>785</v>
+        <v>784</v>
+      </c>
+      <c r="AX54" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="55" spans="1:49">
+    <row r="55" spans="1:50">
       <c r="A55" s="20">
         <v>54</v>
       </c>
@@ -79678,16 +79842,16 @@
         <v>1</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I55" s="17">
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N55" s="20" t="s">
         <v>1</v>
@@ -79696,7 +79860,7 @@
         <v>2012</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q55" t="s">
         <v>732</v>
@@ -79738,10 +79902,10 @@
         <v>411</v>
       </c>
       <c r="AQ55" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR55" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR55" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS55" s="20">
         <v>1994</v>
@@ -79753,33 +79917,36 @@
         <v>32311</v>
       </c>
       <c r="AV55" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW55" s="20" t="s">
-        <v>786</v>
+        <v>785</v>
+      </c>
+      <c r="AX55" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="56" spans="1:49">
+    <row r="56" spans="1:50">
       <c r="A56" s="20">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>779</v>
+        <v>855</v>
       </c>
       <c r="E56" s="17">
         <v>1</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I56" s="17">
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N56" s="20" t="s">
         <v>1</v>
@@ -79788,7 +79955,7 @@
         <v>2012</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q56" t="s">
         <v>732</v>
@@ -79830,10 +79997,10 @@
         <v>54</v>
       </c>
       <c r="AQ56" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR56" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR56" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS56" s="20">
         <v>2021</v>
@@ -79845,33 +80012,36 @@
         <v>39965</v>
       </c>
       <c r="AV56" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AW56" s="20" t="s">
-        <v>787</v>
+        <v>786</v>
+      </c>
+      <c r="AX56" s="18" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="57" spans="1:49">
+    <row r="57" spans="1:50">
       <c r="A57" s="20">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>779</v>
+        <v>855</v>
       </c>
       <c r="E57" s="17">
         <v>1</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I57" s="17">
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N57" s="20" t="s">
         <v>1</v>
@@ -79880,7 +80050,7 @@
         <v>2012</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q57" t="s">
         <v>732</v>
@@ -79922,10 +80092,10 @@
         <v>55</v>
       </c>
       <c r="AQ57" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="AR57" s="20" t="s">
         <v>781</v>
+      </c>
+      <c r="AR57" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS57" s="20">
         <v>1996</v>
@@ -79937,33 +80107,36 @@
         <v>38943</v>
       </c>
       <c r="AV57" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW57" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
+      </c>
+      <c r="AX57" s="18" t="s">
+        <v>781</v>
       </c>
     </row>
-    <row r="58" spans="1:49">
+    <row r="58" spans="1:50">
       <c r="A58" s="20">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>779</v>
+        <v>855</v>
       </c>
       <c r="E58" s="17">
         <v>1</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I58" s="17">
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N58" s="20" t="s">
         <v>1</v>
@@ -79972,7 +80145,7 @@
         <v>2012</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q58" t="s">
         <v>732</v>
@@ -80016,8 +80189,8 @@
       <c r="AQ58" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AR58" s="20" t="s">
-        <v>781</v>
+      <c r="AR58" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS58" s="14">
         <v>2001</v>
@@ -80029,33 +80202,36 @@
         <v>17442</v>
       </c>
       <c r="AV58" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AW58" s="14" t="s">
-        <v>789</v>
+        <v>788</v>
+      </c>
+      <c r="AX58" s="18" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="59" spans="1:49">
+    <row r="59" spans="1:50">
       <c r="A59" s="20">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>779</v>
+        <v>855</v>
       </c>
       <c r="E59" s="17">
         <v>1</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I59" s="17">
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="N59" s="20" t="s">
         <v>1</v>
@@ -80064,7 +80240,7 @@
         <v>2012</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q59" t="s">
         <v>732</v>
@@ -80108,8 +80284,8 @@
       <c r="AQ59" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AR59" s="20" t="s">
-        <v>781</v>
+      <c r="AR59" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS59" s="14">
         <v>1995</v>
@@ -80121,33 +80297,36 @@
         <v>37392</v>
       </c>
       <c r="AV59" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="AW59" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="AW59" s="14" t="s">
-        <v>791</v>
+      <c r="AX59" s="18" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="60" spans="1:49">
+    <row r="60" spans="1:50">
       <c r="A60" s="20">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E60" s="17">
         <v>1</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I60" s="17">
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N60" s="20" t="s">
         <v>1</v>
@@ -80156,7 +80335,7 @@
         <v>2012</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q60" t="s">
         <v>732</v>
@@ -80198,10 +80377,10 @@
         <v>58</v>
       </c>
       <c r="AQ60" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR60" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR60" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS60" s="21">
         <v>1995</v>
@@ -80213,33 +80392,36 @@
         <v>37392</v>
       </c>
       <c r="AV60" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="AW60" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="AW60" s="14" t="s">
-        <v>791</v>
+      <c r="AX60" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="61" spans="1:49">
+    <row r="61" spans="1:50">
       <c r="A61" s="20">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E61" s="17">
         <v>1</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I61" s="17">
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N61" s="20" t="s">
         <v>1</v>
@@ -80248,7 +80430,7 @@
         <v>2012</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q61" t="s">
         <v>732</v>
@@ -80290,10 +80472,10 @@
         <v>59</v>
       </c>
       <c r="AQ61" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR61" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR61" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS61" s="14">
         <v>1995</v>
@@ -80305,33 +80487,36 @@
         <v>37392</v>
       </c>
       <c r="AV61" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="AW61" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="AW61" s="14" t="s">
-        <v>791</v>
+      <c r="AX61" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="62" spans="1:49">
+    <row r="62" spans="1:50">
       <c r="A62" s="20">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E62" s="17">
         <v>1</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I62" s="17">
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N62" s="20" t="s">
         <v>1</v>
@@ -80340,7 +80525,7 @@
         <v>2012</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q62" t="s">
         <v>732</v>
@@ -80382,10 +80567,10 @@
         <v>60</v>
       </c>
       <c r="AQ62" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR62" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR62" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS62" s="14">
         <v>1995</v>
@@ -80397,33 +80582,36 @@
         <v>37392</v>
       </c>
       <c r="AV62" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="AW62" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="AW62" s="14" t="s">
-        <v>791</v>
+      <c r="AX62" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="63" spans="1:49">
+    <row r="63" spans="1:50">
       <c r="A63" s="20">
         <v>62</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E63" s="17">
         <v>1</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I63" s="17">
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N63" s="20" t="s">
         <v>1</v>
@@ -80432,7 +80620,7 @@
         <v>2012</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q63" t="s">
         <v>732</v>
@@ -80474,10 +80662,10 @@
         <v>61</v>
       </c>
       <c r="AQ63" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR63" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR63" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS63" s="20">
         <v>1996</v>
@@ -80489,33 +80677,36 @@
         <v>38943</v>
       </c>
       <c r="AV63" s="21" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW63" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
+      </c>
+      <c r="AX63" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="64" spans="1:49">
+    <row r="64" spans="1:50">
       <c r="A64" s="20">
         <v>63</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E64" s="17">
         <v>1</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I64" s="17">
         <v>0</v>
       </c>
       <c r="L64" t="s">
+        <v>806</v>
+      </c>
+      <c r="M64" s="20" t="s">
         <v>807</v>
-      </c>
-      <c r="M64" s="20" t="s">
-        <v>808</v>
       </c>
       <c r="N64" s="20" t="s">
         <v>1</v>
@@ -80524,7 +80715,7 @@
         <v>2012</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q64" t="s">
         <v>732</v>
@@ -80566,10 +80757,10 @@
         <v>62</v>
       </c>
       <c r="AQ64" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR64" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="AR64" s="24" t="s">
+        <v>780</v>
       </c>
       <c r="AS64" s="20">
         <v>1996</v>
@@ -80581,10 +80772,13 @@
         <v>38943</v>
       </c>
       <c r="AV64" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AW64" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
+      </c>
+      <c r="AX64" s="17" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -80646,7 +80840,7 @@
         <v>225</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>427</v>
@@ -80658,13 +80852,13 @@
         <v>101</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>838</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>839</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>840</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>436</v>
@@ -80674,26 +80868,26 @@
       </c>
       <c r="L1" s="15"/>
       <c r="M1" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>261</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="P1" s="15"/>
       <c r="Q1" s="15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="R1" s="15" t="s">
         <v>107</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="U1" s="15" t="s">
         <v>112</v>
@@ -80705,16 +80899,16 @@
         <v>105</v>
       </c>
       <c r="X1" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>818</v>
+      </c>
+      <c r="Z1" s="15" t="s">
         <v>819</v>
       </c>
-      <c r="Y1" s="15" t="s">
-        <v>820</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>821</v>
-      </c>
       <c r="AA1" s="15" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="AB1" s="15" t="s">
         <v>111</v>
@@ -80734,28 +80928,28 @@
         <v>265</v>
       </c>
       <c r="AI1" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>844</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="AM1" s="15" t="s">
         <v>822</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AN1" s="15" t="s">
         <v>846</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AO1" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AP1" s="15" t="s">
         <v>847</v>
-      </c>
-      <c r="AM1" s="15" t="s">
-        <v>824</v>
-      </c>
-      <c r="AN1" s="15" t="s">
-        <v>848</v>
-      </c>
-      <c r="AO1" s="15" t="s">
-        <v>825</v>
-      </c>
-      <c r="AP1" s="15" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -80778,7 +80972,7 @@
         <v>272</v>
       </c>
       <c r="I2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K2" t="s">
         <v>270</v>
@@ -80861,7 +81055,7 @@
         <v>272</v>
       </c>
       <c r="I3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K3" t="s">
         <v>270</v>
@@ -80944,7 +81138,7 @@
         <v>272</v>
       </c>
       <c r="I4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K4" t="s">
         <v>270</v>
@@ -81027,7 +81221,7 @@
         <v>272</v>
       </c>
       <c r="I5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K5" t="s">
         <v>270</v>
@@ -81110,7 +81304,7 @@
         <v>272</v>
       </c>
       <c r="I6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K6" t="s">
         <v>270</v>
@@ -81178,7 +81372,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E7" t="s">
         <v>273</v>
@@ -81193,7 +81387,7 @@
         <v>272</v>
       </c>
       <c r="I7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K7" t="s">
         <v>270</v>
@@ -81261,7 +81455,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E8" t="s">
         <v>273</v>
@@ -81276,7 +81470,7 @@
         <v>272</v>
       </c>
       <c r="I8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K8" t="s">
         <v>270</v>
@@ -81344,7 +81538,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E9" t="s">
         <v>273</v>
@@ -81359,7 +81553,7 @@
         <v>272</v>
       </c>
       <c r="I9" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K9" t="s">
         <v>270</v>
@@ -81427,7 +81621,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E10" t="s">
         <v>273</v>
@@ -81442,7 +81636,7 @@
         <v>272</v>
       </c>
       <c r="I10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K10" t="s">
         <v>270</v>
@@ -81510,7 +81704,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E11" t="s">
         <v>273</v>
@@ -81519,13 +81713,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H11" t="s">
         <v>272</v>
       </c>
       <c r="I11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K11" t="s">
         <v>270</v>
@@ -81593,7 +81787,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E12" t="s">
         <v>273</v>
@@ -81602,13 +81796,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H12" t="s">
         <v>272</v>
       </c>
       <c r="I12" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K12" t="s">
         <v>270</v>
@@ -81676,7 +81870,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E13" t="s">
         <v>273</v>
@@ -81685,13 +81879,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="H13" t="s">
         <v>272</v>
       </c>
       <c r="I13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K13" t="s">
         <v>270</v>
@@ -81759,7 +81953,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E14" t="s">
         <v>273</v>
@@ -81774,7 +81968,7 @@
         <v>272</v>
       </c>
       <c r="I14" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K14" t="s">
         <v>270</v>
@@ -81842,7 +82036,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E15" t="s">
         <v>273</v>
@@ -81857,7 +82051,7 @@
         <v>272</v>
       </c>
       <c r="I15" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K15" t="s">
         <v>270</v>
@@ -81925,7 +82119,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E16" t="s">
         <v>273</v>
@@ -81940,7 +82134,7 @@
         <v>272</v>
       </c>
       <c r="I16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K16" t="s">
         <v>270</v>
@@ -82008,7 +82202,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E17" t="s">
         <v>273</v>
@@ -82023,7 +82217,7 @@
         <v>272</v>
       </c>
       <c r="I17" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K17" t="s">
         <v>270</v>
@@ -82091,7 +82285,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E18" t="s">
         <v>273</v>
@@ -82106,7 +82300,7 @@
         <v>272</v>
       </c>
       <c r="I18" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K18" t="s">
         <v>270</v>
@@ -82174,7 +82368,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E19" t="s">
         <v>273</v>
@@ -82189,7 +82383,7 @@
         <v>286</v>
       </c>
       <c r="I19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K19" t="s">
         <v>270</v>
@@ -82257,7 +82451,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E20" t="s">
         <v>273</v>
@@ -82272,7 +82466,7 @@
         <v>284</v>
       </c>
       <c r="I20" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K20" t="s">
         <v>270</v>
@@ -82340,7 +82534,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E21" t="s">
         <v>273</v>
@@ -82355,7 +82549,7 @@
         <v>274</v>
       </c>
       <c r="I21" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K21" t="s">
         <v>270</v>
@@ -82423,7 +82617,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E22" t="s">
         <v>273</v>
@@ -82438,7 +82632,7 @@
         <v>285</v>
       </c>
       <c r="I22" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K22" t="s">
         <v>270</v>
@@ -82506,7 +82700,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E23" t="s">
         <v>273</v>
@@ -82518,10 +82712,10 @@
         <v>272</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I23" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K23" t="s">
         <v>270</v>
@@ -82589,7 +82783,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E24" t="s">
         <v>273</v>
@@ -82604,7 +82798,7 @@
         <v>295</v>
       </c>
       <c r="I24" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K24" t="s">
         <v>270</v>
@@ -82672,7 +82866,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E25" t="s">
         <v>273</v>
@@ -82684,10 +82878,10 @@
         <v>272</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I25" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K25" t="s">
         <v>270</v>
@@ -82755,7 +82949,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E26" t="s">
         <v>273</v>
@@ -82770,7 +82964,7 @@
         <v>297</v>
       </c>
       <c r="I26" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K26" t="s">
         <v>270</v>
@@ -82838,7 +83032,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E27" t="s">
         <v>273</v>
@@ -82853,7 +83047,7 @@
         <v>290</v>
       </c>
       <c r="I27" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K27" t="s">
         <v>270</v>
@@ -82921,7 +83115,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E28" t="s">
         <v>273</v>
@@ -82933,10 +83127,10 @@
         <v>272</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I28" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K28" t="s">
         <v>270</v>
@@ -83004,7 +83198,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E29" t="s">
         <v>273</v>
@@ -83016,10 +83210,10 @@
         <v>272</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K29" t="s">
         <v>270</v>
@@ -83087,7 +83281,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E30" t="s">
         <v>273</v>
@@ -83099,10 +83293,10 @@
         <v>272</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I30" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K30" t="s">
         <v>270</v>
@@ -83170,7 +83364,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E31" t="s">
         <v>273</v>
@@ -83185,7 +83379,7 @@
         <v>292</v>
       </c>
       <c r="I31" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K31" t="s">
         <v>270</v>
@@ -83253,7 +83447,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E32" t="s">
         <v>273</v>
@@ -83268,7 +83462,7 @@
         <v>272</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="K32" t="s">
         <v>270</v>
@@ -83336,7 +83530,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E33" t="s">
         <v>273</v>
@@ -83351,7 +83545,7 @@
         <v>272</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K33" t="s">
         <v>270</v>
@@ -83419,7 +83613,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E34" t="s">
         <v>273</v>
@@ -83434,7 +83628,7 @@
         <v>272</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="K34" t="s">
         <v>270</v>
@@ -83502,7 +83696,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E35" t="s">
         <v>273</v>
@@ -83517,7 +83711,7 @@
         <v>272</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="K35" t="s">
         <v>270</v>
@@ -83585,7 +83779,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E36" t="s">
         <v>273</v>
@@ -83600,7 +83794,7 @@
         <v>272</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="K36" t="s">
         <v>270</v>
@@ -83668,7 +83862,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E37" t="s">
         <v>273</v>
@@ -83683,7 +83877,7 @@
         <v>272</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K37" t="s">
         <v>270</v>
@@ -83751,7 +83945,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E38" t="s">
         <v>273</v>
@@ -83766,7 +83960,7 @@
         <v>272</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="K38" t="s">
         <v>270</v>
@@ -83834,7 +84028,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E39" t="s">
         <v>273</v>
@@ -83849,7 +84043,7 @@
         <v>272</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="K39" t="s">
         <v>270</v>
@@ -83917,7 +84111,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E40" t="s">
         <v>273</v>
@@ -83932,7 +84126,7 @@
         <v>272</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K40" t="s">
         <v>270</v>
@@ -84000,7 +84194,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E41" t="s">
         <v>273</v>
@@ -84015,7 +84209,7 @@
         <v>272</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="K41" t="s">
         <v>270</v>
@@ -84083,7 +84277,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E42" t="s">
         <v>273</v>
@@ -84098,7 +84292,7 @@
         <v>272</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K42" t="s">
         <v>270</v>
@@ -84166,7 +84360,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E43" t="s">
         <v>273</v>
@@ -84181,7 +84375,7 @@
         <v>272</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="K43" t="s">
         <v>270</v>
@@ -84264,7 +84458,7 @@
         <v>272</v>
       </c>
       <c r="I44" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>270</v>
@@ -84347,10 +84541,10 @@
         <v>272</v>
       </c>
       <c r="I45" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="R45" t="s">
         <v>1</v>
@@ -84430,7 +84624,7 @@
         <v>272</v>
       </c>
       <c r="I46" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K46" t="s">
         <v>270</v>
@@ -84513,7 +84707,7 @@
         <v>272</v>
       </c>
       <c r="I47" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K47" t="s">
         <v>270</v>
@@ -84581,7 +84775,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E48" t="s">
         <v>273</v>
@@ -84596,7 +84790,7 @@
         <v>272</v>
       </c>
       <c r="I48" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K48" t="s">
         <v>270</v>
@@ -84664,7 +84858,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E49" t="s">
         <v>273</v>
@@ -84679,7 +84873,7 @@
         <v>272</v>
       </c>
       <c r="I49" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K49" t="s">
         <v>270</v>
@@ -84747,7 +84941,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E50" t="s">
         <v>273</v>
@@ -84762,7 +84956,7 @@
         <v>272</v>
       </c>
       <c r="I50" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K50" t="s">
         <v>270</v>
@@ -84830,7 +85024,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E51" t="s">
         <v>273</v>
@@ -84845,7 +85039,7 @@
         <v>272</v>
       </c>
       <c r="I51" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K51" t="s">
         <v>270</v>
@@ -84928,7 +85122,7 @@
         <v>272</v>
       </c>
       <c r="I52" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K52" t="s">
         <v>270</v>
@@ -85011,7 +85205,7 @@
         <v>272</v>
       </c>
       <c r="I53" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K53" t="s">
         <v>270</v>
@@ -85094,7 +85288,7 @@
         <v>272</v>
       </c>
       <c r="I54" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K54" t="s">
         <v>270</v>
@@ -85177,7 +85371,7 @@
         <v>272</v>
       </c>
       <c r="I55" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K55" t="s">
         <v>270</v>
@@ -85195,7 +85389,7 @@
         <v>1</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="W55" t="s">
         <v>1</v>
@@ -85260,7 +85454,7 @@
         <v>272</v>
       </c>
       <c r="I56" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K56" t="s">
         <v>270</v>
@@ -85278,7 +85472,7 @@
         <v>1</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="W56" t="s">
         <v>1</v>
@@ -85343,7 +85537,7 @@
         <v>272</v>
       </c>
       <c r="I57" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K57" t="s">
         <v>270</v>
@@ -85426,7 +85620,7 @@
         <v>272</v>
       </c>
       <c r="I58" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K58" t="s">
         <v>270</v>
@@ -85494,7 +85688,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E59" t="s">
         <v>273</v>
@@ -85509,7 +85703,7 @@
         <v>272</v>
       </c>
       <c r="I59" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K59" t="s">
         <v>270</v>
@@ -85577,7 +85771,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E60" t="s">
         <v>273</v>
@@ -85592,7 +85786,7 @@
         <v>272</v>
       </c>
       <c r="I60" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K60" t="s">
         <v>270</v>
@@ -85660,7 +85854,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E61" t="s">
         <v>273</v>
@@ -85675,7 +85869,7 @@
         <v>272</v>
       </c>
       <c r="I61" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K61" t="s">
         <v>270</v>
@@ -85743,7 +85937,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E62" t="s">
         <v>273</v>
@@ -85758,7 +85952,7 @@
         <v>272</v>
       </c>
       <c r="I62" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K62" t="s">
         <v>270</v>
@@ -85826,7 +86020,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E63" t="s">
         <v>273</v>
@@ -85841,7 +86035,7 @@
         <v>272</v>
       </c>
       <c r="I63" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K63" t="s">
         <v>270</v>
@@ -85909,7 +86103,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E64" t="s">
         <v>273</v>
@@ -85924,7 +86118,7 @@
         <v>272</v>
       </c>
       <c r="I64" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K64" t="s">
         <v>270</v>
@@ -86007,7 +86201,7 @@
         <v>272</v>
       </c>
       <c r="I65" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K65" t="s">
         <v>270</v>
@@ -86090,7 +86284,7 @@
         <v>272</v>
       </c>
       <c r="I66" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K66" t="s">
         <v>270</v>
@@ -86173,7 +86367,7 @@
         <v>272</v>
       </c>
       <c r="I67" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K67" t="s">
         <v>270</v>
@@ -86256,7 +86450,7 @@
         <v>272</v>
       </c>
       <c r="I68" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K68" t="s">
         <v>270</v>
@@ -86339,7 +86533,7 @@
         <v>272</v>
       </c>
       <c r="I69" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K69" t="s">
         <v>270</v>
@@ -86422,7 +86616,7 @@
         <v>272</v>
       </c>
       <c r="I70" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K70" t="s">
         <v>270</v>
@@ -86505,7 +86699,7 @@
         <v>272</v>
       </c>
       <c r="I71" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K71" t="s">
         <v>270</v>
@@ -86588,7 +86782,7 @@
         <v>272</v>
       </c>
       <c r="I72" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K72" t="s">
         <v>270</v>
@@ -86671,7 +86865,7 @@
         <v>272</v>
       </c>
       <c r="I73" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K73" t="s">
         <v>270</v>
@@ -86754,7 +86948,7 @@
         <v>272</v>
       </c>
       <c r="I74" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K74" t="s">
         <v>270</v>
@@ -86837,7 +87031,7 @@
         <v>272</v>
       </c>
       <c r="I75" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K75" t="s">
         <v>270</v>
@@ -86920,7 +87114,7 @@
         <v>272</v>
       </c>
       <c r="I76" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K76" t="s">
         <v>270</v>
@@ -86988,7 +87182,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E77" t="s">
         <v>273</v>
@@ -87003,7 +87197,7 @@
         <v>272</v>
       </c>
       <c r="I77" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K77" t="s">
         <v>270</v>
@@ -87071,7 +87265,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E78" t="s">
         <v>273</v>
@@ -87086,7 +87280,7 @@
         <v>272</v>
       </c>
       <c r="I78" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K78" t="s">
         <v>270</v>
@@ -87154,7 +87348,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E79" t="s">
         <v>273</v>
@@ -87169,7 +87363,7 @@
         <v>272</v>
       </c>
       <c r="I79" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K79" t="s">
         <v>270</v>
@@ -87237,7 +87431,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E80" t="s">
         <v>273</v>
@@ -87252,7 +87446,7 @@
         <v>272</v>
       </c>
       <c r="I80" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K80" t="s">
         <v>270</v>
@@ -87320,7 +87514,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E81" t="s">
         <v>273</v>
@@ -87335,7 +87529,7 @@
         <v>272</v>
       </c>
       <c r="I81" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K81" t="s">
         <v>270</v>
@@ -87403,7 +87597,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E82" t="s">
         <v>273</v>
@@ -87418,7 +87612,7 @@
         <v>272</v>
       </c>
       <c r="I82" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K82" t="s">
         <v>270</v>
@@ -87486,7 +87680,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E83" t="s">
         <v>273</v>
@@ -87501,7 +87695,7 @@
         <v>272</v>
       </c>
       <c r="I83" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K83" t="s">
         <v>270</v>
@@ -87569,7 +87763,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E84" t="s">
         <v>273</v>
@@ -87584,7 +87778,7 @@
         <v>272</v>
       </c>
       <c r="I84" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K84" t="s">
         <v>270</v>
@@ -87652,7 +87846,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E85" t="s">
         <v>273</v>
@@ -87667,7 +87861,7 @@
         <v>272</v>
       </c>
       <c r="I85" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K85" t="s">
         <v>270</v>
@@ -87735,7 +87929,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E86" t="s">
         <v>273</v>
@@ -87750,7 +87944,7 @@
         <v>272</v>
       </c>
       <c r="I86" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K86" t="s">
         <v>270</v>
@@ -87818,7 +88012,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E87" t="s">
         <v>273</v>
@@ -87833,7 +88027,7 @@
         <v>272</v>
       </c>
       <c r="I87" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K87" t="s">
         <v>270</v>
@@ -87901,7 +88095,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E88" t="s">
         <v>273</v>
@@ -87916,7 +88110,7 @@
         <v>272</v>
       </c>
       <c r="I88" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K88" t="s">
         <v>270</v>
@@ -87989,7 +88183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C629363B-43C9-4208-87D2-F94744373416}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -88012,7 +88206,7 @@
         <v>675</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>

--- a/src/NIMBIS.xlsx
+++ b/src/NIMBIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SandhiyaM\Documents\GitHub\qa-automation-nimbus\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECB4AC7-DB0E-48D5-8A46-7F00CF42E98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B0A62A-E176-4BE4-9A29-CD80B754BFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23016" windowHeight="11232" firstSheet="6" activeTab="8" xr2:uid="{A48C591E-A447-324F-80BA-5B973C426F33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23016" windowHeight="11232" firstSheet="7" activeTab="10" xr2:uid="{A48C591E-A447-324F-80BA-5B973C426F33}"/>
   </bookViews>
   <sheets>
     <sheet name=" Client Test cases" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="Trailer Test Cases" sheetId="12" r:id="rId8"/>
     <sheet name="NonRoad Test Cases" sheetId="13" r:id="rId9"/>
     <sheet name="Personal Liabitity Test Cases" sheetId="14" r:id="rId10"/>
-    <sheet name="Contents" sheetId="4" state="hidden" r:id="rId11"/>
+    <sheet name="Legal Cost Test Cases" sheetId="15" r:id="rId11"/>
+    <sheet name="Contents" sheetId="4" state="hidden" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="AssetsSpecified">#REF!</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11978" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11986" uniqueCount="515">
   <si>
     <t>ITC check consent</t>
   </si>
@@ -1612,6 +1613,9 @@
   <si>
     <t>Qwsdcvnm@13</t>
   </si>
+  <si>
+    <t>Legal costs sum insured</t>
+  </si>
 </sst>
 </file>
 
@@ -4352,7 +4356,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4427,6 +4431,79 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FD076E-D013-450C-B736-C885ECA3A723}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D5">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1D0593-06F1-1341-B518-B1BD152C56B0}">
   <dimension ref="A2:A73"/>
   <sheetViews>
@@ -53312,7 +53389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C765D4F-B0ED-4700-8BBC-AAD493E09528}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="B17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
@@ -54273,15 +54350,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100974990A4B7481540AD2827693D2B4677" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29dc9a2c723eb601f8a43bd90399fbaa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="39c968c6-d81e-4a40-af5e-103bfa8ea621" xmlns:ns3="16e03651-acd4-40f0-82ea-ba55e12251a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9dea1e42ffc2c62d22e8c39d3144f8a7" ns2:_="" ns3:_="">
     <xsd:import namespace="39c968c6-d81e-4a40-af5e-103bfa8ea621"/>
@@ -54530,6 +54598,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -54542,14 +54619,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{488A6D9C-A748-45FA-846F-A9AD5EC1A9F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF06F155-6F1A-4F06-A273-A2279113E9CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -54568,6 +54637,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{488A6D9C-A748-45FA-846F-A9AD5EC1A9F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DE6B354-43A9-4490-9EF5-3F7471DCEA9A}">
   <ds:schemaRefs>

--- a/src/NIMBIS.xlsx
+++ b/src/NIMBIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SandhiyaM\Documents\GitHub\qa-automation-nimbus\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\IdeaProjects\qa-automation-nimbus\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B0A62A-E176-4BE4-9A29-CD80B754BFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BD1F09-1801-4D95-9C8F-28E8CAB3D9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23016" windowHeight="11232" firstSheet="7" activeTab="10" xr2:uid="{A48C591E-A447-324F-80BA-5B973C426F33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="6" xr2:uid="{A48C591E-A447-324F-80BA-5B973C426F33}"/>
   </bookViews>
   <sheets>
     <sheet name=" Client Test cases" sheetId="2" r:id="rId1"/>
@@ -1624,7 +1624,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2068,25 +2068,25 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.453125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.09765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="27.453125" customWidth="1"/>
-    <col min="33" max="34" width="31.6328125" customWidth="1"/>
-    <col min="43" max="43" width="33.90625" customWidth="1"/>
+    <col min="27" max="27" width="25.796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.5" customWidth="1"/>
+    <col min="33" max="34" width="31.59765625" customWidth="1"/>
+    <col min="43" max="43" width="33.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4338,11 +4338,8 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH41" xr:uid="{7C05C23F-F7F1-D146-BB61-B78F3DCD95D3}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D41 L2:M41" xr:uid="{2DFC92E4-F910-FC46-AE0F-88E90FD645CD}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH41 C2:D41 L2:M41" xr:uid="{7C05C23F-F7F1-D146-BB61-B78F3DCD95D3}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -4359,14 +4356,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.90625" customWidth="1"/>
+    <col min="5" max="5" width="29.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -4383,7 +4380,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4397,7 +4394,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4411,7 +4408,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4434,13 +4431,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FD076E-D013-450C-B736-C885ECA3A723}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>412</v>
       </c>
@@ -4454,7 +4451,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4465,7 +4462,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4476,7 +4473,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4487,7 +4484,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4511,368 +4508,368 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="152.453125" customWidth="1"/>
-    <col min="2" max="2" width="29.08984375" customWidth="1"/>
+    <col min="1" max="1" width="152.5" customWidth="1"/>
+    <col min="2" max="2" width="29.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -4890,29 +4887,29 @@
       <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="64.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="28.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="45.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.19921875" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="21" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="33.796875" bestFit="1" customWidth="1"/>
     <col min="64" max="65" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -5109,7 +5106,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:65">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5252,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:65">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5395,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:65">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5538,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5681,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5824,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:65">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5967,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:65">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6110,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:65">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6253,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:65">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6396,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:65">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6539,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:65">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6682,7 +6679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:65">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6825,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:65">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6968,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:65">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7111,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:65">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7254,7 +7251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:65">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7397,7 +7394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:65">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7540,7 +7537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:65">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7683,7 +7680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:65">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7826,7 +7823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:65">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7969,7 +7966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:65">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8112,7 +8109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:65">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8255,7 +8252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:65">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8398,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:65" ht="14.25" customHeight="1">
+    <row r="25" spans="1:65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8541,7 +8538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:65">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8684,7 +8681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:65">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8827,7 +8824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:65">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8970,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:65">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9113,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:65">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9256,7 +9253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:65">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9399,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:65">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9542,7 +9539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:65">
+    <row r="33" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9685,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:65">
+    <row r="34" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9828,7 +9825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:65">
+    <row r="35" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9971,7 +9968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:65">
+    <row r="36" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10114,7 +10111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:65">
+    <row r="37" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10257,7 +10254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:65">
+    <row r="38" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10400,7 +10397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:65">
+    <row r="39" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10543,7 +10540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:65">
+    <row r="40" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10686,7 +10683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:65">
+    <row r="41" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10829,7 +10826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:65">
+    <row r="42" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10972,7 +10969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:65">
+    <row r="43" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11115,7 +11112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:65">
+    <row r="44" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11258,7 +11255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:65">
+    <row r="45" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11401,7 +11398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:65">
+    <row r="46" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11544,7 +11541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:65">
+    <row r="47" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11687,7 +11684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:65">
+    <row r="48" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11830,7 +11827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:65">
+    <row r="49" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11973,7 +11970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:65">
+    <row r="50" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12116,7 +12113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:65">
+    <row r="51" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12259,7 +12256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:65">
+    <row r="52" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12402,7 +12399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:65">
+    <row r="53" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12545,7 +12542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:65">
+    <row r="54" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12688,7 +12685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:65">
+    <row r="55" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12843,7 +12840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:65">
+    <row r="56" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12986,7 +12983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:65">
+    <row r="57" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13129,7 +13126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:65">
+    <row r="58" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13272,7 +13269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:65">
+    <row r="59" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13415,7 +13412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:65">
+    <row r="60" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13558,7 +13555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:65">
+    <row r="61" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13701,7 +13698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:65">
+    <row r="62" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13844,7 +13841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:65">
+    <row r="63" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13987,7 +13984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:65">
+    <row r="64" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -14130,7 +14127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:65">
+    <row r="65" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -14273,7 +14270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:65">
+    <row r="66" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -14416,7 +14413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:65">
+    <row r="67" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -14559,7 +14556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:65">
+    <row r="68" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -14702,7 +14699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:65">
+    <row r="69" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -14845,7 +14842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:65">
+    <row r="70" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -14988,7 +14985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:65">
+    <row r="71" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -15131,7 +15128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:65">
+    <row r="72" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -15274,7 +15271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:65">
+    <row r="73" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -15417,7 +15414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:65">
+    <row r="74" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -15560,7 +15557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:65">
+    <row r="75" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -15703,7 +15700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:65">
+    <row r="76" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -15846,7 +15843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:65">
+    <row r="77" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -15989,7 +15986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:65">
+    <row r="78" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -16132,7 +16129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:65">
+    <row r="79" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -16275,7 +16272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:65">
+    <row r="80" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -16418,7 +16415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:65">
+    <row r="81" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -16561,7 +16558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:65">
+    <row r="82" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -16704,7 +16701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:65">
+    <row r="83" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -16847,7 +16844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:65">
+    <row r="84" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -16990,7 +16987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:65">
+    <row r="85" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -17133,7 +17130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:65">
+    <row r="86" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -17276,7 +17273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:65">
+    <row r="87" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -17419,7 +17416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:65">
+    <row r="88" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -17562,7 +17559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:65">
+    <row r="89" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -17705,7 +17702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:65">
+    <row r="90" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -17848,7 +17845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:65">
+    <row r="91" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -17991,7 +17988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:65">
+    <row r="92" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -18134,7 +18131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:65">
+    <row r="93" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -18277,7 +18274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:65">
+    <row r="94" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -18420,7 +18417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:65">
+    <row r="95" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -18563,7 +18560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:65">
+    <row r="96" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -18706,7 +18703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:65">
+    <row r="97" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -18849,7 +18846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:65">
+    <row r="98" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -18992,7 +18989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:65">
+    <row r="99" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -19135,7 +19132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:65">
+    <row r="100" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -19278,7 +19275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:65">
+    <row r="101" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -19421,7 +19418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:65">
+    <row r="102" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -19564,7 +19561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:65">
+    <row r="103" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -19707,7 +19704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:65">
+    <row r="104" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -19850,7 +19847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:65">
+    <row r="105" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -19993,7 +19990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:65">
+    <row r="106" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -20136,7 +20133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:65">
+    <row r="107" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -20279,7 +20276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:65">
+    <row r="108" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -20422,7 +20419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:65">
+    <row r="109" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -20565,7 +20562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:65">
+    <row r="110" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -20708,7 +20705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:65">
+    <row r="111" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -20851,7 +20848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:65">
+    <row r="112" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -20994,7 +20991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:65">
+    <row r="113" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -21137,7 +21134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:65">
+    <row r="114" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -21280,7 +21277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:65">
+    <row r="115" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -21423,7 +21420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:65">
+    <row r="116" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -21566,7 +21563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:65">
+    <row r="117" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -21709,7 +21706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:65">
+    <row r="118" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -21852,7 +21849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:65">
+    <row r="119" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -21995,7 +21992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:65">
+    <row r="120" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -22138,7 +22135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:65">
+    <row r="121" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -22281,7 +22278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:65">
+    <row r="122" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -22424,7 +22421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:65">
+    <row r="123" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -22567,7 +22564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:65">
+    <row r="124" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -22710,7 +22707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:65">
+    <row r="125" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -22853,7 +22850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:65">
+    <row r="126" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -22996,7 +22993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:65">
+    <row r="127" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -23139,7 +23136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:65">
+    <row r="128" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -23282,7 +23279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:65">
+    <row r="129" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -23425,7 +23422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:65">
+    <row r="130" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -23568,7 +23565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:65">
+    <row r="131" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -23711,7 +23708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:65">
+    <row r="132" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -23854,7 +23851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:65">
+    <row r="133" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -23997,7 +23994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:65">
+    <row r="134" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -24140,7 +24137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:65">
+    <row r="135" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -24283,7 +24280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:65">
+    <row r="136" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -24426,7 +24423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:65">
+    <row r="137" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -24569,7 +24566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:65">
+    <row r="138" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -24712,7 +24709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:65">
+    <row r="139" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -24855,7 +24852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:65">
+    <row r="140" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -24998,7 +24995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:65">
+    <row r="141" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -25141,7 +25138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:65">
+    <row r="142" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -25284,7 +25281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:65">
+    <row r="143" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -25427,7 +25424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:65">
+    <row r="144" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -25570,7 +25567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:65">
+    <row r="145" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -25713,7 +25710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:65">
+    <row r="146" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -25856,7 +25853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:65">
+    <row r="147" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -25999,7 +25996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:65">
+    <row r="148" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -26145,7 +26142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:65">
+    <row r="149" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -26291,7 +26288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:65">
+    <row r="150" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -26437,7 +26434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:65">
+    <row r="151" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -26583,7 +26580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:65">
+    <row r="152" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -26729,7 +26726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:65">
+    <row r="153" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -26875,7 +26872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:65">
+    <row r="154" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -27021,7 +27018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:65">
+    <row r="155" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -27167,7 +27164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:65">
+    <row r="156" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -27313,7 +27310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:65">
+    <row r="157" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -27456,7 +27453,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="158" spans="1:65">
+    <row r="158" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -27599,7 +27596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:65">
+    <row r="159" spans="1:65" x14ac:dyDescent="0.3">
       <c r="AC159">
         <v>1</v>
       </c>
@@ -27634,16 +27631,16 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.296875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="23.7265625" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="5" max="5" width="23.69921875" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>343</v>
       </c>
@@ -27663,7 +27660,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27680,7 +27677,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -27697,7 +27694,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27714,7 +27711,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -27731,7 +27728,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -27748,7 +27745,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -27765,7 +27762,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -27782,7 +27779,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -27799,7 +27796,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -27829,13 +27826,13 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -27843,7 +27840,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>342</v>
       </c>
@@ -27868,13 +27865,13 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.08984375" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" customWidth="1"/>
+    <col min="2" max="2" width="19.09765625" customWidth="1"/>
+    <col min="9" max="9" width="22.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -28050,7 +28047,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28187,7 +28184,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -28324,7 +28321,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -28461,7 +28458,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -28598,7 +28595,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -28735,7 +28732,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -28872,7 +28869,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -29009,7 +29006,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -29146,7 +29143,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -29283,7 +29280,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -29420,7 +29417,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -29557,7 +29554,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -29694,7 +29691,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -29831,7 +29828,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -29968,7 +29965,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -30105,7 +30102,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -30242,7 +30239,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -30379,7 +30376,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -30516,7 +30513,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -30653,7 +30650,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -30790,7 +30787,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -30927,7 +30924,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:70">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -31064,7 +31061,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:70">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -31201,7 +31198,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:70">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -31338,7 +31335,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:70">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -31475,7 +31472,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:70">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -31612,7 +31609,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:70">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -31749,7 +31746,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:70">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -31886,7 +31883,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:70">
+    <row r="30" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -32023,7 +32020,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:70">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -32160,7 +32157,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="32" spans="1:70">
+    <row r="32" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -32297,7 +32294,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="1:70">
+    <row r="33" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -32434,7 +32431,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:70">
+    <row r="34" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -32571,7 +32568,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="35" spans="1:70">
+    <row r="35" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -32708,7 +32705,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="36" spans="1:70">
+    <row r="36" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -32845,7 +32842,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="37" spans="1:70">
+    <row r="37" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -32982,7 +32979,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="38" spans="1:70">
+    <row r="38" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -33119,7 +33116,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="1:70">
+    <row r="39" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -33256,7 +33253,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="40" spans="1:70">
+    <row r="40" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -33393,7 +33390,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="41" spans="1:70">
+    <row r="41" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -33530,7 +33527,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="1:70">
+    <row r="42" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -33667,7 +33664,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:70">
+    <row r="43" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -33804,7 +33801,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="44" spans="1:70">
+    <row r="44" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -33941,7 +33938,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="45" spans="1:70">
+    <row r="45" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -34078,7 +34075,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="46" spans="1:70">
+    <row r="46" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -34215,7 +34212,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="47" spans="1:70">
+    <row r="47" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -34352,7 +34349,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="48" spans="1:70">
+    <row r="48" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -34489,7 +34486,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:70">
+    <row r="49" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -34626,7 +34623,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="1:70">
+    <row r="50" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -34763,7 +34760,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="51" spans="1:70">
+    <row r="51" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -34900,7 +34897,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="52" spans="1:70">
+    <row r="52" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -35037,7 +35034,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="1:70">
+    <row r="53" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -35174,7 +35171,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="54" spans="1:70">
+    <row r="54" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -35311,7 +35308,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="55" spans="1:70">
+    <row r="55" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -35448,7 +35445,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="56" spans="1:70">
+    <row r="56" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -35585,7 +35582,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="57" spans="1:70">
+    <row r="57" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -35722,7 +35719,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="58" spans="1:70">
+    <row r="58" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -35859,7 +35856,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="59" spans="1:70">
+    <row r="59" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -35996,7 +35993,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="60" spans="1:70">
+    <row r="60" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -36133,7 +36130,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="1:70">
+    <row r="61" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -36270,7 +36267,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="62" spans="1:70">
+    <row r="62" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -36407,7 +36404,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="63" spans="1:70">
+    <row r="63" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -36544,7 +36541,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="64" spans="1:70">
+    <row r="64" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -36681,7 +36678,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="65" spans="1:70">
+    <row r="65" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -36818,7 +36815,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="66" spans="1:70">
+    <row r="66" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -36955,7 +36952,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="67" spans="1:70">
+    <row r="67" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -37092,7 +37089,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="68" spans="1:70">
+    <row r="68" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -37229,7 +37226,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="69" spans="1:70">
+    <row r="69" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -37366,7 +37363,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="70" spans="1:70">
+    <row r="70" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -37503,7 +37500,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="71" spans="1:70">
+    <row r="71" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -37640,7 +37637,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="72" spans="1:70">
+    <row r="72" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -37777,7 +37774,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="73" spans="1:70">
+    <row r="73" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -37914,7 +37911,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="74" spans="1:70">
+    <row r="74" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -38051,7 +38048,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="75" spans="1:70">
+    <row r="75" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -38188,7 +38185,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="76" spans="1:70">
+    <row r="76" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -38325,7 +38322,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="1:70">
+    <row r="77" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -38462,7 +38459,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="78" spans="1:70">
+    <row r="78" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -38599,7 +38596,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="79" spans="1:70">
+    <row r="79" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -38736,7 +38733,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="80" spans="1:70">
+    <row r="80" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -38873,7 +38870,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="81" spans="1:70">
+    <row r="81" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -39010,7 +39007,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="82" spans="1:70">
+    <row r="82" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -39147,7 +39144,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="83" spans="1:70">
+    <row r="83" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -39284,7 +39281,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="84" spans="1:70">
+    <row r="84" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -39421,7 +39418,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="85" spans="1:70">
+    <row r="85" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -39558,7 +39555,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="86" spans="1:70">
+    <row r="86" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -39695,7 +39692,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="87" spans="1:70">
+    <row r="87" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -39832,7 +39829,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="88" spans="1:70">
+    <row r="88" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -39969,7 +39966,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="89" spans="1:70">
+    <row r="89" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -40106,7 +40103,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="90" spans="1:70">
+    <row r="90" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -40243,7 +40240,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="91" spans="1:70">
+    <row r="91" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -40380,7 +40377,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="92" spans="1:70">
+    <row r="92" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -40517,7 +40514,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="1:70">
+    <row r="93" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -40654,7 +40651,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="94" spans="1:70">
+    <row r="94" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -40791,7 +40788,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="95" spans="1:70">
+    <row r="95" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>96</v>
       </c>
@@ -40928,7 +40925,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="96" spans="1:70">
+    <row r="96" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>97</v>
       </c>
@@ -41068,7 +41065,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="97" spans="1:70">
+    <row r="97" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>98</v>
       </c>
@@ -41205,7 +41202,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="98" spans="1:70">
+    <row r="98" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>99</v>
       </c>
@@ -41342,7 +41339,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="99" spans="1:70">
+    <row r="99" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>100</v>
       </c>
@@ -41479,7 +41476,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="100" spans="1:70">
+    <row r="100" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>101</v>
       </c>
@@ -41616,7 +41613,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="1:70">
+    <row r="101" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>102</v>
       </c>
@@ -41753,7 +41750,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="1:70">
+    <row r="102" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>103</v>
       </c>
@@ -41890,7 +41887,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="103" spans="1:70">
+    <row r="103" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>104</v>
       </c>
@@ -42027,7 +42024,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="104" spans="1:70">
+    <row r="104" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>105</v>
       </c>
@@ -42164,7 +42161,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="105" spans="1:70">
+    <row r="105" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>106</v>
       </c>
@@ -42301,7 +42298,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="106" spans="1:70">
+    <row r="106" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>107</v>
       </c>
@@ -42438,7 +42435,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="107" spans="1:70">
+    <row r="107" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>109</v>
       </c>
@@ -42575,7 +42572,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="108" spans="1:70">
+    <row r="108" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>110</v>
       </c>
@@ -42712,7 +42709,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="109" spans="1:70">
+    <row r="109" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>111</v>
       </c>
@@ -42849,7 +42846,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="110" spans="1:70">
+    <row r="110" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>112</v>
       </c>
@@ -42986,7 +42983,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="111" spans="1:70">
+    <row r="111" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>113</v>
       </c>
@@ -43123,7 +43120,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="112" spans="1:70">
+    <row r="112" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>114</v>
       </c>
@@ -43260,7 +43257,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="113" spans="1:70">
+    <row r="113" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>115</v>
       </c>
@@ -43397,7 +43394,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="114" spans="1:70">
+    <row r="114" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>116</v>
       </c>
@@ -43534,7 +43531,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="115" spans="1:70">
+    <row r="115" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>117</v>
       </c>
@@ -43671,7 +43668,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="116" spans="1:70">
+    <row r="116" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>118</v>
       </c>
@@ -43808,7 +43805,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="117" spans="1:70">
+    <row r="117" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>119</v>
       </c>
@@ -43945,7 +43942,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="118" spans="1:70">
+    <row r="118" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>120</v>
       </c>
@@ -44082,7 +44079,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="119" spans="1:70">
+    <row r="119" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>121</v>
       </c>
@@ -44219,7 +44216,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="120" spans="1:70">
+    <row r="120" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>122</v>
       </c>
@@ -44356,7 +44353,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="121" spans="1:70">
+    <row r="121" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>123</v>
       </c>
@@ -44493,7 +44490,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="122" spans="1:70">
+    <row r="122" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>124</v>
       </c>
@@ -44630,7 +44627,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="123" spans="1:70">
+    <row r="123" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>125</v>
       </c>
@@ -44767,7 +44764,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="124" spans="1:70">
+    <row r="124" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>126</v>
       </c>
@@ -44904,7 +44901,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="125" spans="1:70">
+    <row r="125" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>127</v>
       </c>
@@ -45041,7 +45038,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="126" spans="1:70">
+    <row r="126" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>128</v>
       </c>
@@ -45178,7 +45175,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="127" spans="1:70">
+    <row r="127" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>129</v>
       </c>
@@ -45315,7 +45312,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="128" spans="1:70">
+    <row r="128" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>130</v>
       </c>
@@ -45452,7 +45449,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="129" spans="1:70">
+    <row r="129" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>131</v>
       </c>
@@ -45589,7 +45586,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="130" spans="1:70">
+    <row r="130" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>132</v>
       </c>
@@ -45726,7 +45723,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="131" spans="1:70">
+    <row r="131" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>133</v>
       </c>
@@ -45863,7 +45860,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="132" spans="1:70">
+    <row r="132" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>134</v>
       </c>
@@ -46000,7 +45997,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="133" spans="1:70">
+    <row r="133" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>135</v>
       </c>
@@ -46137,7 +46134,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="134" spans="1:70">
+    <row r="134" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>136</v>
       </c>
@@ -46274,7 +46271,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="135" spans="1:70">
+    <row r="135" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>137</v>
       </c>
@@ -46411,7 +46408,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="136" spans="1:70">
+    <row r="136" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>138</v>
       </c>
@@ -46548,7 +46545,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="137" spans="1:70">
+    <row r="137" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>139</v>
       </c>
@@ -46685,7 +46682,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="138" spans="1:70">
+    <row r="138" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>140</v>
       </c>
@@ -46822,7 +46819,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="139" spans="1:70">
+    <row r="139" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>141</v>
       </c>
@@ -46959,7 +46956,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="140" spans="1:70">
+    <row r="140" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>142</v>
       </c>
@@ -47096,7 +47093,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="141" spans="1:70">
+    <row r="141" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>143</v>
       </c>
@@ -47233,7 +47230,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="142" spans="1:70">
+    <row r="142" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>144</v>
       </c>
@@ -47370,7 +47367,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="143" spans="1:70">
+    <row r="143" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>145</v>
       </c>
@@ -47507,7 +47504,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="144" spans="1:70">
+    <row r="144" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>146</v>
       </c>
@@ -47644,7 +47641,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="145" spans="1:70">
+    <row r="145" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>147</v>
       </c>
@@ -47781,7 +47778,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="146" spans="1:70">
+    <row r="146" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>148</v>
       </c>
@@ -47918,7 +47915,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="147" spans="1:70">
+    <row r="147" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>149</v>
       </c>
@@ -48055,7 +48052,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="148" spans="1:70">
+    <row r="148" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>150</v>
       </c>
@@ -48192,7 +48189,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="149" spans="1:70">
+    <row r="149" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>151</v>
       </c>
@@ -48329,7 +48326,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="150" spans="1:70">
+    <row r="150" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>152</v>
       </c>
@@ -48466,7 +48463,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="151" spans="1:70">
+    <row r="151" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>153</v>
       </c>
@@ -48603,7 +48600,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="152" spans="1:70">
+    <row r="152" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>154</v>
       </c>
@@ -48740,7 +48737,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="153" spans="1:70">
+    <row r="153" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>155</v>
       </c>
@@ -48877,7 +48874,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="154" spans="1:70">
+    <row r="154" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>156</v>
       </c>
@@ -49014,7 +49011,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="155" spans="1:70">
+    <row r="155" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>157</v>
       </c>
@@ -49151,7 +49148,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="156" spans="1:70">
+    <row r="156" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>158</v>
       </c>
@@ -49288,7 +49285,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="157" spans="1:70">
+    <row r="157" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>159</v>
       </c>
@@ -49425,7 +49422,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="158" spans="1:70">
+    <row r="158" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>160</v>
       </c>
@@ -49562,7 +49559,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="159" spans="1:70">
+    <row r="159" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>161</v>
       </c>
@@ -49699,7 +49696,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="160" spans="1:70">
+    <row r="160" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>162</v>
       </c>
@@ -49836,7 +49833,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="161" spans="1:70">
+    <row r="161" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>163</v>
       </c>
@@ -49988,9 +49985,9 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="45">
+    <row r="1" spans="1:28" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>343</v>
       </c>
@@ -50076,7 +50073,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -50132,7 +50129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -50188,7 +50185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -50244,7 +50241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -50300,7 +50297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -50356,7 +50353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -50412,7 +50409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -50468,7 +50465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -50524,7 +50521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -50580,7 +50577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -50636,7 +50633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -50692,7 +50689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -50748,7 +50745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -50804,7 +50801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -50860,7 +50857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -50916,7 +50913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -50972,7 +50969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -51037,13 +51034,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59041EA9-8709-4AB5-8382-8D75AFDF5A6B}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>412</v>
       </c>
@@ -51093,7 +51090,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -51128,7 +51125,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -51163,7 +51160,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -51198,7 +51195,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -51233,7 +51230,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -51268,7 +51265,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -51303,7 +51300,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -51338,7 +51335,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -51373,7 +51370,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -51408,7 +51405,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -51443,7 +51440,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -51478,7 +51475,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -51513,7 +51510,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -51548,7 +51545,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -51583,7 +51580,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -51618,7 +51615,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -51653,7 +51650,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -51688,7 +51685,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -51723,7 +51720,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -51758,7 +51755,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -51793,7 +51790,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -51828,7 +51825,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -51863,7 +51860,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -51898,7 +51895,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -51933,7 +51930,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -51968,7 +51965,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -52003,7 +52000,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -52051,9 +52048,9 @@
       <selection activeCell="V2" sqref="V2:V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="60">
+    <row r="1" spans="1:30" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>343</v>
       </c>
@@ -52145,7 +52142,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -52210,7 +52207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -52275,7 +52272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -52340,7 +52337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -52405,7 +52402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -52470,7 +52467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -52535,7 +52532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -52600,7 +52597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="60">
+    <row r="9" spans="1:30" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -52665,7 +52662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -52730,7 +52727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -52795,7 +52792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -52860,7 +52857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -52925,7 +52922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -52990,7 +52987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -53055,7 +53052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -53120,7 +53117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -53185,7 +53182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -53250,7 +53247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -53315,7 +53312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -53393,9 +53390,9 @@
       <selection activeCell="B17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="240">
+    <row r="1" spans="1:18" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>412</v>
       </c>
@@ -53451,7 +53448,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -53498,7 +53495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -53545,7 +53542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -53592,7 +53589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -53639,7 +53636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -53686,7 +53683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -53733,7 +53730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -53780,7 +53777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -53827,7 +53824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -53874,7 +53871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -53921,7 +53918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -53968,7 +53965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -54015,7 +54012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -54062,7 +54059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -54109,7 +54106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -54156,7 +54153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>19</v>
       </c>
@@ -54203,7 +54200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20</v>
       </c>
@@ -54250,7 +54247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>21</v>
       </c>
@@ -54297,7 +54294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>22</v>
       </c>
@@ -54350,6 +54347,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="16e03651-acd4-40f0-82ea-ba55e12251a9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="39c968c6-d81e-4a40-af5e-103bfa8ea621">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100974990A4B7481540AD2827693D2B4677" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29dc9a2c723eb601f8a43bd90399fbaa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="39c968c6-d81e-4a40-af5e-103bfa8ea621" xmlns:ns3="16e03651-acd4-40f0-82ea-ba55e12251a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9dea1e42ffc2c62d22e8c39d3144f8a7" ns2:_="" ns3:_="">
     <xsd:import namespace="39c968c6-d81e-4a40-af5e-103bfa8ea621"/>
@@ -54598,27 +54615,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DE6B354-43A9-4490-9EF5-3F7471DCEA9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16e03651-acd4-40f0-82ea-ba55e12251a9"/>
+    <ds:schemaRef ds:uri="39c968c6-d81e-4a40-af5e-103bfa8ea621"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="16e03651-acd4-40f0-82ea-ba55e12251a9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="39c968c6-d81e-4a40-af5e-103bfa8ea621">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{488A6D9C-A748-45FA-846F-A9AD5EC1A9F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF06F155-6F1A-4F06-A273-A2279113E9CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -54635,23 +54651,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{488A6D9C-A748-45FA-846F-A9AD5EC1A9F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DE6B354-43A9-4490-9EF5-3F7471DCEA9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16e03651-acd4-40f0-82ea-ba55e12251a9"/>
-    <ds:schemaRef ds:uri="39c968c6-d81e-4a40-af5e-103bfa8ea621"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>